--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2EAE2-E4DD-41DA-975A-B13843B2849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75816174-ED7F-4594-B2FC-BDBD2E40E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>Nome</t>
+    <t>NOME</t>
   </si>
 </sst>
 </file>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75816174-ED7F-4594-B2FC-BDBD2E40E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A2EAE2-E4DD-41DA-975A-B13843B2849E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -1569,7 +1569,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>NOME</t>
+    <t>Nome</t>
   </si>
 </sst>
 </file>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1518A615-FA24-4B43-9407-21C30D1EC3C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB2CCB-5D2E-4296-9280-2D19BD815D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -4681,7 +4681,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}">
   <dimension ref="A1:AH1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A654" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A662" sqref="A662:R1343"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -60288,7 +60290,7 @@
         <v>0</v>
       </c>
       <c r="M774" s="6">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="N774" s="6">
         <v>0</v>
@@ -60303,7 +60305,7 @@
         <v>0</v>
       </c>
       <c r="R774" s="4">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="S774" s="1" t="s">
         <v>519</v>
@@ -62489,7 +62491,7 @@
         <v>0</v>
       </c>
       <c r="M805" s="6">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="N805" s="6">
         <v>0</v>
@@ -62504,7 +62506,7 @@
         <v>0</v>
       </c>
       <c r="R805" s="4">
-        <v>0</v>
+        <v>20.9</v>
       </c>
       <c r="S805" s="1" t="s">
         <v>519</v>
@@ -64690,7 +64692,7 @@
         <v>0</v>
       </c>
       <c r="M836" s="6">
-        <v>0</v>
+        <v>19.03</v>
       </c>
       <c r="N836" s="6">
         <v>0</v>
@@ -64705,7 +64707,7 @@
         <v>0</v>
       </c>
       <c r="R836" s="4">
-        <v>0</v>
+        <v>19.03</v>
       </c>
       <c r="S836" s="1" t="s">
         <v>519</v>
@@ -71293,7 +71295,7 @@
         <v>0</v>
       </c>
       <c r="M929" s="6">
-        <v>0</v>
+        <v>14.88</v>
       </c>
       <c r="N929" s="6">
         <v>0</v>
@@ -71308,7 +71310,7 @@
         <v>0</v>
       </c>
       <c r="R929" s="4">
-        <v>0</v>
+        <v>14.88</v>
       </c>
       <c r="S929" s="1" t="s">
         <v>519</v>
@@ -73494,7 +73496,7 @@
         <v>0</v>
       </c>
       <c r="M960" s="6">
-        <v>0</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="N960" s="6">
         <v>0</v>
@@ -73509,7 +73511,7 @@
         <v>0</v>
       </c>
       <c r="R960" s="4">
-        <v>0</v>
+        <v>18.940000000000001</v>
       </c>
       <c r="S960" s="1" t="s">
         <v>519</v>
@@ -75695,7 +75697,7 @@
         <v>0</v>
       </c>
       <c r="M991" s="6">
-        <v>0</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="N991" s="6">
         <v>0</v>
@@ -75710,7 +75712,7 @@
         <v>0</v>
       </c>
       <c r="R991" s="4">
-        <v>0</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="S991" s="1" t="s">
         <v>519</v>
@@ -80097,7 +80099,7 @@
         <v>0</v>
       </c>
       <c r="M1053" s="6">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="N1053" s="6">
         <v>0</v>
@@ -80112,7 +80114,7 @@
         <v>0</v>
       </c>
       <c r="R1053" s="4">
-        <v>0</v>
+        <v>17.63</v>
       </c>
       <c r="S1053" s="1" t="e">
         <v>#N/A</v>
@@ -82298,7 +82300,7 @@
         <v>0</v>
       </c>
       <c r="M1084" s="6">
-        <v>0</v>
+        <v>19.64</v>
       </c>
       <c r="N1084" s="6">
         <v>0</v>
@@ -82313,7 +82315,7 @@
         <v>0</v>
       </c>
       <c r="R1084" s="4">
-        <v>0</v>
+        <v>19.64</v>
       </c>
       <c r="S1084" s="1" t="e">
         <v>#N/A</v>
@@ -84499,7 +84501,7 @@
         <v>0</v>
       </c>
       <c r="M1115" s="6">
-        <v>0</v>
+        <v>20.93</v>
       </c>
       <c r="N1115" s="6">
         <v>0</v>
@@ -84514,7 +84516,7 @@
         <v>0</v>
       </c>
       <c r="R1115" s="4">
-        <v>0</v>
+        <v>20.93</v>
       </c>
       <c r="S1115" s="1" t="e">
         <v>#N/A</v>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BB2CCB-5D2E-4296-9280-2D19BD815D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD6203-4F2A-4929-A407-479CE5632B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11663" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11763" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -4681,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}">
   <dimension ref="A1:AH1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A654" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A660" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A662" sqref="A662:R1343"/>
     </sheetView>
   </sheetViews>
@@ -53597,23 +53597,23 @@
       <c r="F680" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G680" s="7">
-        <v>0</v>
+      <c r="G680" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H680" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I680" s="6">
-        <v>0</v>
-      </c>
-      <c r="J680" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J680" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K680" s="6">
-        <v>0</v>
-      </c>
-      <c r="L680" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L680" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M680" s="6">
         <v>0</v>
@@ -53631,7 +53631,7 @@
         <v>0</v>
       </c>
       <c r="R680" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S680" s="1" t="s">
         <v>519</v>
@@ -55798,23 +55798,23 @@
       <c r="F711" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G711" s="7">
-        <v>0</v>
+      <c r="G711" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H711" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I711" s="6">
-        <v>0</v>
-      </c>
-      <c r="J711" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J711" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K711" s="6">
-        <v>0</v>
-      </c>
-      <c r="L711" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L711" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M711" s="6">
         <v>0</v>
@@ -55832,7 +55832,7 @@
         <v>0</v>
       </c>
       <c r="R711" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S711" s="1" t="s">
         <v>519</v>
@@ -57999,23 +57999,23 @@
       <c r="F742" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G742" s="7">
-        <v>0</v>
+      <c r="G742" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H742" s="6">
-        <v>0</v>
-      </c>
-      <c r="I742" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I742" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J742" s="6">
-        <v>0</v>
-      </c>
-      <c r="K742" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K742" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L742" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M742" s="6">
         <v>0</v>
@@ -58033,7 +58033,7 @@
         <v>0</v>
       </c>
       <c r="R742" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S742" s="1" t="s">
         <v>519</v>
@@ -60200,23 +60200,23 @@
       <c r="F773" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G773" s="7">
-        <v>0</v>
-      </c>
-      <c r="H773" s="6">
-        <v>0</v>
-      </c>
-      <c r="I773" s="6">
-        <v>0</v>
-      </c>
-      <c r="J773" s="6">
-        <v>0</v>
-      </c>
-      <c r="K773" s="6">
-        <v>0</v>
-      </c>
-      <c r="L773" s="6">
-        <v>0</v>
+      <c r="G773" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H773" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I773" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J773" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K773" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L773" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M773" s="6">
         <v>15.92</v>
@@ -62401,23 +62401,23 @@
       <c r="F804" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G804" s="7">
-        <v>0</v>
-      </c>
-      <c r="H804" s="6">
-        <v>0</v>
-      </c>
-      <c r="I804" s="6">
-        <v>0</v>
-      </c>
-      <c r="J804" s="6">
-        <v>0</v>
-      </c>
-      <c r="K804" s="6">
-        <v>0</v>
-      </c>
-      <c r="L804" s="6">
-        <v>0</v>
+      <c r="G804" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H804" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I804" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J804" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K804" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L804" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M804" s="6">
         <v>23.25</v>
@@ -64602,23 +64602,23 @@
       <c r="F835" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G835" s="7">
-        <v>0</v>
-      </c>
-      <c r="H835" s="6">
-        <v>0</v>
-      </c>
-      <c r="I835" s="6">
-        <v>0</v>
-      </c>
-      <c r="J835" s="6">
-        <v>0</v>
-      </c>
-      <c r="K835" s="6">
-        <v>0</v>
-      </c>
-      <c r="L835" s="6">
-        <v>0</v>
+      <c r="G835" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H835" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I835" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J835" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K835" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L835" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M835" s="6">
         <v>19.86</v>
@@ -66803,8 +66803,8 @@
       <c r="F866" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G866" s="7">
-        <v>0</v>
+      <c r="G866" s="7" t="s">
+        <v>540</v>
       </c>
       <c r="H866" s="6">
         <v>0</v>
@@ -69004,23 +69004,23 @@
       <c r="F897" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G897" s="7">
-        <v>0</v>
-      </c>
-      <c r="H897" s="6">
-        <v>0</v>
-      </c>
-      <c r="I897" s="6">
-        <v>0</v>
-      </c>
-      <c r="J897" s="6">
-        <v>0</v>
-      </c>
-      <c r="K897" s="6">
-        <v>0</v>
-      </c>
-      <c r="L897" s="6">
-        <v>0</v>
+      <c r="G897" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H897" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I897" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J897" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K897" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L897" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M897" s="6">
         <v>0</v>
@@ -71205,23 +71205,23 @@
       <c r="F928" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G928" s="7">
-        <v>0</v>
-      </c>
-      <c r="H928" s="6">
-        <v>0</v>
-      </c>
-      <c r="I928" s="6">
-        <v>0</v>
-      </c>
-      <c r="J928" s="6">
-        <v>0</v>
-      </c>
-      <c r="K928" s="6">
-        <v>0</v>
-      </c>
-      <c r="L928" s="6">
-        <v>0</v>
+      <c r="G928" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H928" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I928" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J928" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K928" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L928" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M928" s="6">
         <v>19.88</v>
@@ -73406,23 +73406,23 @@
       <c r="F959" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G959" s="7">
-        <v>0</v>
-      </c>
-      <c r="H959" s="6">
-        <v>0</v>
-      </c>
-      <c r="I959" s="6">
-        <v>0</v>
-      </c>
-      <c r="J959" s="6">
-        <v>0</v>
-      </c>
-      <c r="K959" s="6">
-        <v>0</v>
-      </c>
-      <c r="L959" s="6">
-        <v>0</v>
+      <c r="G959" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H959" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I959" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J959" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K959" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L959" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M959" s="6">
         <v>13.83</v>
@@ -75607,23 +75607,23 @@
       <c r="F990" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G990" s="7">
-        <v>0</v>
-      </c>
-      <c r="H990" s="6">
-        <v>0</v>
-      </c>
-      <c r="I990" s="6">
-        <v>0</v>
-      </c>
-      <c r="J990" s="6">
-        <v>0</v>
-      </c>
-      <c r="K990" s="6">
-        <v>0</v>
-      </c>
-      <c r="L990" s="6">
-        <v>0</v>
+      <c r="G990" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H990" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I990" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J990" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K990" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L990" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M990" s="6">
         <v>0</v>
@@ -77808,23 +77808,23 @@
       <c r="F1021" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1021" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1021" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1021" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1021" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1021" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1021" s="6">
-        <v>0</v>
+      <c r="G1021" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1021" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1021" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1021" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1021" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1021" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1021" s="6">
         <v>0</v>
@@ -80009,23 +80009,23 @@
       <c r="F1052" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1052" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1052" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1052" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1052" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1052" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1052" s="6">
-        <v>0</v>
+      <c r="G1052" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1052" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1052" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1052" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1052" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1052" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1052" s="6">
         <v>18.45</v>
@@ -82210,23 +82210,23 @@
       <c r="F1083" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1083" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1083" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1083" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1083" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1083" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1083" s="6">
-        <v>0</v>
+      <c r="G1083" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1083" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1083" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1083" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1083" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1083" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1083" s="6">
         <v>19.12</v>
@@ -84411,23 +84411,23 @@
       <c r="F1114" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1114" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1114" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1114" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1114" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1114" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1114" s="6">
-        <v>0</v>
+      <c r="G1114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1114" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1114" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1114" s="6">
         <v>16.52</v>
@@ -86612,17 +86612,17 @@
       <c r="F1145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1145" s="7">
-        <v>0</v>
+      <c r="G1145" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1145" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1145" s="6">
         <v>0</v>
       </c>
-      <c r="J1145" s="6">
-        <v>0</v>
+      <c r="J1145" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1145" s="6">
         <v>0</v>
@@ -86637,16 +86637,16 @@
         <v>0</v>
       </c>
       <c r="O1145" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1145" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1145" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1145" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1145" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1145" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1145" s="1" t="e">
         <v>#N/A</v>
@@ -88813,17 +88813,17 @@
       <c r="F1176" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1176" s="7">
-        <v>0</v>
+      <c r="G1176" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1176" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1176" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1176" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1176" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1176" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1176" s="6">
         <v>0</v>
@@ -88838,16 +88838,16 @@
         <v>0</v>
       </c>
       <c r="O1176" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1176" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1176" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1176" s="6">
         <v>0</v>
       </c>
       <c r="R1176" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1176" s="1" t="e">
         <v>#N/A</v>
@@ -93215,17 +93215,17 @@
       <c r="F1238" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1238" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1238" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1238" s="6">
-        <v>0</v>
+      <c r="G1238" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1238" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1238" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1238" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1238" s="6">
         <v>0</v>
@@ -93240,16 +93240,16 @@
         <v>0</v>
       </c>
       <c r="O1238" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1238" s="6">
         <v>0</v>
       </c>
-      <c r="Q1238" s="6">
-        <v>0</v>
+      <c r="Q1238" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1238" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1238" s="1" t="e">
         <v>#N/A</v>
@@ -95416,17 +95416,17 @@
       <c r="F1269" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1269" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1269" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1269" s="6">
-        <v>0</v>
+      <c r="G1269" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1269" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1269" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1269" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1269" s="6">
         <v>0</v>
@@ -95441,16 +95441,16 @@
         <v>0</v>
       </c>
       <c r="O1269" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1269" s="6">
         <v>0</v>
       </c>
-      <c r="Q1269" s="6">
-        <v>0</v>
+      <c r="Q1269" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1269" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1269" s="1" t="e">
         <v>#N/A</v>
@@ -97617,17 +97617,17 @@
       <c r="F1300" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1300" s="7">
-        <v>0</v>
+      <c r="G1300" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1300" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1300" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1300" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1300" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1300" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1300" s="6">
         <v>0</v>
@@ -97642,16 +97642,16 @@
         <v>0</v>
       </c>
       <c r="O1300" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1300" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1300" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1300" s="6">
         <v>0</v>
       </c>
       <c r="R1300" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1300" s="1" t="e">
         <v>#N/A</v>
@@ -99818,17 +99818,17 @@
       <c r="F1331" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1331" s="7">
-        <v>0</v>
+      <c r="G1331" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1331" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1331" s="6">
         <v>0</v>
       </c>
-      <c r="J1331" s="6">
-        <v>0</v>
+      <c r="J1331" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1331" s="6">
         <v>0</v>
@@ -99843,16 +99843,16 @@
         <v>0</v>
       </c>
       <c r="O1331" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1331" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1331" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1331" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1331" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1331" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1331" s="1" t="s">
         <v>756</v>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAD6203-4F2A-4929-A407-479CE5632B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880731-522B-4B05-ACD7-5C60FC61C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11763" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12183" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -4681,8 +4681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}">
   <dimension ref="A1:AH1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A660" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A662" sqref="A662:R1343"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56686,20 +56686,20 @@
       <c r="R723" s="4">
         <v>0</v>
       </c>
-      <c r="S723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T723" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U723" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V723" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W723" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S723" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T723" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U723" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V723" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W723" s="8">
+        <v>0.967741935483871</v>
       </c>
     </row>
     <row r="724" spans="1:23" x14ac:dyDescent="0.3">
@@ -58816,20 +58816,20 @@
       <c r="R753" s="4">
         <v>0</v>
       </c>
-      <c r="S753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T753" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U753" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V753" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W753" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S753" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T753" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U753" s="8">
+        <v>0</v>
+      </c>
+      <c r="V753" s="8">
+        <v>0</v>
+      </c>
+      <c r="W753" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:23" x14ac:dyDescent="0.3">
@@ -58887,20 +58887,20 @@
       <c r="R754" s="4">
         <v>0</v>
       </c>
-      <c r="S754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T754" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U754" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V754" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W754" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S754" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T754" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U754" s="8">
+        <v>0</v>
+      </c>
+      <c r="V754" s="8">
+        <v>0</v>
+      </c>
+      <c r="W754" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:23" x14ac:dyDescent="0.3">
@@ -60946,20 +60946,20 @@
       <c r="R783" s="4">
         <v>0</v>
       </c>
-      <c r="S783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T783" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U783" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V783" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W783" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S783" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T783" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U783" s="8">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="V783" s="8">
+        <v>0</v>
+      </c>
+      <c r="W783" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:23" x14ac:dyDescent="0.3">
@@ -61017,20 +61017,20 @@
       <c r="R784" s="4">
         <v>0</v>
       </c>
-      <c r="S784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T784" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U784" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V784" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W784" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S784" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T784" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U784" s="8">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="V784" s="8">
+        <v>0</v>
+      </c>
+      <c r="W784" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:23" x14ac:dyDescent="0.3">
@@ -61088,20 +61088,20 @@
       <c r="R785" s="4">
         <v>0</v>
       </c>
-      <c r="S785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T785" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U785" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V785" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W785" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S785" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T785" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U785" s="8">
+        <v>0.76470588235294112</v>
+      </c>
+      <c r="V785" s="8">
+        <v>0</v>
+      </c>
+      <c r="W785" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:23" x14ac:dyDescent="0.3">
@@ -63076,20 +63076,20 @@
       <c r="R813" s="4">
         <v>0</v>
       </c>
-      <c r="S813" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T813" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U813" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V813" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W813" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S813" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T813" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U813" s="8">
+        <v>0</v>
+      </c>
+      <c r="V813" s="8">
+        <v>0</v>
+      </c>
+      <c r="W813" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:23" x14ac:dyDescent="0.3">
@@ -63147,20 +63147,20 @@
       <c r="R814" s="4">
         <v>0</v>
       </c>
-      <c r="S814" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T814" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U814" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V814" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W814" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S814" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T814" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U814" s="8">
+        <v>0</v>
+      </c>
+      <c r="V814" s="8">
+        <v>0</v>
+      </c>
+      <c r="W814" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:23" x14ac:dyDescent="0.3">
@@ -63218,20 +63218,20 @@
       <c r="R815" s="4">
         <v>0</v>
       </c>
-      <c r="S815" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T815" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U815" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V815" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W815" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S815" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T815" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U815" s="8">
+        <v>0</v>
+      </c>
+      <c r="V815" s="8">
+        <v>0</v>
+      </c>
+      <c r="W815" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:23" x14ac:dyDescent="0.3">
@@ -63289,20 +63289,20 @@
       <c r="R816" s="4">
         <v>0</v>
       </c>
-      <c r="S816" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T816" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U816" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V816" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W816" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S816" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T816" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U816" s="8">
+        <v>0</v>
+      </c>
+      <c r="V816" s="8">
+        <v>0</v>
+      </c>
+      <c r="W816" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:23" x14ac:dyDescent="0.3">
@@ -65206,20 +65206,20 @@
       <c r="R843" s="4">
         <v>0</v>
       </c>
-      <c r="S843" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T843" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U843" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V843" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W843" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S843" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T843" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U843" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="V843" s="8">
+        <v>0</v>
+      </c>
+      <c r="W843" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:23" x14ac:dyDescent="0.3">
@@ -65277,20 +65277,20 @@
       <c r="R844" s="4">
         <v>0</v>
       </c>
-      <c r="S844" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T844" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U844" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V844" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W844" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S844" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T844" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U844" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="V844" s="8">
+        <v>0</v>
+      </c>
+      <c r="W844" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:23" x14ac:dyDescent="0.3">
@@ -65348,20 +65348,20 @@
       <c r="R845" s="4">
         <v>0</v>
       </c>
-      <c r="S845" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T845" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U845" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V845" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W845" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S845" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T845" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U845" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="V845" s="8">
+        <v>0</v>
+      </c>
+      <c r="W845" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:23" x14ac:dyDescent="0.3">
@@ -65419,20 +65419,20 @@
       <c r="R846" s="4">
         <v>0</v>
       </c>
-      <c r="S846" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T846" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U846" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V846" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W846" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S846" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T846" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U846" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="V846" s="8">
+        <v>0</v>
+      </c>
+      <c r="W846" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:23" x14ac:dyDescent="0.3">
@@ -65490,20 +65490,20 @@
       <c r="R847" s="4">
         <v>0</v>
       </c>
-      <c r="S847" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T847" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U847" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V847" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W847" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S847" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T847" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U847" s="8">
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="V847" s="8">
+        <v>0</v>
+      </c>
+      <c r="W847" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:23" x14ac:dyDescent="0.3">
@@ -67336,20 +67336,20 @@
       <c r="R873" s="4">
         <v>0</v>
       </c>
-      <c r="S873" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T873" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U873" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V873" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W873" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S873" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T873" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U873" s="8">
+        <v>0</v>
+      </c>
+      <c r="V873" s="8">
+        <v>0</v>
+      </c>
+      <c r="W873" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:23" x14ac:dyDescent="0.3">
@@ -67407,20 +67407,20 @@
       <c r="R874" s="4">
         <v>0</v>
       </c>
-      <c r="S874" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T874" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U874" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V874" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W874" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S874" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T874" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U874" s="8">
+        <v>0</v>
+      </c>
+      <c r="V874" s="8">
+        <v>0</v>
+      </c>
+      <c r="W874" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:23" x14ac:dyDescent="0.3">
@@ -67478,20 +67478,20 @@
       <c r="R875" s="4">
         <v>0</v>
       </c>
-      <c r="S875" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T875" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U875" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V875" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W875" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S875" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T875" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U875" s="8">
+        <v>0</v>
+      </c>
+      <c r="V875" s="8">
+        <v>0</v>
+      </c>
+      <c r="W875" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:23" x14ac:dyDescent="0.3">
@@ -67549,20 +67549,20 @@
       <c r="R876" s="4">
         <v>0</v>
       </c>
-      <c r="S876" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T876" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U876" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V876" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W876" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S876" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T876" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U876" s="8">
+        <v>0</v>
+      </c>
+      <c r="V876" s="8">
+        <v>0</v>
+      </c>
+      <c r="W876" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:23" x14ac:dyDescent="0.3">
@@ -67620,20 +67620,20 @@
       <c r="R877" s="4">
         <v>0</v>
       </c>
-      <c r="S877" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T877" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U877" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V877" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W877" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S877" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T877" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U877" s="8">
+        <v>0</v>
+      </c>
+      <c r="V877" s="8">
+        <v>0</v>
+      </c>
+      <c r="W877" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:23" x14ac:dyDescent="0.3">
@@ -67691,20 +67691,20 @@
       <c r="R878" s="4">
         <v>0</v>
       </c>
-      <c r="S878" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T878" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U878" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V878" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W878" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S878" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T878" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U878" s="8">
+        <v>0</v>
+      </c>
+      <c r="V878" s="8">
+        <v>0</v>
+      </c>
+      <c r="W878" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:23" x14ac:dyDescent="0.3">
@@ -69466,20 +69466,20 @@
       <c r="R903" s="4">
         <v>0</v>
       </c>
-      <c r="S903" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T903" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U903" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V903" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W903" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S903" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T903" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U903" s="8">
+        <v>0</v>
+      </c>
+      <c r="V903" s="8">
+        <v>0</v>
+      </c>
+      <c r="W903" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:23" x14ac:dyDescent="0.3">
@@ -69537,20 +69537,20 @@
       <c r="R904" s="4">
         <v>0</v>
       </c>
-      <c r="S904" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T904" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U904" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V904" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W904" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S904" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T904" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U904" s="8">
+        <v>0</v>
+      </c>
+      <c r="V904" s="8">
+        <v>0</v>
+      </c>
+      <c r="W904" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:23" x14ac:dyDescent="0.3">
@@ -69608,20 +69608,20 @@
       <c r="R905" s="4">
         <v>0</v>
       </c>
-      <c r="S905" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T905" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U905" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V905" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W905" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S905" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T905" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U905" s="8">
+        <v>0</v>
+      </c>
+      <c r="V905" s="8">
+        <v>0</v>
+      </c>
+      <c r="W905" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:23" x14ac:dyDescent="0.3">
@@ -69679,20 +69679,20 @@
       <c r="R906" s="4">
         <v>0</v>
       </c>
-      <c r="S906" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T906" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U906" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V906" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W906" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S906" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T906" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U906" s="8">
+        <v>0</v>
+      </c>
+      <c r="V906" s="8">
+        <v>0</v>
+      </c>
+      <c r="W906" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:23" x14ac:dyDescent="0.3">
@@ -69750,20 +69750,20 @@
       <c r="R907" s="4">
         <v>0</v>
       </c>
-      <c r="S907" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T907" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U907" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V907" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W907" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S907" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T907" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U907" s="8">
+        <v>0</v>
+      </c>
+      <c r="V907" s="8">
+        <v>0</v>
+      </c>
+      <c r="W907" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:23" x14ac:dyDescent="0.3">
@@ -69821,20 +69821,20 @@
       <c r="R908" s="4">
         <v>0</v>
       </c>
-      <c r="S908" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T908" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U908" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V908" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W908" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S908" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T908" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U908" s="8">
+        <v>0</v>
+      </c>
+      <c r="V908" s="8">
+        <v>0</v>
+      </c>
+      <c r="W908" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:23" x14ac:dyDescent="0.3">
@@ -69892,20 +69892,20 @@
       <c r="R909" s="4">
         <v>0</v>
       </c>
-      <c r="S909" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T909" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U909" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V909" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W909" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S909" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T909" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U909" s="8">
+        <v>0</v>
+      </c>
+      <c r="V909" s="8">
+        <v>0</v>
+      </c>
+      <c r="W909" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:23" x14ac:dyDescent="0.3">
@@ -71596,20 +71596,20 @@
       <c r="R933" s="4">
         <v>0</v>
       </c>
-      <c r="S933" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T933" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U933" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V933" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W933" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S933" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T933" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U933" s="8">
+        <v>0</v>
+      </c>
+      <c r="V933" s="8">
+        <v>0</v>
+      </c>
+      <c r="W933" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:23" x14ac:dyDescent="0.3">
@@ -71667,20 +71667,20 @@
       <c r="R934" s="4">
         <v>0</v>
       </c>
-      <c r="S934" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T934" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U934" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V934" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W934" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S934" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T934" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U934" s="8">
+        <v>0</v>
+      </c>
+      <c r="V934" s="8">
+        <v>0</v>
+      </c>
+      <c r="W934" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:23" x14ac:dyDescent="0.3">
@@ -71738,20 +71738,20 @@
       <c r="R935" s="4">
         <v>0</v>
       </c>
-      <c r="S935" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T935" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U935" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V935" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W935" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S935" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T935" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U935" s="8">
+        <v>0</v>
+      </c>
+      <c r="V935" s="8">
+        <v>0</v>
+      </c>
+      <c r="W935" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:23" x14ac:dyDescent="0.3">
@@ -71809,20 +71809,20 @@
       <c r="R936" s="4">
         <v>0</v>
       </c>
-      <c r="S936" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T936" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U936" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V936" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W936" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S936" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T936" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U936" s="8">
+        <v>0</v>
+      </c>
+      <c r="V936" s="8">
+        <v>0</v>
+      </c>
+      <c r="W936" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:23" x14ac:dyDescent="0.3">
@@ -71880,20 +71880,20 @@
       <c r="R937" s="4">
         <v>0</v>
       </c>
-      <c r="S937" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T937" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U937" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V937" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W937" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S937" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T937" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U937" s="8">
+        <v>0</v>
+      </c>
+      <c r="V937" s="8">
+        <v>0</v>
+      </c>
+      <c r="W937" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:23" x14ac:dyDescent="0.3">
@@ -71951,20 +71951,20 @@
       <c r="R938" s="4">
         <v>0</v>
       </c>
-      <c r="S938" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T938" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U938" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V938" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W938" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S938" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T938" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U938" s="8">
+        <v>0</v>
+      </c>
+      <c r="V938" s="8">
+        <v>0</v>
+      </c>
+      <c r="W938" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:23" x14ac:dyDescent="0.3">
@@ -72022,20 +72022,20 @@
       <c r="R939" s="4">
         <v>0</v>
       </c>
-      <c r="S939" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T939" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U939" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V939" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W939" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S939" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T939" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U939" s="8">
+        <v>0</v>
+      </c>
+      <c r="V939" s="8">
+        <v>0</v>
+      </c>
+      <c r="W939" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:23" x14ac:dyDescent="0.3">
@@ -72093,20 +72093,20 @@
       <c r="R940" s="4">
         <v>0</v>
       </c>
-      <c r="S940" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T940" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U940" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V940" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W940" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S940" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T940" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U940" s="8">
+        <v>0</v>
+      </c>
+      <c r="V940" s="8">
+        <v>0</v>
+      </c>
+      <c r="W940" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:23" x14ac:dyDescent="0.3">
@@ -73726,20 +73726,20 @@
       <c r="R963" s="4">
         <v>0</v>
       </c>
-      <c r="S963" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T963" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U963" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V963" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W963" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S963" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T963" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U963" s="8">
+        <v>0</v>
+      </c>
+      <c r="V963" s="8">
+        <v>0</v>
+      </c>
+      <c r="W963" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:23" x14ac:dyDescent="0.3">
@@ -73797,20 +73797,20 @@
       <c r="R964" s="4">
         <v>0</v>
       </c>
-      <c r="S964" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T964" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U964" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V964" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W964" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S964" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T964" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U964" s="8">
+        <v>0</v>
+      </c>
+      <c r="V964" s="8">
+        <v>0</v>
+      </c>
+      <c r="W964" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:23" x14ac:dyDescent="0.3">
@@ -73868,20 +73868,20 @@
       <c r="R965" s="4">
         <v>0</v>
       </c>
-      <c r="S965" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T965" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U965" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V965" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W965" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S965" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T965" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U965" s="8">
+        <v>0</v>
+      </c>
+      <c r="V965" s="8">
+        <v>0</v>
+      </c>
+      <c r="W965" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:23" x14ac:dyDescent="0.3">
@@ -73939,20 +73939,20 @@
       <c r="R966" s="4">
         <v>0</v>
       </c>
-      <c r="S966" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T966" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U966" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V966" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W966" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S966" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T966" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U966" s="8">
+        <v>0</v>
+      </c>
+      <c r="V966" s="8">
+        <v>0</v>
+      </c>
+      <c r="W966" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:23" x14ac:dyDescent="0.3">
@@ -74010,20 +74010,20 @@
       <c r="R967" s="4">
         <v>0</v>
       </c>
-      <c r="S967" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T967" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U967" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V967" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W967" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S967" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T967" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U967" s="8">
+        <v>0</v>
+      </c>
+      <c r="V967" s="8">
+        <v>0</v>
+      </c>
+      <c r="W967" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:23" x14ac:dyDescent="0.3">
@@ -74081,20 +74081,20 @@
       <c r="R968" s="4">
         <v>0</v>
       </c>
-      <c r="S968" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T968" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U968" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V968" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W968" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S968" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T968" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U968" s="8">
+        <v>0</v>
+      </c>
+      <c r="V968" s="8">
+        <v>0</v>
+      </c>
+      <c r="W968" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:23" x14ac:dyDescent="0.3">
@@ -74152,20 +74152,20 @@
       <c r="R969" s="4">
         <v>0</v>
       </c>
-      <c r="S969" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T969" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U969" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V969" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W969" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S969" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T969" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U969" s="8">
+        <v>0</v>
+      </c>
+      <c r="V969" s="8">
+        <v>0</v>
+      </c>
+      <c r="W969" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:23" x14ac:dyDescent="0.3">
@@ -74223,20 +74223,20 @@
       <c r="R970" s="4">
         <v>0</v>
       </c>
-      <c r="S970" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T970" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U970" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V970" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W970" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S970" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T970" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U970" s="8">
+        <v>0</v>
+      </c>
+      <c r="V970" s="8">
+        <v>0</v>
+      </c>
+      <c r="W970" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:23" x14ac:dyDescent="0.3">
@@ -74294,20 +74294,20 @@
       <c r="R971" s="4">
         <v>0</v>
       </c>
-      <c r="S971" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T971" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U971" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V971" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W971" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S971" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T971" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U971" s="8">
+        <v>0</v>
+      </c>
+      <c r="V971" s="8">
+        <v>0</v>
+      </c>
+      <c r="W971" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:23" x14ac:dyDescent="0.3">
@@ -75856,20 +75856,20 @@
       <c r="R993" s="4">
         <v>0</v>
       </c>
-      <c r="S993" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T993" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U993" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V993" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W993" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S993" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T993" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U993" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V993" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W993" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="994" spans="1:23" x14ac:dyDescent="0.3">
@@ -75927,20 +75927,20 @@
       <c r="R994" s="4">
         <v>0</v>
       </c>
-      <c r="S994" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T994" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U994" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V994" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W994" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S994" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T994" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U994" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V994" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W994" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="995" spans="1:23" x14ac:dyDescent="0.3">
@@ -75998,20 +75998,20 @@
       <c r="R995" s="4">
         <v>0</v>
       </c>
-      <c r="S995" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T995" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U995" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V995" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W995" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S995" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T995" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U995" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V995" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W995" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="996" spans="1:23" x14ac:dyDescent="0.3">
@@ -76069,20 +76069,20 @@
       <c r="R996" s="4">
         <v>0</v>
       </c>
-      <c r="S996" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T996" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U996" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V996" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W996" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S996" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T996" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U996" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V996" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W996" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="997" spans="1:23" x14ac:dyDescent="0.3">
@@ -76140,20 +76140,20 @@
       <c r="R997" s="4">
         <v>0</v>
       </c>
-      <c r="S997" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T997" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U997" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V997" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W997" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S997" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T997" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U997" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V997" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W997" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="998" spans="1:23" x14ac:dyDescent="0.3">
@@ -76211,20 +76211,20 @@
       <c r="R998" s="4">
         <v>0</v>
       </c>
-      <c r="S998" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T998" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U998" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V998" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W998" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S998" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T998" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U998" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V998" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W998" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="999" spans="1:23" x14ac:dyDescent="0.3">
@@ -76282,20 +76282,20 @@
       <c r="R999" s="4">
         <v>0</v>
       </c>
-      <c r="S999" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T999" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U999" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V999" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W999" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S999" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T999" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U999" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V999" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W999" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="1000" spans="1:23" x14ac:dyDescent="0.3">
@@ -76353,20 +76353,20 @@
       <c r="R1000" s="4">
         <v>0</v>
       </c>
-      <c r="S1000" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1000" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1000" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1000" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1000" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1000" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1000" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1000" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1000" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W1000" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="1001" spans="1:23" x14ac:dyDescent="0.3">
@@ -76424,20 +76424,20 @@
       <c r="R1001" s="4">
         <v>0</v>
       </c>
-      <c r="S1001" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1001" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1001" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1001" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1001" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1001" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1001" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1001" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1001" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W1001" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="1002" spans="1:23" x14ac:dyDescent="0.3">
@@ -76495,20 +76495,20 @@
       <c r="R1002" s="4">
         <v>0</v>
       </c>
-      <c r="S1002" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1002" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1002" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1002" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1002" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1002" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1002" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1002" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1002" s="8">
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W1002" s="8">
+        <v>0.32258064516129031</v>
       </c>
     </row>
     <row r="1003" spans="1:23" x14ac:dyDescent="0.3">
@@ -77986,20 +77986,20 @@
       <c r="R1023" s="4">
         <v>0</v>
       </c>
-      <c r="S1023" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1023" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1023" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1023" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1023" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1023" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1023" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1023" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1023" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1023" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:23" x14ac:dyDescent="0.3">
@@ -78057,20 +78057,20 @@
       <c r="R1024" s="4">
         <v>0</v>
       </c>
-      <c r="S1024" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1024" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1024" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1024" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1024" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1024" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1024" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1024" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1024" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1024" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:23" x14ac:dyDescent="0.3">
@@ -78128,20 +78128,20 @@
       <c r="R1025" s="4">
         <v>0</v>
       </c>
-      <c r="S1025" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1025" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1025" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1025" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1025" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1025" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1025" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1025" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1025" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1025" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:23" x14ac:dyDescent="0.3">
@@ -78199,20 +78199,20 @@
       <c r="R1026" s="4">
         <v>0</v>
       </c>
-      <c r="S1026" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1026" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1026" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1026" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1026" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1026" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1026" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1026" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1026" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1026" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:23" x14ac:dyDescent="0.3">
@@ -78270,20 +78270,20 @@
       <c r="R1027" s="4">
         <v>0</v>
       </c>
-      <c r="S1027" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1027" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1027" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1027" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1027" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1027" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1027" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1027" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1027" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1027" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:23" x14ac:dyDescent="0.3">
@@ -78341,20 +78341,20 @@
       <c r="R1028" s="4">
         <v>0</v>
       </c>
-      <c r="S1028" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1028" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1028" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1028" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1028" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1028" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1028" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1028" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1028" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1028" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1029" spans="1:23" x14ac:dyDescent="0.3">
@@ -78412,20 +78412,20 @@
       <c r="R1029" s="4">
         <v>0</v>
       </c>
-      <c r="S1029" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1029" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1029" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1029" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1029" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1029" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1029" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1029" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1029" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1029" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1030" spans="1:23" x14ac:dyDescent="0.3">
@@ -78483,20 +78483,20 @@
       <c r="R1030" s="4">
         <v>0</v>
       </c>
-      <c r="S1030" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1030" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1030" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1030" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1030" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1030" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1030" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1030" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1030" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1030" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:23" x14ac:dyDescent="0.3">
@@ -78554,20 +78554,20 @@
       <c r="R1031" s="4">
         <v>0</v>
       </c>
-      <c r="S1031" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1031" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1031" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1031" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1031" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1031" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1031" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1031" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1031" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1031" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:23" x14ac:dyDescent="0.3">
@@ -78625,20 +78625,20 @@
       <c r="R1032" s="4">
         <v>0</v>
       </c>
-      <c r="S1032" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1032" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1032" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1032" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1032" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1032" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1032" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1032" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1032" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1032" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:23" x14ac:dyDescent="0.3">
@@ -78696,20 +78696,20 @@
       <c r="R1033" s="4">
         <v>0</v>
       </c>
-      <c r="S1033" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1033" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1033" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1033" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1033" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1033" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1033" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1033" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1033" s="8">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W1033" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:23" x14ac:dyDescent="0.3">
@@ -80116,20 +80116,20 @@
       <c r="R1053" s="4">
         <v>17.63</v>
       </c>
-      <c r="S1053" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1053" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1053" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1053" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1053" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1053" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1053" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1053" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1053" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1053" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:23" x14ac:dyDescent="0.3">
@@ -80187,20 +80187,20 @@
       <c r="R1054" s="4">
         <v>0</v>
       </c>
-      <c r="S1054" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1054" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1054" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1054" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1054" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1054" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1054" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1054" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1054" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1054" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:23" x14ac:dyDescent="0.3">
@@ -80258,20 +80258,20 @@
       <c r="R1055" s="4">
         <v>0</v>
       </c>
-      <c r="S1055" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1055" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1055" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1055" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1055" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1055" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1055" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1055" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1055" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1055" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:23" x14ac:dyDescent="0.3">
@@ -80329,20 +80329,20 @@
       <c r="R1056" s="4">
         <v>0</v>
       </c>
-      <c r="S1056" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1056" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1056" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1056" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1056" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1056" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1056" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1056" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1056" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1056" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:23" x14ac:dyDescent="0.3">
@@ -80400,20 +80400,20 @@
       <c r="R1057" s="4">
         <v>0</v>
       </c>
-      <c r="S1057" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1057" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1057" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1057" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1057" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1057" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1057" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1057" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1057" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1057" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:23" x14ac:dyDescent="0.3">
@@ -80471,20 +80471,20 @@
       <c r="R1058" s="4">
         <v>0</v>
       </c>
-      <c r="S1058" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1058" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1058" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1058" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1058" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1058" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1058" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1058" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1058" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1058" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:23" x14ac:dyDescent="0.3">
@@ -80542,20 +80542,20 @@
       <c r="R1059" s="4">
         <v>0</v>
       </c>
-      <c r="S1059" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1059" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1059" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1059" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1059" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1059" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1059" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1059" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1059" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1059" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:23" x14ac:dyDescent="0.3">
@@ -80613,20 +80613,20 @@
       <c r="R1060" s="4">
         <v>0</v>
       </c>
-      <c r="S1060" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1060" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1060" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1060" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1060" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1060" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1060" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1060" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1060" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1060" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:23" x14ac:dyDescent="0.3">
@@ -80684,20 +80684,20 @@
       <c r="R1061" s="4">
         <v>0</v>
       </c>
-      <c r="S1061" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1061" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1061" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1061" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1061" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1061" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1061" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1061" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1061" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1061" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:23" x14ac:dyDescent="0.3">
@@ -80755,20 +80755,20 @@
       <c r="R1062" s="4">
         <v>0</v>
       </c>
-      <c r="S1062" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1062" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1062" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1062" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1062" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1062" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1062" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1062" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1062" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1062" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:23" x14ac:dyDescent="0.3">
@@ -80826,20 +80826,20 @@
       <c r="R1063" s="4">
         <v>0</v>
       </c>
-      <c r="S1063" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1063" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1063" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1063" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1063" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1063" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1063" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1063" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1063" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1063" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:23" x14ac:dyDescent="0.3">
@@ -80897,20 +80897,20 @@
       <c r="R1064" s="4">
         <v>0</v>
       </c>
-      <c r="S1064" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1064" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1064" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1064" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1064" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1064" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1064" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1064" s="8">
+        <v>0</v>
+      </c>
+      <c r="V1064" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1064" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:23" x14ac:dyDescent="0.3">
@@ -82246,20 +82246,20 @@
       <c r="R1083" s="4">
         <v>19.12</v>
       </c>
-      <c r="S1083" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1083" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1083" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1083" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1083" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1083" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1083" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1083" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1083" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1083" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:23" x14ac:dyDescent="0.3">
@@ -82317,20 +82317,20 @@
       <c r="R1084" s="4">
         <v>19.64</v>
       </c>
-      <c r="S1084" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1084" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1084" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1084" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1084" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1084" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1084" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1084" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1084" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1084" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:23" x14ac:dyDescent="0.3">
@@ -82388,20 +82388,20 @@
       <c r="R1085" s="4">
         <v>0</v>
       </c>
-      <c r="S1085" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1085" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1085" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1085" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1085" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1085" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1085" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1085" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1085" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1085" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:23" x14ac:dyDescent="0.3">
@@ -82459,20 +82459,20 @@
       <c r="R1086" s="4">
         <v>0</v>
       </c>
-      <c r="S1086" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1086" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1086" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1086" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1086" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1086" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1086" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1086" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1086" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1086" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1087" spans="1:23" x14ac:dyDescent="0.3">
@@ -82530,20 +82530,20 @@
       <c r="R1087" s="4">
         <v>0</v>
       </c>
-      <c r="S1087" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1087" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1087" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1087" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1087" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1087" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1087" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1087" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1087" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1087" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1088" spans="1:23" x14ac:dyDescent="0.3">
@@ -82601,20 +82601,20 @@
       <c r="R1088" s="4">
         <v>0</v>
       </c>
-      <c r="S1088" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1088" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1088" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1088" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1088" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1088" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1088" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1088" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1088" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1088" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:23" x14ac:dyDescent="0.3">
@@ -82672,20 +82672,20 @@
       <c r="R1089" s="4">
         <v>0</v>
       </c>
-      <c r="S1089" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1089" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1089" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1089" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1089" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1089" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1089" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1089" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1089" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1089" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:23" x14ac:dyDescent="0.3">
@@ -82743,20 +82743,20 @@
       <c r="R1090" s="4">
         <v>0</v>
       </c>
-      <c r="S1090" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1090" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1090" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1090" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1090" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1090" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1090" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1090" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1090" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1090" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:23" x14ac:dyDescent="0.3">
@@ -82814,20 +82814,20 @@
       <c r="R1091" s="4">
         <v>0</v>
       </c>
-      <c r="S1091" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1091" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1091" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1091" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1091" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1091" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1091" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1091" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1091" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1091" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1092" spans="1:23" x14ac:dyDescent="0.3">
@@ -82885,20 +82885,20 @@
       <c r="R1092" s="4">
         <v>0</v>
       </c>
-      <c r="S1092" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1092" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1092" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1092" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1092" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1092" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1092" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1092" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1092" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1092" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:23" x14ac:dyDescent="0.3">
@@ -82956,20 +82956,20 @@
       <c r="R1093" s="4">
         <v>0</v>
       </c>
-      <c r="S1093" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1093" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1093" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1093" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1093" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1093" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1093" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1093" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1093" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1093" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:23" x14ac:dyDescent="0.3">
@@ -83027,20 +83027,20 @@
       <c r="R1094" s="4">
         <v>0</v>
       </c>
-      <c r="S1094" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1094" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1094" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1094" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1094" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1094" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1094" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1094" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1094" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1094" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:23" x14ac:dyDescent="0.3">
@@ -83098,20 +83098,20 @@
       <c r="R1095" s="4">
         <v>0</v>
       </c>
-      <c r="S1095" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1095" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1095" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1095" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1095" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1095" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1095" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1095" s="8">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="V1095" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1095" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:23" x14ac:dyDescent="0.3">
@@ -84376,20 +84376,20 @@
       <c r="R1113" s="4">
         <v>0</v>
       </c>
-      <c r="S1113" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1113" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1113" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1113" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1113" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1113" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1113" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1113" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1113" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1114" spans="1:23" x14ac:dyDescent="0.3">
@@ -84447,20 +84447,20 @@
       <c r="R1114" s="4">
         <v>16.52</v>
       </c>
-      <c r="S1114" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1114" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1114" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1114" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1114" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1114" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1114" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1114" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1114" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1115" spans="1:23" x14ac:dyDescent="0.3">
@@ -84518,20 +84518,20 @@
       <c r="R1115" s="4">
         <v>20.93</v>
       </c>
-      <c r="S1115" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1115" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1115" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1115" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1115" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1115" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1115" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1115" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1115" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1115" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1116" spans="1:23" x14ac:dyDescent="0.3">
@@ -84589,20 +84589,20 @@
       <c r="R1116" s="4">
         <v>0</v>
       </c>
-      <c r="S1116" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1116" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1116" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1116" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1116" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1116" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1116" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1116" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1116" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1116" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1117" spans="1:23" x14ac:dyDescent="0.3">
@@ -84660,20 +84660,20 @@
       <c r="R1117" s="4">
         <v>0</v>
       </c>
-      <c r="S1117" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1117" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1117" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1117" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1117" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1117" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1117" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1117" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1117" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1117" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1118" spans="1:23" x14ac:dyDescent="0.3">
@@ -84731,20 +84731,20 @@
       <c r="R1118" s="4">
         <v>0</v>
       </c>
-      <c r="S1118" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1118" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1118" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1118" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1118" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1118" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1118" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1118" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1118" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1118" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1119" spans="1:23" x14ac:dyDescent="0.3">
@@ -84802,20 +84802,20 @@
       <c r="R1119" s="4">
         <v>0</v>
       </c>
-      <c r="S1119" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1119" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1119" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1119" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1119" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1119" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1119" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1119" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1119" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1119" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1120" spans="1:23" x14ac:dyDescent="0.3">
@@ -84873,20 +84873,20 @@
       <c r="R1120" s="4">
         <v>0</v>
       </c>
-      <c r="S1120" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1120" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1120" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1120" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1120" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1120" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1120" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1120" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1120" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1120" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1121" spans="1:23" x14ac:dyDescent="0.3">
@@ -84944,20 +84944,20 @@
       <c r="R1121" s="4">
         <v>0</v>
       </c>
-      <c r="S1121" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1121" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1121" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1121" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1121" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1121" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1121" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1121" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1121" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1121" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1122" spans="1:23" x14ac:dyDescent="0.3">
@@ -85015,20 +85015,20 @@
       <c r="R1122" s="4">
         <v>0</v>
       </c>
-      <c r="S1122" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1122" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1122" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1122" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1122" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1122" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1122" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1122" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1122" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1122" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1123" spans="1:23" x14ac:dyDescent="0.3">
@@ -85086,20 +85086,20 @@
       <c r="R1123" s="4">
         <v>0</v>
       </c>
-      <c r="S1123" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1123" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1123" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1123" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1123" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1123" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1123" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1123" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1123" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1123" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1124" spans="1:23" x14ac:dyDescent="0.3">
@@ -85157,20 +85157,20 @@
       <c r="R1124" s="4">
         <v>0</v>
       </c>
-      <c r="S1124" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1124" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1124" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1124" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1124" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1124" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1124" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1124" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1124" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1124" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1125" spans="1:23" x14ac:dyDescent="0.3">
@@ -85228,20 +85228,20 @@
       <c r="R1125" s="4">
         <v>0</v>
       </c>
-      <c r="S1125" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1125" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1125" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1125" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1125" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1125" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1125" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1125" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1125" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1125" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1126" spans="1:23" x14ac:dyDescent="0.3">
@@ -85299,20 +85299,20 @@
       <c r="R1126" s="4">
         <v>0</v>
       </c>
-      <c r="S1126" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1126" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1126" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1126" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1126" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1126" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="T1126" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1126" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1126" s="8">
+        <v>1</v>
+      </c>
+      <c r="W1126" s="8">
+        <v>0.83870967741935487</v>
       </c>
     </row>
     <row r="1127" spans="1:23" x14ac:dyDescent="0.3">
@@ -86506,20 +86506,20 @@
       <c r="R1143" s="4">
         <v>8</v>
       </c>
-      <c r="S1143" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1143" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1143" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1143" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1143" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1143" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1143" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1143" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1143" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1143" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1144" spans="1:23" x14ac:dyDescent="0.3">
@@ -86577,20 +86577,20 @@
       <c r="R1144" s="4">
         <v>0</v>
       </c>
-      <c r="S1144" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1144" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1144" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1144" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1144" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1144" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1144" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1144" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1144" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1144" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1145" spans="1:23" x14ac:dyDescent="0.3">
@@ -86648,20 +86648,20 @@
       <c r="R1145" s="4">
         <v>4</v>
       </c>
-      <c r="S1145" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1145" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1145" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1145" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1145" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1145" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1145" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1145" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1145" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1145" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1146" spans="1:23" x14ac:dyDescent="0.3">
@@ -86719,20 +86719,20 @@
       <c r="R1146" s="4">
         <v>0</v>
       </c>
-      <c r="S1146" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1146" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1146" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1146" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1146" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1146" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1146" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1146" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1146" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1146" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1147" spans="1:23" x14ac:dyDescent="0.3">
@@ -86790,20 +86790,20 @@
       <c r="R1147" s="4">
         <v>0</v>
       </c>
-      <c r="S1147" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1147" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1147" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1147" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1147" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1147" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1147" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1147" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1147" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1147" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1148" spans="1:23" x14ac:dyDescent="0.3">
@@ -86861,20 +86861,20 @@
       <c r="R1148" s="4">
         <v>0</v>
       </c>
-      <c r="S1148" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1148" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1148" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1148" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1148" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1148" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1148" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1148" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1148" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1148" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:23" x14ac:dyDescent="0.3">
@@ -86932,20 +86932,20 @@
       <c r="R1149" s="4">
         <v>0</v>
       </c>
-      <c r="S1149" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1149" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1149" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1149" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1149" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1149" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1149" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1149" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1149" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1149" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:23" x14ac:dyDescent="0.3">
@@ -87003,20 +87003,20 @@
       <c r="R1150" s="4">
         <v>0</v>
       </c>
-      <c r="S1150" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1150" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1150" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1150" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1150" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1150" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1150" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1150" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1150" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1150" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1151" spans="1:23" x14ac:dyDescent="0.3">
@@ -87074,20 +87074,20 @@
       <c r="R1151" s="4">
         <v>0</v>
       </c>
-      <c r="S1151" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1151" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1151" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1151" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1151" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1151" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1151" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1151" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1151" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1151" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1152" spans="1:23" x14ac:dyDescent="0.3">
@@ -87145,20 +87145,20 @@
       <c r="R1152" s="4">
         <v>0</v>
       </c>
-      <c r="S1152" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1152" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1152" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1152" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1152" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1152" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1152" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1152" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1152" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1152" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1153" spans="1:23" x14ac:dyDescent="0.3">
@@ -87216,20 +87216,20 @@
       <c r="R1153" s="4">
         <v>0</v>
       </c>
-      <c r="S1153" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1153" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1153" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1153" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1153" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1153" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1153" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1153" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1153" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1153" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1154" spans="1:23" x14ac:dyDescent="0.3">
@@ -87287,20 +87287,20 @@
       <c r="R1154" s="4">
         <v>0</v>
       </c>
-      <c r="S1154" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1154" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1154" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1154" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1154" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1154" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1154" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1154" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1154" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1154" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1155" spans="1:23" x14ac:dyDescent="0.3">
@@ -87358,20 +87358,20 @@
       <c r="R1155" s="4">
         <v>0</v>
       </c>
-      <c r="S1155" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1155" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1155" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1155" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1155" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1155" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1155" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1155" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1155" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1155" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1156" spans="1:23" x14ac:dyDescent="0.3">
@@ -87429,20 +87429,20 @@
       <c r="R1156" s="4">
         <v>0</v>
       </c>
-      <c r="S1156" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1156" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1156" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1156" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1156" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1156" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1156" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1156" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1156" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1156" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1157" spans="1:23" x14ac:dyDescent="0.3">
@@ -87500,20 +87500,20 @@
       <c r="R1157" s="4">
         <v>0</v>
       </c>
-      <c r="S1157" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1157" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1157" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1157" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1157" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1157" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1157" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1157" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1157" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1157" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1158" spans="1:23" x14ac:dyDescent="0.3">
@@ -88636,20 +88636,20 @@
       <c r="R1173" s="4">
         <v>8</v>
       </c>
-      <c r="S1173" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1173" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1173" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1173" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1173" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1173" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1173" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1173" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1173" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1173" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1174" spans="1:23" x14ac:dyDescent="0.3">
@@ -88707,20 +88707,20 @@
       <c r="R1174" s="4">
         <v>8</v>
       </c>
-      <c r="S1174" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1174" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1174" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1174" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1174" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1174" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1174" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1174" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1174" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1174" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:23" x14ac:dyDescent="0.3">
@@ -88778,20 +88778,20 @@
       <c r="R1175" s="4">
         <v>0</v>
       </c>
-      <c r="S1175" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1175" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1175" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1175" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1175" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1175" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1175" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1175" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1175" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1175" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:23" x14ac:dyDescent="0.3">
@@ -88849,20 +88849,20 @@
       <c r="R1176" s="4">
         <v>4</v>
       </c>
-      <c r="S1176" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1176" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1176" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1176" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1176" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1176" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1176" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1176" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1176" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1176" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:23" x14ac:dyDescent="0.3">
@@ -88920,20 +88920,20 @@
       <c r="R1177" s="4">
         <v>0</v>
       </c>
-      <c r="S1177" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1177" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1177" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1177" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1177" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1177" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1177" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1177" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1177" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1177" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:23" x14ac:dyDescent="0.3">
@@ -88991,20 +88991,20 @@
       <c r="R1178" s="4">
         <v>0</v>
       </c>
-      <c r="S1178" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1178" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1178" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1178" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1178" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1178" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1178" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1178" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1178" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1178" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:23" x14ac:dyDescent="0.3">
@@ -89062,20 +89062,20 @@
       <c r="R1179" s="4">
         <v>0</v>
       </c>
-      <c r="S1179" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1179" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1179" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1179" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1179" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1179" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1179" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1179" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1179" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1179" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:23" x14ac:dyDescent="0.3">
@@ -89133,20 +89133,20 @@
       <c r="R1180" s="4">
         <v>0</v>
       </c>
-      <c r="S1180" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1180" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1180" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1180" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1180" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1180" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1180" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1180" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1180" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1180" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:23" x14ac:dyDescent="0.3">
@@ -89204,20 +89204,20 @@
       <c r="R1181" s="4">
         <v>0</v>
       </c>
-      <c r="S1181" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1181" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1181" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1181" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1181" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1181" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1181" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1181" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1181" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1181" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:23" x14ac:dyDescent="0.3">
@@ -89275,20 +89275,20 @@
       <c r="R1182" s="4">
         <v>0</v>
       </c>
-      <c r="S1182" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1182" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1182" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1182" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1182" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1182" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1182" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1182" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1182" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1182" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:23" x14ac:dyDescent="0.3">
@@ -89346,20 +89346,20 @@
       <c r="R1183" s="4">
         <v>0</v>
       </c>
-      <c r="S1183" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1183" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1183" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1183" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1183" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1183" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1183" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1183" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1183" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1183" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:23" x14ac:dyDescent="0.3">
@@ -89417,20 +89417,20 @@
       <c r="R1184" s="4">
         <v>0</v>
       </c>
-      <c r="S1184" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1184" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1184" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1184" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1184" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1184" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1184" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1184" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1184" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1184" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:23" x14ac:dyDescent="0.3">
@@ -89488,20 +89488,20 @@
       <c r="R1185" s="4">
         <v>0</v>
       </c>
-      <c r="S1185" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1185" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1185" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1185" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1185" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1185" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1185" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1185" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1185" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1185" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:23" x14ac:dyDescent="0.3">
@@ -89559,20 +89559,20 @@
       <c r="R1186" s="4">
         <v>0</v>
       </c>
-      <c r="S1186" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1186" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1186" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1186" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1186" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1186" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1186" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1186" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1186" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1186" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:23" x14ac:dyDescent="0.3">
@@ -89630,20 +89630,20 @@
       <c r="R1187" s="4">
         <v>0</v>
       </c>
-      <c r="S1187" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1187" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1187" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1187" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1187" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1187" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1187" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1187" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1187" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1187" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:23" x14ac:dyDescent="0.3">
@@ -89701,20 +89701,20 @@
       <c r="R1188" s="4">
         <v>0</v>
       </c>
-      <c r="S1188" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1188" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1188" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1188" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1188" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1188" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1188" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1188" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1188" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1188" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:23" x14ac:dyDescent="0.3">
@@ -90766,20 +90766,20 @@
       <c r="R1203" s="4">
         <v>0</v>
       </c>
-      <c r="S1203" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1203" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1203" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1203" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1203" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1203" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1203" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1203" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1203" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1203" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:23" x14ac:dyDescent="0.3">
@@ -90837,20 +90837,20 @@
       <c r="R1204" s="4">
         <v>0</v>
       </c>
-      <c r="S1204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1204" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1204" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1204" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1204" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1204" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1204" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1204" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1204" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1204" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:23" x14ac:dyDescent="0.3">
@@ -90908,20 +90908,20 @@
       <c r="R1205" s="4">
         <v>0</v>
       </c>
-      <c r="S1205" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1205" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1205" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1205" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1205" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1205" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1205" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1205" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1205" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1205" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:23" x14ac:dyDescent="0.3">
@@ -90979,20 +90979,20 @@
       <c r="R1206" s="4">
         <v>0</v>
       </c>
-      <c r="S1206" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1206" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1206" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1206" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1206" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1206" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1206" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1206" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1206" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1206" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:23" x14ac:dyDescent="0.3">
@@ -91050,20 +91050,20 @@
       <c r="R1207" s="4">
         <v>0</v>
       </c>
-      <c r="S1207" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1207" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1207" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1207" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1207" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1207" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1207" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1207" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1207" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1207" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:23" x14ac:dyDescent="0.3">
@@ -91121,20 +91121,20 @@
       <c r="R1208" s="4">
         <v>0</v>
       </c>
-      <c r="S1208" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1208" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1208" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1208" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1208" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1208" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1208" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1208" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1208" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1208" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:23" x14ac:dyDescent="0.3">
@@ -91192,20 +91192,20 @@
       <c r="R1209" s="4">
         <v>0</v>
       </c>
-      <c r="S1209" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1209" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1209" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1209" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1209" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1209" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1209" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1209" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1209" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1209" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:23" x14ac:dyDescent="0.3">
@@ -91263,20 +91263,20 @@
       <c r="R1210" s="4">
         <v>0</v>
       </c>
-      <c r="S1210" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1210" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1210" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1210" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1210" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1210" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1210" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1210" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1210" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1210" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:23" x14ac:dyDescent="0.3">
@@ -91334,20 +91334,20 @@
       <c r="R1211" s="4">
         <v>0</v>
       </c>
-      <c r="S1211" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1211" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1211" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1211" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1211" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1211" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1211" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1211" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1211" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1211" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:23" x14ac:dyDescent="0.3">
@@ -91405,20 +91405,20 @@
       <c r="R1212" s="4">
         <v>0</v>
       </c>
-      <c r="S1212" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1212" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1212" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1212" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1212" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1212" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1212" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1212" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1212" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1212" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:23" x14ac:dyDescent="0.3">
@@ -91476,20 +91476,20 @@
       <c r="R1213" s="4">
         <v>0</v>
       </c>
-      <c r="S1213" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1213" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1213" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1213" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1213" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1213" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1213" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1213" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1213" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1213" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:23" x14ac:dyDescent="0.3">
@@ -91547,20 +91547,20 @@
       <c r="R1214" s="4">
         <v>0</v>
       </c>
-      <c r="S1214" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1214" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1214" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1214" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1214" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1214" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1214" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1214" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1214" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1214" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:23" x14ac:dyDescent="0.3">
@@ -91618,20 +91618,20 @@
       <c r="R1215" s="4">
         <v>0</v>
       </c>
-      <c r="S1215" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1215" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1215" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1215" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1215" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1215" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1215" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1215" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1215" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1215" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:23" x14ac:dyDescent="0.3">
@@ -91689,20 +91689,20 @@
       <c r="R1216" s="4">
         <v>0</v>
       </c>
-      <c r="S1216" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1216" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1216" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1216" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1216" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1216" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1216" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1216" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1216" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1216" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:23" x14ac:dyDescent="0.3">
@@ -91760,20 +91760,20 @@
       <c r="R1217" s="4">
         <v>0</v>
       </c>
-      <c r="S1217" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1217" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1217" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1217" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1217" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1217" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1217" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1217" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1217" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1217" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:23" x14ac:dyDescent="0.3">
@@ -91831,20 +91831,20 @@
       <c r="R1218" s="4">
         <v>0</v>
       </c>
-      <c r="S1218" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1218" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1218" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1218" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1218" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1218" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1218" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1218" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1218" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1218" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:23" x14ac:dyDescent="0.3">
@@ -91902,20 +91902,20 @@
       <c r="R1219" s="4">
         <v>0</v>
       </c>
-      <c r="S1219" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1219" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1219" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1219" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1219" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1219" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1219" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1219" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1219" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1219" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:23" x14ac:dyDescent="0.3">
@@ -92896,20 +92896,20 @@
       <c r="R1233" s="4">
         <v>8</v>
       </c>
-      <c r="S1233" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1233" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1233" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1233" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1233" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1233" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1233" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1233" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1233" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1233" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1234" spans="1:23" x14ac:dyDescent="0.3">
@@ -92967,20 +92967,20 @@
       <c r="R1234" s="4">
         <v>4</v>
       </c>
-      <c r="S1234" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1234" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1234" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1234" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1234" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1234" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1234" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1234" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1234" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1234" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1235" spans="1:23" x14ac:dyDescent="0.3">
@@ -93038,20 +93038,20 @@
       <c r="R1235" s="4">
         <v>4</v>
       </c>
-      <c r="S1235" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1235" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1235" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1235" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1235" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1235" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1235" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1235" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1235" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1235" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1236" spans="1:23" x14ac:dyDescent="0.3">
@@ -93109,20 +93109,20 @@
       <c r="R1236" s="4">
         <v>4</v>
       </c>
-      <c r="S1236" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1236" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1236" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1236" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1236" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1236" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1236" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1236" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1236" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1236" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1237" spans="1:23" x14ac:dyDescent="0.3">
@@ -93180,20 +93180,20 @@
       <c r="R1237" s="4">
         <v>0</v>
       </c>
-      <c r="S1237" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1237" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1237" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1237" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1237" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1237" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1237" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1237" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1237" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1237" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:23" x14ac:dyDescent="0.3">
@@ -93251,20 +93251,20 @@
       <c r="R1238" s="4">
         <v>4</v>
       </c>
-      <c r="S1238" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1238" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1238" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1238" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1238" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1238" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1238" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1238" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1238" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1238" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:23" x14ac:dyDescent="0.3">
@@ -93322,20 +93322,20 @@
       <c r="R1239" s="4">
         <v>0</v>
       </c>
-      <c r="S1239" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1239" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1239" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1239" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1239" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1239" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1239" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1239" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1239" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1239" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:23" x14ac:dyDescent="0.3">
@@ -93393,20 +93393,20 @@
       <c r="R1240" s="4">
         <v>0</v>
       </c>
-      <c r="S1240" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1240" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1240" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1240" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1240" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1240" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1240" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1240" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1240" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1240" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:23" x14ac:dyDescent="0.3">
@@ -93464,20 +93464,20 @@
       <c r="R1241" s="4">
         <v>0</v>
       </c>
-      <c r="S1241" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1241" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1241" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1241" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1241" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1241" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1241" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1241" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1241" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1241" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:23" x14ac:dyDescent="0.3">
@@ -93535,20 +93535,20 @@
       <c r="R1242" s="4">
         <v>0</v>
       </c>
-      <c r="S1242" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1242" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1242" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1242" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1242" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1242" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1242" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1242" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1242" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1242" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:23" x14ac:dyDescent="0.3">
@@ -93606,20 +93606,20 @@
       <c r="R1243" s="4">
         <v>0</v>
       </c>
-      <c r="S1243" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1243" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1243" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1243" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1243" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1243" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1243" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1243" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1243" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1243" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:23" x14ac:dyDescent="0.3">
@@ -93677,20 +93677,20 @@
       <c r="R1244" s="4">
         <v>0</v>
       </c>
-      <c r="S1244" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1244" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1244" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1244" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1244" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1244" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1244" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1244" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1244" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1244" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:23" x14ac:dyDescent="0.3">
@@ -93748,20 +93748,20 @@
       <c r="R1245" s="4">
         <v>0</v>
       </c>
-      <c r="S1245" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1245" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1245" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1245" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1245" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1245" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1245" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1245" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1245" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1245" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:23" x14ac:dyDescent="0.3">
@@ -93819,20 +93819,20 @@
       <c r="R1246" s="4">
         <v>0</v>
       </c>
-      <c r="S1246" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1246" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1246" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1246" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1246" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1246" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1246" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1246" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1246" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1246" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:23" x14ac:dyDescent="0.3">
@@ -93890,20 +93890,20 @@
       <c r="R1247" s="4">
         <v>0</v>
       </c>
-      <c r="S1247" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1247" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1247" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1247" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1247" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1247" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1247" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1247" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1247" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1247" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:23" x14ac:dyDescent="0.3">
@@ -93961,20 +93961,20 @@
       <c r="R1248" s="4">
         <v>0</v>
       </c>
-      <c r="S1248" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1248" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1248" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1248" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1248" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1248" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1248" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1248" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1248" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1248" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1249" spans="1:23" x14ac:dyDescent="0.3">
@@ -94032,20 +94032,20 @@
       <c r="R1249" s="4">
         <v>0</v>
       </c>
-      <c r="S1249" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1249" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1249" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1249" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1249" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1249" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1249" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1249" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1249" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1249" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1250" spans="1:23" x14ac:dyDescent="0.3">
@@ -94103,20 +94103,20 @@
       <c r="R1250" s="4">
         <v>0</v>
       </c>
-      <c r="S1250" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1250" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1250" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1250" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1250" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1250" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1250" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1250" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1250" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1250" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1251" spans="1:23" x14ac:dyDescent="0.3">
@@ -95026,20 +95026,20 @@
       <c r="R1263" s="4">
         <v>4</v>
       </c>
-      <c r="S1263" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1263" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1263" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1263" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1263" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1263" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1263" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1263" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1263" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1263" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:23" x14ac:dyDescent="0.3">
@@ -95097,20 +95097,20 @@
       <c r="R1264" s="4">
         <v>8</v>
       </c>
-      <c r="S1264" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1264" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1264" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1264" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1264" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1264" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1264" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1264" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1264" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1264" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:23" x14ac:dyDescent="0.3">
@@ -95168,20 +95168,20 @@
       <c r="R1265" s="4">
         <v>4</v>
       </c>
-      <c r="S1265" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1265" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1265" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1265" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1265" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1265" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1265" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1265" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1265" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1265" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:23" x14ac:dyDescent="0.3">
@@ -95239,20 +95239,20 @@
       <c r="R1266" s="4">
         <v>4</v>
       </c>
-      <c r="S1266" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1266" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1266" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1266" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1266" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1266" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1266" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1266" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1266" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1266" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:23" x14ac:dyDescent="0.3">
@@ -95310,20 +95310,20 @@
       <c r="R1267" s="4">
         <v>4</v>
       </c>
-      <c r="S1267" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1267" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1267" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1267" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1267" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1267" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1267" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1267" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1267" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1267" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:23" x14ac:dyDescent="0.3">
@@ -95381,20 +95381,20 @@
       <c r="R1268" s="4">
         <v>0</v>
       </c>
-      <c r="S1268" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1268" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1268" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1268" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1268" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1268" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1268" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1268" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1268" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1268" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:23" x14ac:dyDescent="0.3">
@@ -95452,20 +95452,20 @@
       <c r="R1269" s="4">
         <v>4</v>
       </c>
-      <c r="S1269" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1269" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1269" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1269" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1269" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1269" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1269" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1269" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1269" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1269" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1270" spans="1:23" x14ac:dyDescent="0.3">
@@ -95523,20 +95523,20 @@
       <c r="R1270" s="4">
         <v>0</v>
       </c>
-      <c r="S1270" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1270" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1270" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1270" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1270" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1270" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1270" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1270" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1270" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1270" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1271" spans="1:23" x14ac:dyDescent="0.3">
@@ -95594,20 +95594,20 @@
       <c r="R1271" s="4">
         <v>0</v>
       </c>
-      <c r="S1271" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1271" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1271" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1271" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1271" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1271" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1271" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1271" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1271" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1271" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1272" spans="1:23" x14ac:dyDescent="0.3">
@@ -95665,20 +95665,20 @@
       <c r="R1272" s="4">
         <v>0</v>
       </c>
-      <c r="S1272" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1272" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1272" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1272" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1272" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1272" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1272" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1272" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1272" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1272" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1273" spans="1:23" x14ac:dyDescent="0.3">
@@ -95736,20 +95736,20 @@
       <c r="R1273" s="4">
         <v>0</v>
       </c>
-      <c r="S1273" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1273" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1273" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1273" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1273" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1273" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1273" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1273" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1273" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1273" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1274" spans="1:23" x14ac:dyDescent="0.3">
@@ -95807,20 +95807,20 @@
       <c r="R1274" s="4">
         <v>0</v>
       </c>
-      <c r="S1274" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1274" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1274" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1274" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1274" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1274" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1274" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1274" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1274" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1274" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1275" spans="1:23" x14ac:dyDescent="0.3">
@@ -95878,20 +95878,20 @@
       <c r="R1275" s="4">
         <v>0</v>
       </c>
-      <c r="S1275" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1275" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1275" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1275" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1275" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1275" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1275" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1275" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1275" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1275" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1276" spans="1:23" x14ac:dyDescent="0.3">
@@ -95949,20 +95949,20 @@
       <c r="R1276" s="4">
         <v>0</v>
       </c>
-      <c r="S1276" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1276" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1276" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1276" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1276" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1276" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1276" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1276" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1276" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1276" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1277" spans="1:23" x14ac:dyDescent="0.3">
@@ -96020,20 +96020,20 @@
       <c r="R1277" s="4">
         <v>0</v>
       </c>
-      <c r="S1277" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1277" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1277" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1277" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1277" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1277" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1277" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1277" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1277" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1277" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1278" spans="1:23" x14ac:dyDescent="0.3">
@@ -96091,20 +96091,20 @@
       <c r="R1278" s="4">
         <v>0</v>
       </c>
-      <c r="S1278" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1278" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1278" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1278" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1278" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1278" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1278" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1278" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1278" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1278" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1279" spans="1:23" x14ac:dyDescent="0.3">
@@ -96162,20 +96162,20 @@
       <c r="R1279" s="4">
         <v>0</v>
       </c>
-      <c r="S1279" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1279" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1279" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1279" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1279" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1279" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1279" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1279" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1279" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1279" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1280" spans="1:23" x14ac:dyDescent="0.3">
@@ -96233,20 +96233,20 @@
       <c r="R1280" s="4">
         <v>0</v>
       </c>
-      <c r="S1280" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1280" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1280" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1280" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1280" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1280" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1280" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1280" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1280" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1280" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1281" spans="1:23" x14ac:dyDescent="0.3">
@@ -96304,20 +96304,20 @@
       <c r="R1281" s="4">
         <v>0</v>
       </c>
-      <c r="S1281" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1281" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1281" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1281" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1281" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1281" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1281" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1281" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1281" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1281" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:23" x14ac:dyDescent="0.3">
@@ -97156,20 +97156,20 @@
       <c r="R1293" s="4">
         <v>6</v>
       </c>
-      <c r="S1293" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1293" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1293" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1293" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1293" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1293" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1293" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1293" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1293" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1293" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:23" x14ac:dyDescent="0.3">
@@ -97227,20 +97227,20 @@
       <c r="R1294" s="4">
         <v>6</v>
       </c>
-      <c r="S1294" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1294" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1294" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1294" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1294" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1294" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1294" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1294" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1294" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1294" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:23" x14ac:dyDescent="0.3">
@@ -97298,20 +97298,20 @@
       <c r="R1295" s="4">
         <v>8</v>
       </c>
-      <c r="S1295" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1295" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1295" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1295" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1295" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1295" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1295" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1295" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1295" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1295" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:23" x14ac:dyDescent="0.3">
@@ -97369,20 +97369,20 @@
       <c r="R1296" s="4">
         <v>8</v>
       </c>
-      <c r="S1296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1296" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1296" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1296" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1296" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1296" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1296" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1296" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1296" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1296" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:23" x14ac:dyDescent="0.3">
@@ -97440,20 +97440,20 @@
       <c r="R1297" s="4">
         <v>8</v>
       </c>
-      <c r="S1297" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1297" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1297" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1297" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1297" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1297" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1297" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1297" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1297" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1297" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:23" x14ac:dyDescent="0.3">
@@ -97511,20 +97511,20 @@
       <c r="R1298" s="4">
         <v>8</v>
       </c>
-      <c r="S1298" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1298" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1298" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1298" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1298" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1298" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1298" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1298" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1298" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1298" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:23" x14ac:dyDescent="0.3">
@@ -97582,20 +97582,20 @@
       <c r="R1299" s="4">
         <v>0</v>
       </c>
-      <c r="S1299" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1299" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1299" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1299" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1299" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1299" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1299" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1299" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1299" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1299" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:23" x14ac:dyDescent="0.3">
@@ -97653,20 +97653,20 @@
       <c r="R1300" s="4">
         <v>4</v>
       </c>
-      <c r="S1300" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1300" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1300" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1300" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1300" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1300" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1300" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1300" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1300" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1300" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:23" x14ac:dyDescent="0.3">
@@ -97724,20 +97724,20 @@
       <c r="R1301" s="4">
         <v>0</v>
       </c>
-      <c r="S1301" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1301" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1301" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1301" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1301" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1301" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1301" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1301" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1301" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1301" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:23" x14ac:dyDescent="0.3">
@@ -97795,20 +97795,20 @@
       <c r="R1302" s="4">
         <v>0</v>
       </c>
-      <c r="S1302" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1302" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1302" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1302" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1302" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1302" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1302" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1302" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1302" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1302" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:23" x14ac:dyDescent="0.3">
@@ -97866,20 +97866,20 @@
       <c r="R1303" s="4">
         <v>0</v>
       </c>
-      <c r="S1303" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1303" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1303" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1303" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1303" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1303" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1303" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1303" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1303" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1303" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:23" x14ac:dyDescent="0.3">
@@ -97937,20 +97937,20 @@
       <c r="R1304" s="4">
         <v>0</v>
       </c>
-      <c r="S1304" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1304" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1304" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1304" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1304" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1304" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1304" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1304" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1304" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1304" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:23" x14ac:dyDescent="0.3">
@@ -98008,20 +98008,20 @@
       <c r="R1305" s="4">
         <v>0</v>
       </c>
-      <c r="S1305" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1305" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1305" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1305" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1305" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1305" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1305" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1305" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1305" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1305" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:23" x14ac:dyDescent="0.3">
@@ -98079,20 +98079,20 @@
       <c r="R1306" s="4">
         <v>0</v>
       </c>
-      <c r="S1306" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1306" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1306" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1306" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1306" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1306" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1306" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1306" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1306" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1306" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:23" x14ac:dyDescent="0.3">
@@ -98150,20 +98150,20 @@
       <c r="R1307" s="4">
         <v>0</v>
       </c>
-      <c r="S1307" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1307" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1307" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1307" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1307" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1307" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1307" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1307" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1307" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1307" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:23" x14ac:dyDescent="0.3">
@@ -98221,20 +98221,20 @@
       <c r="R1308" s="4">
         <v>0</v>
       </c>
-      <c r="S1308" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1308" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1308" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1308" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1308" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1308" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1308" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1308" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1308" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1308" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:23" x14ac:dyDescent="0.3">
@@ -98292,20 +98292,20 @@
       <c r="R1309" s="4">
         <v>0</v>
       </c>
-      <c r="S1309" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1309" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1309" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1309" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1309" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1309" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1309" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1309" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1309" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1309" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:23" x14ac:dyDescent="0.3">
@@ -98363,20 +98363,20 @@
       <c r="R1310" s="4">
         <v>0</v>
       </c>
-      <c r="S1310" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1310" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1310" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1310" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1310" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1310" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1310" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1310" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1310" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1310" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:23" x14ac:dyDescent="0.3">
@@ -98434,20 +98434,20 @@
       <c r="R1311" s="4">
         <v>0</v>
       </c>
-      <c r="S1311" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1311" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1311" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1311" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1311" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1311" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1311" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1311" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1311" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1311" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:23" x14ac:dyDescent="0.3">
@@ -98505,20 +98505,20 @@
       <c r="R1312" s="4">
         <v>0</v>
       </c>
-      <c r="S1312" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="T1312" s="1" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="U1312" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="V1312" s="8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="W1312" s="8" t="e">
-        <v>#N/A</v>
+      <c r="S1312" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="T1312" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="U1312" s="8">
+        <v>1</v>
+      </c>
+      <c r="V1312" s="8">
+        <v>0</v>
+      </c>
+      <c r="W1312" s="8">
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:23" x14ac:dyDescent="0.3">

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD880731-522B-4B05-ACD7-5C60FC61C7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31278207-BDB6-417E-B9F8-85C4CB260A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="BD_BI" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD_BI!$A$1:$W$661</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BD_BI!$A$1:$W$1343</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12183" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12387" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -4681,13 +4681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}">
   <dimension ref="A1:AH1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A662" sqref="A662:R1343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="5"/>
     <col min="5" max="5" width="31.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="3"/>
@@ -53668,8 +53668,8 @@
       <c r="F681" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G681" s="7">
-        <v>0</v>
+      <c r="G681" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H681" s="6">
         <v>0</v>
@@ -53677,14 +53677,14 @@
       <c r="I681" s="6">
         <v>0</v>
       </c>
-      <c r="J681" s="6">
-        <v>0</v>
+      <c r="J681" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K681" s="6">
-        <v>0</v>
-      </c>
-      <c r="L681" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L681" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M681" s="6">
         <v>0</v>
@@ -53702,7 +53702,7 @@
         <v>0</v>
       </c>
       <c r="R681" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S681" s="1" t="s">
         <v>519</v>
@@ -53739,8 +53739,8 @@
       <c r="F682" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G682" s="7">
-        <v>0</v>
+      <c r="G682" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H682" s="6">
         <v>0</v>
@@ -53748,14 +53748,14 @@
       <c r="I682" s="6">
         <v>0</v>
       </c>
-      <c r="J682" s="6">
-        <v>0</v>
+      <c r="J682" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K682" s="6">
-        <v>0</v>
-      </c>
-      <c r="L682" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L682" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M682" s="6">
         <v>0</v>
@@ -53773,7 +53773,7 @@
         <v>0</v>
       </c>
       <c r="R682" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S682" s="1" t="s">
         <v>519</v>
@@ -55869,8 +55869,8 @@
       <c r="F712" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G712" s="7">
-        <v>0</v>
+      <c r="G712" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H712" s="6">
         <v>0</v>
@@ -55878,14 +55878,14 @@
       <c r="I712" s="6">
         <v>0</v>
       </c>
-      <c r="J712" s="6">
-        <v>0</v>
+      <c r="J712" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K712" s="6">
-        <v>0</v>
-      </c>
-      <c r="L712" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L712" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M712" s="6">
         <v>0</v>
@@ -55903,7 +55903,7 @@
         <v>0</v>
       </c>
       <c r="R712" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S712" s="1" t="s">
         <v>519</v>
@@ -55940,8 +55940,8 @@
       <c r="F713" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G713" s="7">
-        <v>0</v>
+      <c r="G713" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H713" s="6">
         <v>0</v>
@@ -55949,14 +55949,14 @@
       <c r="I713" s="6">
         <v>0</v>
       </c>
-      <c r="J713" s="6">
-        <v>0</v>
+      <c r="J713" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K713" s="6">
-        <v>0</v>
-      </c>
-      <c r="L713" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L713" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M713" s="6">
         <v>0</v>
@@ -55974,7 +55974,7 @@
         <v>0</v>
       </c>
       <c r="R713" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S713" s="1" t="s">
         <v>519</v>
@@ -58070,23 +58070,23 @@
       <c r="F743" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G743" s="7">
-        <v>0</v>
+      <c r="G743" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H743" s="6">
         <v>0</v>
       </c>
-      <c r="I743" s="6">
-        <v>0</v>
+      <c r="I743" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J743" s="6">
         <v>0</v>
       </c>
-      <c r="K743" s="6">
-        <v>0</v>
+      <c r="K743" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L743" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M743" s="6">
         <v>0</v>
@@ -58104,7 +58104,7 @@
         <v>0</v>
       </c>
       <c r="R743" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S743" s="1" t="s">
         <v>519</v>
@@ -58141,23 +58141,23 @@
       <c r="F744" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G744" s="7">
-        <v>0</v>
+      <c r="G744" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H744" s="6">
         <v>0</v>
       </c>
-      <c r="I744" s="6">
-        <v>0</v>
+      <c r="I744" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J744" s="6">
         <v>0</v>
       </c>
-      <c r="K744" s="6">
-        <v>0</v>
+      <c r="K744" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L744" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M744" s="6">
         <v>0</v>
@@ -58175,7 +58175,7 @@
         <v>0</v>
       </c>
       <c r="R744" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S744" s="1" t="s">
         <v>519</v>
@@ -60271,23 +60271,23 @@
       <c r="F774" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G774" s="7">
-        <v>0</v>
-      </c>
-      <c r="H774" s="6">
-        <v>0</v>
-      </c>
-      <c r="I774" s="6">
-        <v>0</v>
-      </c>
-      <c r="J774" s="6">
-        <v>0</v>
-      </c>
-      <c r="K774" s="6">
-        <v>0</v>
-      </c>
-      <c r="L774" s="6">
-        <v>0</v>
+      <c r="G774" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H774" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I774" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J774" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K774" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L774" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M774" s="6">
         <v>16.75</v>
@@ -60342,26 +60342,26 @@
       <c r="F775" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G775" s="7">
-        <v>0</v>
-      </c>
-      <c r="H775" s="6">
-        <v>0</v>
-      </c>
-      <c r="I775" s="6">
-        <v>0</v>
-      </c>
-      <c r="J775" s="6">
-        <v>0</v>
-      </c>
-      <c r="K775" s="6">
-        <v>0</v>
-      </c>
-      <c r="L775" s="6">
-        <v>0</v>
+      <c r="G775" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H775" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I775" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J775" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K775" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L775" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M775" s="6">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="N775" s="6">
         <v>0</v>
@@ -60376,7 +60376,7 @@
         <v>0</v>
       </c>
       <c r="R775" s="4">
-        <v>0</v>
+        <v>19.63</v>
       </c>
       <c r="S775" s="1" t="s">
         <v>519</v>
@@ -60432,7 +60432,7 @@
         <v>0</v>
       </c>
       <c r="M776" s="6">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="N776" s="6">
         <v>0</v>
@@ -60447,7 +60447,7 @@
         <v>0</v>
       </c>
       <c r="R776" s="4">
-        <v>0</v>
+        <v>16.82</v>
       </c>
       <c r="S776" s="1" t="s">
         <v>519</v>
@@ -62472,23 +62472,23 @@
       <c r="F805" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G805" s="7">
-        <v>0</v>
-      </c>
-      <c r="H805" s="6">
-        <v>0</v>
-      </c>
-      <c r="I805" s="6">
-        <v>0</v>
-      </c>
-      <c r="J805" s="6">
-        <v>0</v>
-      </c>
-      <c r="K805" s="6">
-        <v>0</v>
-      </c>
-      <c r="L805" s="6">
-        <v>0</v>
+      <c r="G805" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H805" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I805" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J805" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K805" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L805" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M805" s="6">
         <v>20.9</v>
@@ -62543,26 +62543,26 @@
       <c r="F806" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G806" s="7">
-        <v>0</v>
-      </c>
-      <c r="H806" s="6">
-        <v>0</v>
-      </c>
-      <c r="I806" s="6">
-        <v>0</v>
-      </c>
-      <c r="J806" s="6">
-        <v>0</v>
-      </c>
-      <c r="K806" s="6">
-        <v>0</v>
-      </c>
-      <c r="L806" s="6">
-        <v>0</v>
+      <c r="G806" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H806" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I806" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J806" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K806" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L806" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M806" s="6">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="N806" s="6">
         <v>0</v>
@@ -62577,7 +62577,7 @@
         <v>0</v>
       </c>
       <c r="R806" s="4">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="S806" s="1" t="s">
         <v>519</v>
@@ -62633,7 +62633,7 @@
         <v>0</v>
       </c>
       <c r="M807" s="6">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="N807" s="6">
         <v>0</v>
@@ -62648,7 +62648,7 @@
         <v>0</v>
       </c>
       <c r="R807" s="4">
-        <v>0</v>
+        <v>17.71</v>
       </c>
       <c r="S807" s="1" t="s">
         <v>519</v>
@@ -64673,23 +64673,23 @@
       <c r="F836" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G836" s="7">
-        <v>0</v>
-      </c>
-      <c r="H836" s="6">
-        <v>0</v>
-      </c>
-      <c r="I836" s="6">
-        <v>0</v>
-      </c>
-      <c r="J836" s="6">
-        <v>0</v>
-      </c>
-      <c r="K836" s="6">
-        <v>0</v>
-      </c>
-      <c r="L836" s="6">
-        <v>0</v>
+      <c r="G836" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H836" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I836" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J836" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K836" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L836" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M836" s="6">
         <v>19.03</v>
@@ -64744,26 +64744,26 @@
       <c r="F837" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G837" s="7">
-        <v>0</v>
-      </c>
-      <c r="H837" s="6">
-        <v>0</v>
-      </c>
-      <c r="I837" s="6">
-        <v>0</v>
-      </c>
-      <c r="J837" s="6">
-        <v>0</v>
-      </c>
-      <c r="K837" s="6">
-        <v>0</v>
-      </c>
-      <c r="L837" s="6">
-        <v>0</v>
+      <c r="G837" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H837" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I837" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J837" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K837" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L837" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M837" s="6">
-        <v>0</v>
+        <v>22.83</v>
       </c>
       <c r="N837" s="6">
         <v>0</v>
@@ -64778,7 +64778,7 @@
         <v>0</v>
       </c>
       <c r="R837" s="4">
-        <v>0</v>
+        <v>22.83</v>
       </c>
       <c r="S837" s="1" t="s">
         <v>519</v>
@@ -64834,7 +64834,7 @@
         <v>0</v>
       </c>
       <c r="M838" s="6">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="N838" s="6">
         <v>0</v>
@@ -64849,7 +64849,7 @@
         <v>0</v>
       </c>
       <c r="R838" s="4">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="S838" s="1" t="s">
         <v>519</v>
@@ -66874,23 +66874,23 @@
       <c r="F867" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G867" s="7">
-        <v>0</v>
+      <c r="G867" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H867" s="6">
         <v>0</v>
       </c>
-      <c r="I867" s="6">
-        <v>0</v>
+      <c r="I867" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J867" s="6">
         <v>0</v>
       </c>
-      <c r="K867" s="6">
-        <v>0</v>
+      <c r="K867" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L867" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M867" s="6">
         <v>0</v>
@@ -66908,7 +66908,7 @@
         <v>0</v>
       </c>
       <c r="R867" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S867" s="1" t="s">
         <v>519</v>
@@ -66945,23 +66945,23 @@
       <c r="F868" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G868" s="7">
-        <v>0</v>
+      <c r="G868" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H868" s="6">
         <v>0</v>
       </c>
-      <c r="I868" s="6">
-        <v>0</v>
+      <c r="I868" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J868" s="6">
         <v>0</v>
       </c>
-      <c r="K868" s="6">
-        <v>0</v>
+      <c r="K868" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L868" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M868" s="6">
         <v>0</v>
@@ -66979,7 +66979,7 @@
         <v>0</v>
       </c>
       <c r="R868" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S868" s="1" t="s">
         <v>519</v>
@@ -69075,23 +69075,23 @@
       <c r="F898" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G898" s="7">
-        <v>0</v>
-      </c>
-      <c r="H898" s="6">
-        <v>0</v>
-      </c>
-      <c r="I898" s="6">
-        <v>0</v>
-      </c>
-      <c r="J898" s="6">
-        <v>0</v>
-      </c>
-      <c r="K898" s="6">
-        <v>0</v>
-      </c>
-      <c r="L898" s="6">
-        <v>0</v>
+      <c r="G898" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H898" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I898" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J898" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K898" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L898" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M898" s="6">
         <v>0</v>
@@ -69146,26 +69146,26 @@
       <c r="F899" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G899" s="7">
-        <v>0</v>
-      </c>
-      <c r="H899" s="6">
-        <v>0</v>
-      </c>
-      <c r="I899" s="6">
-        <v>0</v>
-      </c>
-      <c r="J899" s="6">
-        <v>0</v>
-      </c>
-      <c r="K899" s="6">
-        <v>0</v>
-      </c>
-      <c r="L899" s="6">
-        <v>0</v>
+      <c r="G899" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H899" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I899" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J899" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K899" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L899" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M899" s="6">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="N899" s="6">
         <v>0</v>
@@ -69180,7 +69180,7 @@
         <v>0</v>
       </c>
       <c r="R899" s="4">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="S899" s="1" t="s">
         <v>519</v>
@@ -69236,7 +69236,7 @@
         <v>0</v>
       </c>
       <c r="M900" s="6">
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="N900" s="6">
         <v>0</v>
@@ -69251,7 +69251,7 @@
         <v>0</v>
       </c>
       <c r="R900" s="4">
-        <v>0</v>
+        <v>14.85</v>
       </c>
       <c r="S900" s="1" t="s">
         <v>519</v>
@@ -71276,23 +71276,23 @@
       <c r="F929" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G929" s="7">
-        <v>0</v>
-      </c>
-      <c r="H929" s="6">
-        <v>0</v>
-      </c>
-      <c r="I929" s="6">
-        <v>0</v>
-      </c>
-      <c r="J929" s="6">
-        <v>0</v>
-      </c>
-      <c r="K929" s="6">
-        <v>0</v>
-      </c>
-      <c r="L929" s="6">
-        <v>0</v>
+      <c r="G929" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H929" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I929" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J929" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K929" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L929" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M929" s="6">
         <v>14.88</v>
@@ -71347,26 +71347,26 @@
       <c r="F930" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G930" s="7">
-        <v>0</v>
-      </c>
-      <c r="H930" s="6">
-        <v>0</v>
-      </c>
-      <c r="I930" s="6">
-        <v>0</v>
-      </c>
-      <c r="J930" s="6">
-        <v>0</v>
-      </c>
-      <c r="K930" s="6">
-        <v>0</v>
-      </c>
-      <c r="L930" s="6">
-        <v>0</v>
+      <c r="G930" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H930" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I930" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J930" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K930" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L930" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M930" s="6">
-        <v>0</v>
+        <v>16.88</v>
       </c>
       <c r="N930" s="6">
         <v>0</v>
@@ -71381,7 +71381,7 @@
         <v>0</v>
       </c>
       <c r="R930" s="4">
-        <v>0</v>
+        <v>16.88</v>
       </c>
       <c r="S930" s="1" t="s">
         <v>519</v>
@@ -71437,7 +71437,7 @@
         <v>0</v>
       </c>
       <c r="M931" s="6">
-        <v>0</v>
+        <v>12.62</v>
       </c>
       <c r="N931" s="6">
         <v>0</v>
@@ -71452,7 +71452,7 @@
         <v>0</v>
       </c>
       <c r="R931" s="4">
-        <v>0</v>
+        <v>12.62</v>
       </c>
       <c r="S931" s="1" t="s">
         <v>519</v>
@@ -73477,23 +73477,23 @@
       <c r="F960" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G960" s="7">
-        <v>0</v>
-      </c>
-      <c r="H960" s="6">
-        <v>0</v>
-      </c>
-      <c r="I960" s="6">
-        <v>0</v>
-      </c>
-      <c r="J960" s="6">
-        <v>0</v>
-      </c>
-      <c r="K960" s="6">
-        <v>0</v>
-      </c>
-      <c r="L960" s="6">
-        <v>0</v>
+      <c r="G960" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H960" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I960" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J960" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K960" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L960" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M960" s="6">
         <v>18.940000000000001</v>
@@ -73548,26 +73548,26 @@
       <c r="F961" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G961" s="7">
-        <v>0</v>
-      </c>
-      <c r="H961" s="6">
-        <v>0</v>
-      </c>
-      <c r="I961" s="6">
-        <v>0</v>
-      </c>
-      <c r="J961" s="6">
-        <v>0</v>
-      </c>
-      <c r="K961" s="6">
-        <v>0</v>
-      </c>
-      <c r="L961" s="6">
-        <v>0</v>
+      <c r="G961" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H961" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I961" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J961" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K961" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L961" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M961" s="6">
-        <v>0</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="N961" s="6">
         <v>0</v>
@@ -73582,7 +73582,7 @@
         <v>0</v>
       </c>
       <c r="R961" s="4">
-        <v>0</v>
+        <v>16.489999999999998</v>
       </c>
       <c r="S961" s="1" t="s">
         <v>519</v>
@@ -73638,7 +73638,7 @@
         <v>0</v>
       </c>
       <c r="M962" s="6">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="N962" s="6">
         <v>0</v>
@@ -73653,7 +73653,7 @@
         <v>0</v>
       </c>
       <c r="R962" s="4">
-        <v>0</v>
+        <v>15.95</v>
       </c>
       <c r="S962" s="1" t="s">
         <v>519</v>
@@ -75678,23 +75678,23 @@
       <c r="F991" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G991" s="7">
-        <v>0</v>
-      </c>
-      <c r="H991" s="6">
-        <v>0</v>
-      </c>
-      <c r="I991" s="6">
-        <v>0</v>
-      </c>
-      <c r="J991" s="6">
-        <v>0</v>
-      </c>
-      <c r="K991" s="6">
-        <v>0</v>
-      </c>
-      <c r="L991" s="6">
-        <v>0</v>
+      <c r="G991" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H991" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I991" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J991" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K991" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L991" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M991" s="6">
         <v>16.510000000000002</v>
@@ -75749,26 +75749,26 @@
       <c r="F992" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G992" s="7">
-        <v>0</v>
-      </c>
-      <c r="H992" s="6">
-        <v>0</v>
-      </c>
-      <c r="I992" s="6">
-        <v>0</v>
-      </c>
-      <c r="J992" s="6">
-        <v>0</v>
-      </c>
-      <c r="K992" s="6">
-        <v>0</v>
-      </c>
-      <c r="L992" s="6">
-        <v>0</v>
+      <c r="G992" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H992" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I992" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J992" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K992" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L992" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M992" s="6">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="N992" s="6">
         <v>0</v>
@@ -75783,7 +75783,7 @@
         <v>0</v>
       </c>
       <c r="R992" s="4">
-        <v>0</v>
+        <v>21.05</v>
       </c>
       <c r="S992" s="1" t="s">
         <v>519</v>
@@ -75839,7 +75839,7 @@
         <v>0</v>
       </c>
       <c r="M993" s="6">
-        <v>0</v>
+        <v>22.95</v>
       </c>
       <c r="N993" s="6">
         <v>0</v>
@@ -75854,7 +75854,7 @@
         <v>0</v>
       </c>
       <c r="R993" s="4">
-        <v>0</v>
+        <v>22.95</v>
       </c>
       <c r="S993" s="1" t="s">
         <v>519</v>
@@ -77879,23 +77879,23 @@
       <c r="F1022" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1022" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1022" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1022" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1022" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1022" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1022" s="6">
-        <v>0</v>
+      <c r="G1022" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1022" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1022" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1022" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1022" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1022" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1022" s="6">
         <v>0</v>
@@ -77950,23 +77950,23 @@
       <c r="F1023" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1023" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1023" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1023" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1023" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1023" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1023" s="6">
-        <v>0</v>
+      <c r="G1023" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1023" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1023" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1023" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1023" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1023" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1023" s="6">
         <v>0</v>
@@ -80080,23 +80080,23 @@
       <c r="F1053" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1053" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1053" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1053" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1053" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1053" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1053" s="6">
-        <v>0</v>
+      <c r="G1053" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1053" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1053" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1053" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1053" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1053" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1053" s="6">
         <v>17.63</v>
@@ -80151,26 +80151,26 @@
       <c r="F1054" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1054" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1054" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1054" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1054" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1054" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1054" s="6">
-        <v>0</v>
+      <c r="G1054" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1054" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1054" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1054" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1054" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1054" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1054" s="6">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="N1054" s="6">
         <v>0</v>
@@ -80185,7 +80185,7 @@
         <v>0</v>
       </c>
       <c r="R1054" s="4">
-        <v>0</v>
+        <v>13.54</v>
       </c>
       <c r="S1054" s="1" t="s">
         <v>519</v>
@@ -80241,7 +80241,7 @@
         <v>0</v>
       </c>
       <c r="M1055" s="6">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="N1055" s="6">
         <v>0</v>
@@ -80256,7 +80256,7 @@
         <v>0</v>
       </c>
       <c r="R1055" s="4">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="S1055" s="1" t="s">
         <v>519</v>
@@ -82281,23 +82281,23 @@
       <c r="F1084" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1084" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1084" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1084" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1084" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1084" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1084" s="6">
-        <v>0</v>
+      <c r="G1084" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1084" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1084" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1084" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1084" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1084" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1084" s="6">
         <v>19.64</v>
@@ -82352,26 +82352,26 @@
       <c r="F1085" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1085" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1085" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1085" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1085" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1085" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1085" s="6">
-        <v>0</v>
+      <c r="G1085" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1085" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1085" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1085" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1085" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1085" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1085" s="6">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="N1085" s="6">
         <v>0</v>
@@ -82386,7 +82386,7 @@
         <v>0</v>
       </c>
       <c r="R1085" s="4">
-        <v>0</v>
+        <v>16.66</v>
       </c>
       <c r="S1085" s="1" t="s">
         <v>519</v>
@@ -82442,7 +82442,7 @@
         <v>0</v>
       </c>
       <c r="M1086" s="6">
-        <v>0</v>
+        <v>15.55</v>
       </c>
       <c r="N1086" s="6">
         <v>0</v>
@@ -82457,7 +82457,7 @@
         <v>0</v>
       </c>
       <c r="R1086" s="4">
-        <v>0</v>
+        <v>15.55</v>
       </c>
       <c r="S1086" s="1" t="s">
         <v>519</v>
@@ -84482,23 +84482,23 @@
       <c r="F1115" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1115" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1115" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1115" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1115" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1115" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1115" s="6">
-        <v>0</v>
+      <c r="G1115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1115" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1115" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1115" s="6">
         <v>20.93</v>
@@ -84553,26 +84553,26 @@
       <c r="F1116" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1116" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1116" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1116" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1116" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1116" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1116" s="6">
-        <v>0</v>
+      <c r="G1116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1116" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1116" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1116" s="6">
-        <v>0</v>
+        <v>18.28</v>
       </c>
       <c r="N1116" s="6">
         <v>0</v>
@@ -84587,7 +84587,7 @@
         <v>0</v>
       </c>
       <c r="R1116" s="4">
-        <v>0</v>
+        <v>18.28</v>
       </c>
       <c r="S1116" s="1" t="s">
         <v>519</v>
@@ -84643,7 +84643,7 @@
         <v>0</v>
       </c>
       <c r="M1117" s="6">
-        <v>0</v>
+        <v>16.36</v>
       </c>
       <c r="N1117" s="6">
         <v>0</v>
@@ -84658,7 +84658,7 @@
         <v>0</v>
       </c>
       <c r="R1117" s="4">
-        <v>0</v>
+        <v>16.36</v>
       </c>
       <c r="S1117" s="1" t="s">
         <v>519</v>
@@ -86619,7 +86619,7 @@
         <v>2</v>
       </c>
       <c r="I1145" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1145" s="6" t="s">
         <v>33</v>
@@ -86646,7 +86646,7 @@
         <v>33</v>
       </c>
       <c r="R1145" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1145" s="1" t="s">
         <v>756</v>
@@ -86683,17 +86683,17 @@
       <c r="F1146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1146" s="7">
-        <v>0</v>
+      <c r="G1146" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1146" s="6">
         <v>0</v>
       </c>
       <c r="I1146" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1146" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1146" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1146" s="6">
         <v>0</v>
@@ -86708,16 +86708,16 @@
         <v>0</v>
       </c>
       <c r="O1146" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1146" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1146" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1146" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1146" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1146" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1146" s="1" t="s">
         <v>756</v>
@@ -86754,8 +86754,8 @@
       <c r="F1147" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1147" s="7">
-        <v>0</v>
+      <c r="G1147" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1147" s="6">
         <v>0</v>
@@ -86763,8 +86763,8 @@
       <c r="I1147" s="6">
         <v>0</v>
       </c>
-      <c r="J1147" s="6">
-        <v>0</v>
+      <c r="J1147" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1147" s="6">
         <v>0</v>
@@ -86779,16 +86779,16 @@
         <v>0</v>
       </c>
       <c r="O1147" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1147" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1147" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1147" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1147" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1147" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1147" s="1" t="s">
         <v>756</v>
@@ -88844,10 +88844,10 @@
         <v>33</v>
       </c>
       <c r="Q1176" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1176" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1176" s="1" t="s">
         <v>756</v>
@@ -88884,17 +88884,17 @@
       <c r="F1177" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1177" s="7">
-        <v>0</v>
+      <c r="G1177" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1177" s="6">
         <v>0</v>
       </c>
-      <c r="I1177" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1177" s="6">
-        <v>0</v>
+      <c r="I1177" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1177" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1177" s="6">
         <v>0</v>
@@ -88909,16 +88909,16 @@
         <v>0</v>
       </c>
       <c r="O1177" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1177" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1177" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1177" s="6">
         <v>0</v>
       </c>
       <c r="R1177" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1177" s="1" t="s">
         <v>756</v>
@@ -88955,17 +88955,17 @@
       <c r="F1178" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1178" s="7">
-        <v>0</v>
+      <c r="G1178" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1178" s="6">
         <v>0</v>
       </c>
-      <c r="I1178" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1178" s="6">
-        <v>0</v>
+      <c r="I1178" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1178" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1178" s="6">
         <v>0</v>
@@ -88980,16 +88980,16 @@
         <v>0</v>
       </c>
       <c r="O1178" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1178" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1178" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1178" s="6">
         <v>0</v>
       </c>
       <c r="R1178" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1178" s="1" t="s">
         <v>756</v>
@@ -93286,17 +93286,17 @@
       <c r="F1239" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1239" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1239" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1239" s="6">
-        <v>0</v>
+      <c r="G1239" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1239" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1239" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1239" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1239" s="6">
         <v>0</v>
@@ -93311,16 +93311,16 @@
         <v>0</v>
       </c>
       <c r="O1239" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1239" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1239" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1239" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1239" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1239" s="1" t="s">
         <v>756</v>
@@ -93357,17 +93357,17 @@
       <c r="F1240" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1240" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1240" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1240" s="6">
-        <v>0</v>
+      <c r="G1240" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1240" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1240" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1240" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1240" s="6">
         <v>0</v>
@@ -93382,16 +93382,16 @@
         <v>0</v>
       </c>
       <c r="O1240" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1240" s="6">
         <v>0</v>
       </c>
-      <c r="Q1240" s="6">
-        <v>0</v>
+      <c r="Q1240" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1240" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1240" s="1" t="s">
         <v>756</v>
@@ -95487,17 +95487,17 @@
       <c r="F1270" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1270" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1270" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1270" s="6">
-        <v>0</v>
+      <c r="G1270" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1270" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1270" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1270" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1270" s="6">
         <v>0</v>
@@ -95512,16 +95512,16 @@
         <v>0</v>
       </c>
       <c r="O1270" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1270" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1270" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1270" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1270" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1270" s="1" t="s">
         <v>756</v>
@@ -95558,17 +95558,17 @@
       <c r="F1271" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1271" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1271" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1271" s="6">
-        <v>0</v>
+      <c r="G1271" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1271" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1271" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1271" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1271" s="6">
         <v>0</v>
@@ -95583,16 +95583,16 @@
         <v>0</v>
       </c>
       <c r="O1271" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1271" s="6">
         <v>0</v>
       </c>
-      <c r="Q1271" s="6">
-        <v>0</v>
+      <c r="Q1271" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1271" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1271" s="1" t="s">
         <v>756</v>
@@ -97648,10 +97648,10 @@
         <v>33</v>
       </c>
       <c r="Q1300" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1300" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1300" s="1" t="s">
         <v>756</v>
@@ -97688,17 +97688,17 @@
       <c r="F1301" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1301" s="7">
-        <v>0</v>
+      <c r="G1301" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1301" s="6">
         <v>0</v>
       </c>
-      <c r="I1301" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1301" s="6">
-        <v>0</v>
+      <c r="I1301" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1301" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1301" s="6">
         <v>0</v>
@@ -97713,16 +97713,16 @@
         <v>0</v>
       </c>
       <c r="O1301" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1301" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1301" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1301" s="6">
         <v>0</v>
       </c>
       <c r="R1301" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1301" s="1" t="s">
         <v>756</v>
@@ -97759,17 +97759,17 @@
       <c r="F1302" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1302" s="7">
-        <v>0</v>
+      <c r="G1302" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1302" s="6">
         <v>0</v>
       </c>
-      <c r="I1302" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1302" s="6">
-        <v>0</v>
+      <c r="I1302" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1302" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1302" s="6">
         <v>0</v>
@@ -97784,16 +97784,16 @@
         <v>0</v>
       </c>
       <c r="O1302" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1302" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1302" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1302" s="6">
         <v>0</v>
       </c>
       <c r="R1302" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1302" s="1" t="s">
         <v>756</v>
@@ -99825,7 +99825,7 @@
         <v>2</v>
       </c>
       <c r="I1331" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1331" s="6" t="s">
         <v>33</v>
@@ -99852,7 +99852,7 @@
         <v>33</v>
       </c>
       <c r="R1331" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1331" s="1" t="s">
         <v>756</v>
@@ -99889,17 +99889,17 @@
       <c r="F1332" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1332" s="7">
-        <v>0</v>
+      <c r="G1332" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1332" s="6">
         <v>0</v>
       </c>
       <c r="I1332" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1332" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1332" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1332" s="6">
         <v>0</v>
@@ -99914,16 +99914,16 @@
         <v>0</v>
       </c>
       <c r="O1332" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1332" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1332" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1332" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1332" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1332" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1332" s="1" t="s">
         <v>756</v>
@@ -99960,8 +99960,8 @@
       <c r="F1333" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1333" s="7">
-        <v>0</v>
+      <c r="G1333" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1333" s="6">
         <v>0</v>
@@ -99969,8 +99969,8 @@
       <c r="I1333" s="6">
         <v>0</v>
       </c>
-      <c r="J1333" s="6">
-        <v>0</v>
+      <c r="J1333" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1333" s="6">
         <v>0</v>
@@ -99985,16 +99985,16 @@
         <v>0</v>
       </c>
       <c r="O1333" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1333" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1333" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1333" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1333" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1333" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S1333" s="1" t="s">
         <v>756</v>
@@ -100723,7 +100723,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W661" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}"/>
+  <autoFilter ref="A1:W1343" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31278207-BDB6-417E-B9F8-85C4CB260A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A9EA6-DCA6-4071-9A93-25D1DDFFFC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12387" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12489" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -52891,10 +52891,10 @@
         <v>8</v>
       </c>
       <c r="H670" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I670" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J670" s="6" t="s">
         <v>33</v>
@@ -52921,7 +52921,7 @@
         <v>0</v>
       </c>
       <c r="R670" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S670" s="1" t="s">
         <v>519</v>
@@ -52962,10 +52962,10 @@
         <v>8</v>
       </c>
       <c r="H671" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I671" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J671" s="6" t="s">
         <v>33</v>
@@ -52992,7 +52992,7 @@
         <v>0</v>
       </c>
       <c r="R671" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S671" s="1" t="s">
         <v>519</v>
@@ -53104,10 +53104,10 @@
         <v>8</v>
       </c>
       <c r="H673" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I673" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J673" s="6" t="s">
         <v>33</v>
@@ -53134,7 +53134,7 @@
         <v>0</v>
       </c>
       <c r="R673" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S673" s="1" t="s">
         <v>519</v>
@@ -53175,10 +53175,10 @@
         <v>8</v>
       </c>
       <c r="H674" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I674" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J674" s="6" t="s">
         <v>33</v>
@@ -53205,7 +53205,7 @@
         <v>0</v>
       </c>
       <c r="R674" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S674" s="1" t="s">
         <v>519</v>
@@ -53672,10 +53672,10 @@
         <v>8</v>
       </c>
       <c r="H681" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I681" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J681" s="6" t="s">
         <v>33</v>
@@ -53702,7 +53702,7 @@
         <v>0</v>
       </c>
       <c r="R681" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S681" s="1" t="s">
         <v>519</v>
@@ -53743,10 +53743,10 @@
         <v>8</v>
       </c>
       <c r="H682" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I682" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J682" s="6" t="s">
         <v>33</v>
@@ -53773,7 +53773,7 @@
         <v>0</v>
       </c>
       <c r="R682" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S682" s="1" t="s">
         <v>519</v>
@@ -53810,23 +53810,23 @@
       <c r="F683" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G683" s="7">
-        <v>0</v>
+      <c r="G683" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H683" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I683" s="6">
-        <v>0</v>
-      </c>
-      <c r="J683" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J683" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K683" s="6">
-        <v>0</v>
-      </c>
-      <c r="L683" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L683" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M683" s="6">
         <v>0</v>
@@ -53844,7 +53844,7 @@
         <v>0</v>
       </c>
       <c r="R683" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S683" s="1" t="s">
         <v>519</v>
@@ -55092,10 +55092,10 @@
         <v>8</v>
       </c>
       <c r="H701" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I701" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J701" s="6" t="s">
         <v>33</v>
@@ -55122,7 +55122,7 @@
         <v>0</v>
       </c>
       <c r="R701" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S701" s="1" t="s">
         <v>519</v>
@@ -55163,10 +55163,10 @@
         <v>8</v>
       </c>
       <c r="H702" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I702" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J702" s="6" t="s">
         <v>33</v>
@@ -55193,7 +55193,7 @@
         <v>0</v>
       </c>
       <c r="R702" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S702" s="1" t="s">
         <v>519</v>
@@ -55305,10 +55305,10 @@
         <v>8</v>
       </c>
       <c r="H704" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I704" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J704" s="6" t="s">
         <v>33</v>
@@ -55335,7 +55335,7 @@
         <v>0</v>
       </c>
       <c r="R704" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S704" s="1" t="s">
         <v>519</v>
@@ -55376,10 +55376,10 @@
         <v>8</v>
       </c>
       <c r="H705" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I705" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J705" s="6" t="s">
         <v>33</v>
@@ -55406,7 +55406,7 @@
         <v>0</v>
       </c>
       <c r="R705" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S705" s="1" t="s">
         <v>519</v>
@@ -55873,10 +55873,10 @@
         <v>8</v>
       </c>
       <c r="H712" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I712" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J712" s="6" t="s">
         <v>33</v>
@@ -55903,7 +55903,7 @@
         <v>0</v>
       </c>
       <c r="R712" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S712" s="1" t="s">
         <v>519</v>
@@ -55944,10 +55944,10 @@
         <v>8</v>
       </c>
       <c r="H713" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I713" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J713" s="6" t="s">
         <v>33</v>
@@ -55974,7 +55974,7 @@
         <v>0</v>
       </c>
       <c r="R713" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S713" s="1" t="s">
         <v>519</v>
@@ -56011,23 +56011,23 @@
       <c r="F714" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G714" s="7">
-        <v>0</v>
+      <c r="G714" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H714" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I714" s="6">
-        <v>0</v>
-      </c>
-      <c r="J714" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J714" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K714" s="6">
-        <v>0</v>
-      </c>
-      <c r="L714" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L714" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M714" s="6">
         <v>0</v>
@@ -56045,7 +56045,7 @@
         <v>0</v>
       </c>
       <c r="R714" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S714" s="1" t="s">
         <v>519</v>
@@ -57293,13 +57293,13 @@
         <v>8</v>
       </c>
       <c r="H732" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I732" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J732" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K732" s="6" t="s">
         <v>33</v>
@@ -57323,7 +57323,7 @@
         <v>0</v>
       </c>
       <c r="R732" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S732" s="1" t="s">
         <v>519</v>
@@ -57364,13 +57364,13 @@
         <v>8</v>
       </c>
       <c r="H733" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I733" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J733" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K733" s="6" t="s">
         <v>33</v>
@@ -57394,7 +57394,7 @@
         <v>0</v>
       </c>
       <c r="R733" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S733" s="1" t="s">
         <v>519</v>
@@ -57506,13 +57506,13 @@
         <v>8</v>
       </c>
       <c r="H735" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I735" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J735" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K735" s="6" t="s">
         <v>33</v>
@@ -57536,7 +57536,7 @@
         <v>0</v>
       </c>
       <c r="R735" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S735" s="1" t="s">
         <v>519</v>
@@ -57577,13 +57577,13 @@
         <v>8</v>
       </c>
       <c r="H736" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I736" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J736" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K736" s="6" t="s">
         <v>33</v>
@@ -57607,7 +57607,7 @@
         <v>0</v>
       </c>
       <c r="R736" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S736" s="1" t="s">
         <v>519</v>
@@ -58074,13 +58074,13 @@
         <v>8</v>
       </c>
       <c r="H743" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I743" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J743" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K743" s="6" t="s">
         <v>33</v>
@@ -58104,7 +58104,7 @@
         <v>0</v>
       </c>
       <c r="R743" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S743" s="1" t="s">
         <v>519</v>
@@ -58145,13 +58145,13 @@
         <v>8</v>
       </c>
       <c r="H744" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I744" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J744" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K744" s="6" t="s">
         <v>33</v>
@@ -58175,7 +58175,7 @@
         <v>0</v>
       </c>
       <c r="R744" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S744" s="1" t="s">
         <v>519</v>
@@ -58212,23 +58212,23 @@
       <c r="F745" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G745" s="7">
-        <v>0</v>
+      <c r="G745" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H745" s="6">
-        <v>0</v>
-      </c>
-      <c r="I745" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I745" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J745" s="6">
-        <v>0</v>
-      </c>
-      <c r="K745" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K745" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L745" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M745" s="6">
         <v>0</v>
@@ -58246,7 +58246,7 @@
         <v>0</v>
       </c>
       <c r="R745" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S745" s="1" t="s">
         <v>519</v>
@@ -60413,23 +60413,23 @@
       <c r="F776" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G776" s="7">
-        <v>0</v>
-      </c>
-      <c r="H776" s="6">
-        <v>0</v>
-      </c>
-      <c r="I776" s="6">
-        <v>0</v>
-      </c>
-      <c r="J776" s="6">
-        <v>0</v>
-      </c>
-      <c r="K776" s="6">
-        <v>0</v>
-      </c>
-      <c r="L776" s="6">
-        <v>0</v>
+      <c r="G776" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H776" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I776" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J776" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K776" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L776" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M776" s="6">
         <v>16.82</v>
@@ -60503,7 +60503,7 @@
         <v>0</v>
       </c>
       <c r="M777" s="6">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="N777" s="6">
         <v>0</v>
@@ -60518,7 +60518,7 @@
         <v>0</v>
       </c>
       <c r="R777" s="4">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="S777" s="1" t="s">
         <v>519</v>
@@ -62614,23 +62614,23 @@
       <c r="F807" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G807" s="7">
-        <v>0</v>
-      </c>
-      <c r="H807" s="6">
-        <v>0</v>
-      </c>
-      <c r="I807" s="6">
-        <v>0</v>
-      </c>
-      <c r="J807" s="6">
-        <v>0</v>
-      </c>
-      <c r="K807" s="6">
-        <v>0</v>
-      </c>
-      <c r="L807" s="6">
-        <v>0</v>
+      <c r="G807" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H807" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I807" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J807" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K807" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L807" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M807" s="6">
         <v>17.71</v>
@@ -62704,7 +62704,7 @@
         <v>0</v>
       </c>
       <c r="M808" s="6">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="N808" s="6">
         <v>0</v>
@@ -62719,7 +62719,7 @@
         <v>0</v>
       </c>
       <c r="R808" s="4">
-        <v>0</v>
+        <v>20.51</v>
       </c>
       <c r="S808" s="1" t="s">
         <v>519</v>
@@ -64815,23 +64815,23 @@
       <c r="F838" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G838" s="7">
-        <v>0</v>
-      </c>
-      <c r="H838" s="6">
-        <v>0</v>
-      </c>
-      <c r="I838" s="6">
-        <v>0</v>
-      </c>
-      <c r="J838" s="6">
-        <v>0</v>
-      </c>
-      <c r="K838" s="6">
-        <v>0</v>
-      </c>
-      <c r="L838" s="6">
-        <v>0</v>
+      <c r="G838" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H838" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I838" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J838" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K838" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L838" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M838" s="6">
         <v>18.54</v>
@@ -64905,7 +64905,7 @@
         <v>0</v>
       </c>
       <c r="M839" s="6">
-        <v>0</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="N839" s="6">
         <v>0</v>
@@ -64920,7 +64920,7 @@
         <v>0</v>
       </c>
       <c r="R839" s="4">
-        <v>0</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="S839" s="1" t="s">
         <v>519</v>
@@ -66097,13 +66097,13 @@
         <v>8</v>
       </c>
       <c r="H856" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I856" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J856" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K856" s="6" t="s">
         <v>33</v>
@@ -66127,7 +66127,7 @@
         <v>0</v>
       </c>
       <c r="R856" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S856" s="1" t="s">
         <v>519</v>
@@ -66168,13 +66168,13 @@
         <v>8</v>
       </c>
       <c r="H857" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I857" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J857" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K857" s="6" t="s">
         <v>33</v>
@@ -66198,7 +66198,7 @@
         <v>0</v>
       </c>
       <c r="R857" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S857" s="1" t="s">
         <v>519</v>
@@ -66310,13 +66310,13 @@
         <v>8</v>
       </c>
       <c r="H859" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I859" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J859" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K859" s="6" t="s">
         <v>33</v>
@@ -66340,7 +66340,7 @@
         <v>0</v>
       </c>
       <c r="R859" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S859" s="1" t="s">
         <v>519</v>
@@ -66381,13 +66381,13 @@
         <v>8</v>
       </c>
       <c r="H860" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I860" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J860" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K860" s="6" t="s">
         <v>33</v>
@@ -66411,7 +66411,7 @@
         <v>0</v>
       </c>
       <c r="R860" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S860" s="1" t="s">
         <v>519</v>
@@ -66878,13 +66878,13 @@
         <v>8</v>
       </c>
       <c r="H867" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I867" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J867" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K867" s="6" t="s">
         <v>33</v>
@@ -66908,7 +66908,7 @@
         <v>0</v>
       </c>
       <c r="R867" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S867" s="1" t="s">
         <v>519</v>
@@ -66949,13 +66949,13 @@
         <v>8</v>
       </c>
       <c r="H868" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I868" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J868" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K868" s="6" t="s">
         <v>33</v>
@@ -66979,7 +66979,7 @@
         <v>0</v>
       </c>
       <c r="R868" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S868" s="1" t="s">
         <v>519</v>
@@ -67016,23 +67016,23 @@
       <c r="F869" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G869" s="7">
-        <v>0</v>
+      <c r="G869" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H869" s="6">
-        <v>0</v>
-      </c>
-      <c r="I869" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I869" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J869" s="6">
-        <v>0</v>
-      </c>
-      <c r="K869" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K869" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L869" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M869" s="6">
         <v>0</v>
@@ -67050,7 +67050,7 @@
         <v>0</v>
       </c>
       <c r="R869" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S869" s="1" t="s">
         <v>519</v>
@@ -69217,23 +69217,23 @@
       <c r="F900" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G900" s="7">
-        <v>0</v>
-      </c>
-      <c r="H900" s="6">
-        <v>0</v>
-      </c>
-      <c r="I900" s="6">
-        <v>0</v>
-      </c>
-      <c r="J900" s="6">
-        <v>0</v>
-      </c>
-      <c r="K900" s="6">
-        <v>0</v>
-      </c>
-      <c r="L900" s="6">
-        <v>0</v>
+      <c r="G900" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H900" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I900" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J900" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K900" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L900" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M900" s="6">
         <v>14.85</v>
@@ -69307,7 +69307,7 @@
         <v>0</v>
       </c>
       <c r="M901" s="6">
-        <v>0</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="N901" s="6">
         <v>0</v>
@@ -69322,7 +69322,7 @@
         <v>0</v>
       </c>
       <c r="R901" s="4">
-        <v>0</v>
+        <v>19.350000000000001</v>
       </c>
       <c r="S901" s="1" t="s">
         <v>519</v>
@@ -71418,23 +71418,23 @@
       <c r="F931" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G931" s="7">
-        <v>0</v>
-      </c>
-      <c r="H931" s="6">
-        <v>0</v>
-      </c>
-      <c r="I931" s="6">
-        <v>0</v>
-      </c>
-      <c r="J931" s="6">
-        <v>0</v>
-      </c>
-      <c r="K931" s="6">
-        <v>0</v>
-      </c>
-      <c r="L931" s="6">
-        <v>0</v>
+      <c r="G931" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H931" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I931" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J931" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K931" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L931" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M931" s="6">
         <v>12.62</v>
@@ -71508,7 +71508,7 @@
         <v>0</v>
       </c>
       <c r="M932" s="6">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="N932" s="6">
         <v>0</v>
@@ -71523,7 +71523,7 @@
         <v>0</v>
       </c>
       <c r="R932" s="4">
-        <v>0</v>
+        <v>18.75</v>
       </c>
       <c r="S932" s="1" t="s">
         <v>519</v>
@@ -73619,23 +73619,23 @@
       <c r="F962" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G962" s="7">
-        <v>0</v>
-      </c>
-      <c r="H962" s="6">
-        <v>0</v>
-      </c>
-      <c r="I962" s="6">
-        <v>0</v>
-      </c>
-      <c r="J962" s="6">
-        <v>0</v>
-      </c>
-      <c r="K962" s="6">
-        <v>0</v>
-      </c>
-      <c r="L962" s="6">
-        <v>0</v>
+      <c r="G962" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H962" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I962" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J962" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K962" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L962" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M962" s="6">
         <v>15.95</v>
@@ -73709,7 +73709,7 @@
         <v>0</v>
       </c>
       <c r="M963" s="6">
-        <v>0</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="N963" s="6">
         <v>0</v>
@@ -73724,7 +73724,7 @@
         <v>0</v>
       </c>
       <c r="R963" s="4">
-        <v>0</v>
+        <v>16.239999999999998</v>
       </c>
       <c r="S963" s="1" t="s">
         <v>519</v>
@@ -75820,23 +75820,23 @@
       <c r="F993" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G993" s="7">
-        <v>0</v>
-      </c>
-      <c r="H993" s="6">
-        <v>0</v>
-      </c>
-      <c r="I993" s="6">
-        <v>0</v>
-      </c>
-      <c r="J993" s="6">
-        <v>0</v>
-      </c>
-      <c r="K993" s="6">
-        <v>0</v>
-      </c>
-      <c r="L993" s="6">
-        <v>0</v>
+      <c r="G993" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H993" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I993" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J993" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K993" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L993" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M993" s="6">
         <v>22.95</v>
@@ -75910,7 +75910,7 @@
         <v>0</v>
       </c>
       <c r="M994" s="6">
-        <v>0</v>
+        <v>24.71</v>
       </c>
       <c r="N994" s="6">
         <v>0</v>
@@ -75925,7 +75925,7 @@
         <v>0</v>
       </c>
       <c r="R994" s="4">
-        <v>0</v>
+        <v>24.71</v>
       </c>
       <c r="S994" s="1" t="s">
         <v>519</v>
@@ -78021,23 +78021,23 @@
       <c r="F1024" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1024" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1024" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1024" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1024" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1024" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1024" s="6">
-        <v>0</v>
+      <c r="G1024" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1024" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1024" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1024" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1024" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1024" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1024" s="6">
         <v>0</v>
@@ -80222,23 +80222,23 @@
       <c r="F1055" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1055" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1055" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1055" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1055" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1055" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1055" s="6">
-        <v>0</v>
+      <c r="G1055" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1055" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1055" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1055" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1055" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1055" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1055" s="6">
         <v>20.66</v>
@@ -80312,7 +80312,7 @@
         <v>0</v>
       </c>
       <c r="M1056" s="6">
-        <v>0</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="N1056" s="6">
         <v>0</v>
@@ -80327,7 +80327,7 @@
         <v>0</v>
       </c>
       <c r="R1056" s="4">
-        <v>0</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="S1056" s="1" t="s">
         <v>519</v>
@@ -82423,23 +82423,23 @@
       <c r="F1086" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1086" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1086" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1086" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1086" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1086" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1086" s="6">
-        <v>0</v>
+      <c r="G1086" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1086" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1086" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1086" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1086" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1086" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1086" s="6">
         <v>15.55</v>
@@ -82513,7 +82513,7 @@
         <v>0</v>
       </c>
       <c r="M1087" s="6">
-        <v>0</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="N1087" s="6">
         <v>0</v>
@@ -82528,7 +82528,7 @@
         <v>0</v>
       </c>
       <c r="R1087" s="4">
-        <v>0</v>
+        <v>16.940000000000001</v>
       </c>
       <c r="S1087" s="1" t="s">
         <v>519</v>
@@ -84624,23 +84624,23 @@
       <c r="F1117" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1117" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1117" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1117" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1117" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1117" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1117" s="6">
-        <v>0</v>
+      <c r="G1117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1117" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1117" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1117" s="6">
         <v>16.36</v>
@@ -84714,7 +84714,7 @@
         <v>0</v>
       </c>
       <c r="M1118" s="6">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="N1118" s="6">
         <v>0</v>
@@ -84729,7 +84729,7 @@
         <v>0</v>
       </c>
       <c r="R1118" s="4">
-        <v>0</v>
+        <v>18.7</v>
       </c>
       <c r="S1118" s="1" t="s">
         <v>519</v>
@@ -85906,7 +85906,7 @@
         <v>8</v>
       </c>
       <c r="H1135" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1135" s="6">
         <v>4</v>
@@ -85936,7 +85936,7 @@
         <v>33</v>
       </c>
       <c r="R1135" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1135" s="1" t="s">
         <v>756</v>
@@ -85977,7 +85977,7 @@
         <v>8</v>
       </c>
       <c r="H1136" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1136" s="6">
         <v>4</v>
@@ -86007,7 +86007,7 @@
         <v>33</v>
       </c>
       <c r="R1136" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1136" s="1" t="s">
         <v>756</v>
@@ -86119,7 +86119,7 @@
         <v>8</v>
       </c>
       <c r="H1138" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1138" s="6">
         <v>4</v>
@@ -86149,7 +86149,7 @@
         <v>33</v>
       </c>
       <c r="R1138" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1138" s="1" t="s">
         <v>756</v>
@@ -86190,7 +86190,7 @@
         <v>8</v>
       </c>
       <c r="H1139" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1139" s="6">
         <v>4</v>
@@ -86220,7 +86220,7 @@
         <v>33</v>
       </c>
       <c r="R1139" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1139" s="1" t="s">
         <v>756</v>
@@ -86687,7 +86687,7 @@
         <v>8</v>
       </c>
       <c r="H1146" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1146" s="6">
         <v>4</v>
@@ -86717,7 +86717,7 @@
         <v>33</v>
       </c>
       <c r="R1146" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1146" s="1" t="s">
         <v>756</v>
@@ -86758,10 +86758,10 @@
         <v>8</v>
       </c>
       <c r="H1147" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1147" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1147" s="6" t="s">
         <v>33</v>
@@ -86779,7 +86779,7 @@
         <v>0</v>
       </c>
       <c r="O1147" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1147" s="6" t="s">
         <v>33</v>
@@ -86788,7 +86788,7 @@
         <v>33</v>
       </c>
       <c r="R1147" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1147" s="1" t="s">
         <v>756</v>
@@ -86825,17 +86825,17 @@
       <c r="F1148" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1148" s="7">
-        <v>0</v>
+      <c r="G1148" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1148" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1148" s="6">
         <v>0</v>
       </c>
-      <c r="J1148" s="6">
-        <v>0</v>
+      <c r="J1148" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1148" s="6">
         <v>0</v>
@@ -86850,16 +86850,16 @@
         <v>0</v>
       </c>
       <c r="O1148" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1148" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1148" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1148" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1148" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1148" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1148" s="1" t="s">
         <v>756</v>
@@ -88107,7 +88107,7 @@
         <v>8</v>
       </c>
       <c r="H1166" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1166" s="6">
         <v>4</v>
@@ -88137,7 +88137,7 @@
         <v>33</v>
       </c>
       <c r="R1166" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1166" s="1" t="s">
         <v>756</v>
@@ -88320,7 +88320,7 @@
         <v>8</v>
       </c>
       <c r="H1169" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1169" s="6" t="s">
         <v>33</v>
@@ -88350,7 +88350,7 @@
         <v>4</v>
       </c>
       <c r="R1169" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1169" s="1" t="s">
         <v>756</v>
@@ -88391,7 +88391,7 @@
         <v>8</v>
       </c>
       <c r="H1170" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1170" s="6" t="s">
         <v>33</v>
@@ -88421,7 +88421,7 @@
         <v>4</v>
       </c>
       <c r="R1170" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1170" s="1" t="s">
         <v>756</v>
@@ -88888,7 +88888,7 @@
         <v>8</v>
       </c>
       <c r="H1177" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1177" s="6" t="s">
         <v>33</v>
@@ -88915,10 +88915,10 @@
         <v>33</v>
       </c>
       <c r="Q1177" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1177" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S1177" s="1" t="s">
         <v>756</v>
@@ -88959,7 +88959,7 @@
         <v>8</v>
       </c>
       <c r="H1178" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1178" s="6" t="s">
         <v>33</v>
@@ -88980,16 +88980,16 @@
         <v>0</v>
       </c>
       <c r="O1178" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1178" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q1178" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1178" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1178" s="1" t="s">
         <v>756</v>
@@ -89026,17 +89026,17 @@
       <c r="F1179" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1179" s="7">
-        <v>0</v>
+      <c r="G1179" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1179" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1179" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1179" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1179" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1179" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1179" s="6">
         <v>0</v>
@@ -89051,16 +89051,16 @@
         <v>0</v>
       </c>
       <c r="O1179" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1179" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1179" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1179" s="6">
         <v>0</v>
       </c>
       <c r="R1179" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1179" s="1" t="s">
         <v>756</v>
@@ -90379,7 +90379,7 @@
         <v>8</v>
       </c>
       <c r="H1198" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1198" s="6" t="s">
         <v>33</v>
@@ -90409,7 +90409,7 @@
         <v>4</v>
       </c>
       <c r="R1198" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1198" s="1" t="s">
         <v>756</v>
@@ -93382,16 +93382,16 @@
         <v>0</v>
       </c>
       <c r="O1240" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1240" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q1240" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1240" s="4">
         <v>2</v>
-      </c>
-      <c r="P1240" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1240" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1240" s="4">
-        <v>4</v>
       </c>
       <c r="S1240" s="1" t="s">
         <v>756</v>
@@ -93428,17 +93428,17 @@
       <c r="F1241" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1241" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1241" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1241" s="6">
-        <v>0</v>
+      <c r="G1241" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1241" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1241" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1241" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1241" s="6">
         <v>0</v>
@@ -93453,16 +93453,16 @@
         <v>0</v>
       </c>
       <c r="O1241" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1241" s="6">
         <v>0</v>
       </c>
-      <c r="Q1241" s="6">
-        <v>0</v>
+      <c r="Q1241" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1241" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1241" s="1" t="s">
         <v>756</v>
@@ -94710,7 +94710,7 @@
         <v>8</v>
       </c>
       <c r="H1259" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1259" s="6" t="s">
         <v>33</v>
@@ -94740,7 +94740,7 @@
         <v>4</v>
       </c>
       <c r="R1259" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1259" s="1" t="s">
         <v>756</v>
@@ -94781,7 +94781,7 @@
         <v>8</v>
       </c>
       <c r="H1260" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1260" s="6" t="s">
         <v>33</v>
@@ -94811,7 +94811,7 @@
         <v>4</v>
       </c>
       <c r="R1260" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1260" s="1" t="s">
         <v>756</v>
@@ -95583,16 +95583,16 @@
         <v>0</v>
       </c>
       <c r="O1271" s="6">
+        <v>0</v>
+      </c>
+      <c r="P1271" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q1271" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1271" s="4">
         <v>2</v>
-      </c>
-      <c r="P1271" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1271" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1271" s="4">
-        <v>4</v>
       </c>
       <c r="S1271" s="1" t="s">
         <v>756</v>
@@ -95629,17 +95629,17 @@
       <c r="F1272" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1272" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1272" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1272" s="6">
-        <v>0</v>
+      <c r="G1272" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1272" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1272" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1272" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1272" s="6">
         <v>0</v>
@@ -95654,16 +95654,16 @@
         <v>0</v>
       </c>
       <c r="O1272" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1272" s="6">
         <v>0</v>
       </c>
-      <c r="Q1272" s="6">
-        <v>0</v>
+      <c r="Q1272" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1272" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1272" s="1" t="s">
         <v>756</v>
@@ -96911,7 +96911,7 @@
         <v>8</v>
       </c>
       <c r="H1290" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1290" s="6" t="s">
         <v>33</v>
@@ -96941,7 +96941,7 @@
         <v>4</v>
       </c>
       <c r="R1290" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1290" s="1" t="s">
         <v>756</v>
@@ -96982,7 +96982,7 @@
         <v>8</v>
       </c>
       <c r="H1291" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1291" s="6" t="s">
         <v>33</v>
@@ -97012,7 +97012,7 @@
         <v>4</v>
       </c>
       <c r="R1291" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1291" s="1" t="s">
         <v>756</v>
@@ -97124,7 +97124,7 @@
         <v>8</v>
       </c>
       <c r="H1293" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1293" s="6" t="s">
         <v>33</v>
@@ -97154,7 +97154,7 @@
         <v>4</v>
       </c>
       <c r="R1293" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1293" s="1" t="s">
         <v>756</v>
@@ -97195,7 +97195,7 @@
         <v>8</v>
       </c>
       <c r="H1294" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1294" s="6" t="s">
         <v>33</v>
@@ -97225,7 +97225,7 @@
         <v>4</v>
       </c>
       <c r="R1294" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1294" s="1" t="s">
         <v>756</v>
@@ -97692,7 +97692,7 @@
         <v>8</v>
       </c>
       <c r="H1301" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1301" s="6" t="s">
         <v>33</v>
@@ -97719,10 +97719,10 @@
         <v>33</v>
       </c>
       <c r="Q1301" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1301" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="S1301" s="1" t="s">
         <v>756</v>
@@ -97763,7 +97763,7 @@
         <v>8</v>
       </c>
       <c r="H1302" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1302" s="6" t="s">
         <v>33</v>
@@ -97784,16 +97784,16 @@
         <v>0</v>
       </c>
       <c r="O1302" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1302" s="6" t="s">
         <v>33</v>
       </c>
       <c r="Q1302" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1302" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1302" s="1" t="s">
         <v>756</v>
@@ -97830,17 +97830,17 @@
       <c r="F1303" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1303" s="7">
-        <v>0</v>
+      <c r="G1303" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1303" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1303" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1303" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1303" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1303" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1303" s="6">
         <v>0</v>
@@ -97855,16 +97855,16 @@
         <v>0</v>
       </c>
       <c r="O1303" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1303" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1303" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1303" s="6">
         <v>0</v>
       </c>
       <c r="R1303" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1303" s="1" t="s">
         <v>756</v>
@@ -99183,7 +99183,7 @@
         <v>8</v>
       </c>
       <c r="H1322" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1322" s="6" t="s">
         <v>33</v>
@@ -99213,7 +99213,7 @@
         <v>4</v>
       </c>
       <c r="R1322" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1322" s="1" t="s">
         <v>756</v>
@@ -99325,7 +99325,7 @@
         <v>8</v>
       </c>
       <c r="H1324" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1324" s="6">
         <v>4</v>
@@ -99355,7 +99355,7 @@
         <v>33</v>
       </c>
       <c r="R1324" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1324" s="1" t="s">
         <v>756</v>
@@ -99396,7 +99396,7 @@
         <v>8</v>
       </c>
       <c r="H1325" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1325" s="6">
         <v>4</v>
@@ -99426,7 +99426,7 @@
         <v>33</v>
       </c>
       <c r="R1325" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1325" s="1" t="s">
         <v>756</v>
@@ -99893,7 +99893,7 @@
         <v>8</v>
       </c>
       <c r="H1332" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1332" s="6">
         <v>4</v>
@@ -99923,7 +99923,7 @@
         <v>33</v>
       </c>
       <c r="R1332" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1332" s="1" t="s">
         <v>756</v>
@@ -99964,10 +99964,10 @@
         <v>8</v>
       </c>
       <c r="H1333" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1333" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1333" s="6" t="s">
         <v>33</v>
@@ -99985,7 +99985,7 @@
         <v>0</v>
       </c>
       <c r="O1333" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1333" s="6" t="s">
         <v>33</v>
@@ -99994,7 +99994,7 @@
         <v>33</v>
       </c>
       <c r="R1333" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1333" s="1" t="s">
         <v>756</v>
@@ -100031,17 +100031,17 @@
       <c r="F1334" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1334" s="7">
-        <v>0</v>
+      <c r="G1334" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1334" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1334" s="6">
         <v>0</v>
       </c>
-      <c r="J1334" s="6">
-        <v>0</v>
+      <c r="J1334" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1334" s="6">
         <v>0</v>
@@ -100056,16 +100056,16 @@
         <v>0</v>
       </c>
       <c r="O1334" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1334" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1334" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1334" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1334" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1334" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1334" s="1" t="s">
         <v>756</v>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574A9EA6-DCA6-4071-9A93-25D1DDFFFC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BEC6A8-0E79-4AF3-B3CB-BD5BCD676DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12489" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12897" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -53881,23 +53881,23 @@
       <c r="F684" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G684" s="7">
-        <v>0</v>
+      <c r="G684" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H684" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I684" s="6">
-        <v>0</v>
-      </c>
-      <c r="J684" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J684" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K684" s="6">
-        <v>0</v>
-      </c>
-      <c r="L684" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L684" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M684" s="6">
         <v>0</v>
@@ -53915,7 +53915,7 @@
         <v>0</v>
       </c>
       <c r="R684" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S684" s="1" t="s">
         <v>519</v>
@@ -53952,23 +53952,23 @@
       <c r="F685" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G685" s="7">
-        <v>0</v>
+      <c r="G685" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H685" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I685" s="6">
-        <v>0</v>
-      </c>
-      <c r="J685" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J685" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K685" s="6">
-        <v>0</v>
-      </c>
-      <c r="L685" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L685" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M685" s="6">
         <v>0</v>
@@ -53986,7 +53986,7 @@
         <v>0</v>
       </c>
       <c r="R685" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S685" s="1" t="s">
         <v>519</v>
@@ -54094,8 +54094,8 @@
       <c r="F687" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G687" s="7">
-        <v>0</v>
+      <c r="G687" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H687" s="6">
         <v>0</v>
@@ -54103,14 +54103,14 @@
       <c r="I687" s="6">
         <v>0</v>
       </c>
-      <c r="J687" s="6">
-        <v>0</v>
+      <c r="J687" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K687" s="6">
-        <v>0</v>
-      </c>
-      <c r="L687" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L687" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M687" s="6">
         <v>0</v>
@@ -54128,7 +54128,7 @@
         <v>0</v>
       </c>
       <c r="R687" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S687" s="1" t="s">
         <v>519</v>
@@ -54165,23 +54165,23 @@
       <c r="F688" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G688" s="7">
-        <v>0</v>
+      <c r="G688" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H688" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I688" s="6">
-        <v>0</v>
-      </c>
-      <c r="J688" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J688" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K688" s="6">
-        <v>0</v>
-      </c>
-      <c r="L688" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L688" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M688" s="6">
         <v>0</v>
@@ -54199,7 +54199,7 @@
         <v>0</v>
       </c>
       <c r="R688" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S688" s="1" t="s">
         <v>519</v>
@@ -56082,23 +56082,23 @@
       <c r="F715" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G715" s="7">
-        <v>0</v>
+      <c r="G715" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H715" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I715" s="6">
-        <v>0</v>
-      </c>
-      <c r="J715" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J715" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K715" s="6">
-        <v>0</v>
-      </c>
-      <c r="L715" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L715" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M715" s="6">
         <v>0</v>
@@ -56116,7 +56116,7 @@
         <v>0</v>
       </c>
       <c r="R715" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S715" s="1" t="s">
         <v>519</v>
@@ -56153,23 +56153,23 @@
       <c r="F716" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G716" s="7">
-        <v>0</v>
+      <c r="G716" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H716" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I716" s="6">
-        <v>0</v>
-      </c>
-      <c r="J716" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J716" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K716" s="6">
-        <v>0</v>
-      </c>
-      <c r="L716" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L716" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M716" s="6">
         <v>0</v>
@@ -56187,7 +56187,7 @@
         <v>0</v>
       </c>
       <c r="R716" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S716" s="1" t="s">
         <v>519</v>
@@ -56295,8 +56295,8 @@
       <c r="F718" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G718" s="7">
-        <v>0</v>
+      <c r="G718" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H718" s="6">
         <v>0</v>
@@ -56304,14 +56304,14 @@
       <c r="I718" s="6">
         <v>0</v>
       </c>
-      <c r="J718" s="6">
-        <v>0</v>
+      <c r="J718" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K718" s="6">
-        <v>0</v>
-      </c>
-      <c r="L718" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L718" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M718" s="6">
         <v>0</v>
@@ -56329,7 +56329,7 @@
         <v>0</v>
       </c>
       <c r="R718" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S718" s="1" t="s">
         <v>519</v>
@@ -56366,23 +56366,23 @@
       <c r="F719" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G719" s="7">
-        <v>0</v>
+      <c r="G719" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H719" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I719" s="6">
-        <v>0</v>
-      </c>
-      <c r="J719" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J719" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K719" s="6">
-        <v>0</v>
-      </c>
-      <c r="L719" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L719" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M719" s="6">
         <v>0</v>
@@ -56400,7 +56400,7 @@
         <v>0</v>
       </c>
       <c r="R719" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S719" s="1" t="s">
         <v>519</v>
@@ -58283,23 +58283,23 @@
       <c r="F746" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G746" s="7">
-        <v>0</v>
+      <c r="G746" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H746" s="6">
-        <v>0</v>
-      </c>
-      <c r="I746" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I746" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J746" s="6">
-        <v>0</v>
-      </c>
-      <c r="K746" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K746" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L746" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M746" s="6">
         <v>0</v>
@@ -58317,7 +58317,7 @@
         <v>0</v>
       </c>
       <c r="R746" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S746" s="1" t="s">
         <v>519</v>
@@ -58354,23 +58354,23 @@
       <c r="F747" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G747" s="7">
-        <v>0</v>
+      <c r="G747" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H747" s="6">
-        <v>0</v>
-      </c>
-      <c r="I747" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I747" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J747" s="6">
-        <v>0</v>
-      </c>
-      <c r="K747" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K747" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L747" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M747" s="6">
         <v>0</v>
@@ -58388,7 +58388,7 @@
         <v>0</v>
       </c>
       <c r="R747" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S747" s="1" t="s">
         <v>519</v>
@@ -58496,23 +58496,23 @@
       <c r="F749" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G749" s="7">
-        <v>0</v>
+      <c r="G749" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H749" s="6">
         <v>0</v>
       </c>
-      <c r="I749" s="6">
-        <v>0</v>
+      <c r="I749" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J749" s="6">
         <v>0</v>
       </c>
-      <c r="K749" s="6">
-        <v>0</v>
+      <c r="K749" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L749" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M749" s="6">
         <v>0</v>
@@ -58530,7 +58530,7 @@
         <v>0</v>
       </c>
       <c r="R749" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S749" s="1" t="s">
         <v>519</v>
@@ -58567,23 +58567,23 @@
       <c r="F750" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G750" s="7">
-        <v>0</v>
+      <c r="G750" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H750" s="6">
-        <v>0</v>
-      </c>
-      <c r="I750" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I750" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J750" s="6">
-        <v>0</v>
-      </c>
-      <c r="K750" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K750" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L750" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M750" s="6">
         <v>0</v>
@@ -58601,7 +58601,7 @@
         <v>0</v>
       </c>
       <c r="R750" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S750" s="1" t="s">
         <v>519</v>
@@ -60484,23 +60484,23 @@
       <c r="F777" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G777" s="7">
-        <v>0</v>
-      </c>
-      <c r="H777" s="6">
-        <v>0</v>
-      </c>
-      <c r="I777" s="6">
-        <v>0</v>
-      </c>
-      <c r="J777" s="6">
-        <v>0</v>
-      </c>
-      <c r="K777" s="6">
-        <v>0</v>
-      </c>
-      <c r="L777" s="6">
-        <v>0</v>
+      <c r="G777" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H777" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I777" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J777" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K777" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L777" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M777" s="6">
         <v>15.96</v>
@@ -60555,26 +60555,26 @@
       <c r="F778" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G778" s="7">
-        <v>0</v>
-      </c>
-      <c r="H778" s="6">
-        <v>0</v>
-      </c>
-      <c r="I778" s="6">
-        <v>0</v>
-      </c>
-      <c r="J778" s="6">
-        <v>0</v>
-      </c>
-      <c r="K778" s="6">
-        <v>0</v>
-      </c>
-      <c r="L778" s="6">
-        <v>0</v>
+      <c r="G778" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H778" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I778" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J778" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K778" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L778" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M778" s="6">
-        <v>0</v>
+        <v>19.68</v>
       </c>
       <c r="N778" s="6">
         <v>0</v>
@@ -60589,7 +60589,7 @@
         <v>0</v>
       </c>
       <c r="R778" s="4">
-        <v>0</v>
+        <v>19.68</v>
       </c>
       <c r="S778" s="1" t="s">
         <v>519</v>
@@ -60697,26 +60697,26 @@
       <c r="F780" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G780" s="7">
-        <v>0</v>
-      </c>
-      <c r="H780" s="6">
-        <v>0</v>
-      </c>
-      <c r="I780" s="6">
-        <v>0</v>
-      </c>
-      <c r="J780" s="6">
-        <v>0</v>
-      </c>
-      <c r="K780" s="6">
-        <v>0</v>
-      </c>
-      <c r="L780" s="6">
-        <v>0</v>
+      <c r="G780" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H780" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I780" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J780" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K780" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L780" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M780" s="6">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="N780" s="6">
         <v>0</v>
@@ -60731,7 +60731,7 @@
         <v>0</v>
       </c>
       <c r="R780" s="4">
-        <v>0</v>
+        <v>13.92</v>
       </c>
       <c r="S780" s="1" t="s">
         <v>519</v>
@@ -60768,26 +60768,26 @@
       <c r="F781" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G781" s="7">
-        <v>0</v>
-      </c>
-      <c r="H781" s="6">
-        <v>0</v>
-      </c>
-      <c r="I781" s="6">
-        <v>0</v>
-      </c>
-      <c r="J781" s="6">
-        <v>0</v>
-      </c>
-      <c r="K781" s="6">
-        <v>0</v>
-      </c>
-      <c r="L781" s="6">
-        <v>0</v>
+      <c r="G781" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H781" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I781" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J781" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K781" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L781" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M781" s="6">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="N781" s="6">
         <v>0</v>
@@ -60802,7 +60802,7 @@
         <v>0</v>
       </c>
       <c r="R781" s="4">
-        <v>0</v>
+        <v>15.96</v>
       </c>
       <c r="S781" s="1" t="s">
         <v>519</v>
@@ -60858,7 +60858,7 @@
         <v>0</v>
       </c>
       <c r="M782" s="6">
-        <v>0</v>
+        <v>18.61</v>
       </c>
       <c r="N782" s="6">
         <v>0</v>
@@ -60873,7 +60873,7 @@
         <v>0</v>
       </c>
       <c r="R782" s="4">
-        <v>0</v>
+        <v>18.61</v>
       </c>
       <c r="S782" s="1" t="s">
         <v>519</v>
@@ -62685,23 +62685,23 @@
       <c r="F808" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G808" s="7">
-        <v>0</v>
-      </c>
-      <c r="H808" s="6">
-        <v>0</v>
-      </c>
-      <c r="I808" s="6">
-        <v>0</v>
-      </c>
-      <c r="J808" s="6">
-        <v>0</v>
-      </c>
-      <c r="K808" s="6">
-        <v>0</v>
-      </c>
-      <c r="L808" s="6">
-        <v>0</v>
+      <c r="G808" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H808" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I808" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J808" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K808" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L808" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M808" s="6">
         <v>20.51</v>
@@ -62756,26 +62756,26 @@
       <c r="F809" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G809" s="7">
-        <v>0</v>
-      </c>
-      <c r="H809" s="6">
-        <v>0</v>
-      </c>
-      <c r="I809" s="6">
-        <v>0</v>
-      </c>
-      <c r="J809" s="6">
-        <v>0</v>
-      </c>
-      <c r="K809" s="6">
-        <v>0</v>
-      </c>
-      <c r="L809" s="6">
-        <v>0</v>
+      <c r="G809" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H809" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I809" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J809" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K809" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L809" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M809" s="6">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="N809" s="6">
         <v>0</v>
@@ -62790,7 +62790,7 @@
         <v>0</v>
       </c>
       <c r="R809" s="4">
-        <v>0</v>
+        <v>20.85</v>
       </c>
       <c r="S809" s="1" t="s">
         <v>519</v>
@@ -62898,26 +62898,26 @@
       <c r="F811" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G811" s="7">
-        <v>0</v>
-      </c>
-      <c r="H811" s="6">
-        <v>0</v>
-      </c>
-      <c r="I811" s="6">
-        <v>0</v>
-      </c>
-      <c r="J811" s="6">
-        <v>0</v>
-      </c>
-      <c r="K811" s="6">
-        <v>0</v>
-      </c>
-      <c r="L811" s="6">
-        <v>0</v>
+      <c r="G811" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H811" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I811" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J811" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K811" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L811" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M811" s="6">
-        <v>0</v>
+        <v>17.62</v>
       </c>
       <c r="N811" s="6">
         <v>0</v>
@@ -62932,7 +62932,7 @@
         <v>0</v>
       </c>
       <c r="R811" s="4">
-        <v>0</v>
+        <v>17.62</v>
       </c>
       <c r="S811" s="1" t="s">
         <v>519</v>
@@ -62969,26 +62969,26 @@
       <c r="F812" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G812" s="7">
-        <v>0</v>
-      </c>
-      <c r="H812" s="6">
-        <v>0</v>
-      </c>
-      <c r="I812" s="6">
-        <v>0</v>
-      </c>
-      <c r="J812" s="6">
-        <v>0</v>
-      </c>
-      <c r="K812" s="6">
-        <v>0</v>
-      </c>
-      <c r="L812" s="6">
-        <v>0</v>
+      <c r="G812" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H812" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I812" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J812" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K812" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L812" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M812" s="6">
-        <v>0</v>
+        <v>15.07</v>
       </c>
       <c r="N812" s="6">
         <v>0</v>
@@ -63003,7 +63003,7 @@
         <v>0</v>
       </c>
       <c r="R812" s="4">
-        <v>0</v>
+        <v>15.07</v>
       </c>
       <c r="S812" s="1" t="s">
         <v>519</v>
@@ -63059,7 +63059,7 @@
         <v>0</v>
       </c>
       <c r="M813" s="6">
-        <v>0</v>
+        <v>19.02</v>
       </c>
       <c r="N813" s="6">
         <v>0</v>
@@ -63074,7 +63074,7 @@
         <v>0</v>
       </c>
       <c r="R813" s="4">
-        <v>0</v>
+        <v>19.02</v>
       </c>
       <c r="S813" s="1" t="s">
         <v>519</v>
@@ -64886,23 +64886,23 @@
       <c r="F839" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G839" s="7">
-        <v>0</v>
-      </c>
-      <c r="H839" s="6">
-        <v>0</v>
-      </c>
-      <c r="I839" s="6">
-        <v>0</v>
-      </c>
-      <c r="J839" s="6">
-        <v>0</v>
-      </c>
-      <c r="K839" s="6">
-        <v>0</v>
-      </c>
-      <c r="L839" s="6">
-        <v>0</v>
+      <c r="G839" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H839" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I839" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J839" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K839" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L839" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M839" s="6">
         <v>17.829999999999998</v>
@@ -64957,26 +64957,26 @@
       <c r="F840" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G840" s="7">
-        <v>0</v>
-      </c>
-      <c r="H840" s="6">
-        <v>0</v>
-      </c>
-      <c r="I840" s="6">
-        <v>0</v>
-      </c>
-      <c r="J840" s="6">
-        <v>0</v>
-      </c>
-      <c r="K840" s="6">
-        <v>0</v>
-      </c>
-      <c r="L840" s="6">
-        <v>0</v>
+      <c r="G840" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H840" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I840" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J840" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K840" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L840" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M840" s="6">
-        <v>0</v>
+        <v>17.09</v>
       </c>
       <c r="N840" s="6">
         <v>0</v>
@@ -64991,7 +64991,7 @@
         <v>0</v>
       </c>
       <c r="R840" s="4">
-        <v>0</v>
+        <v>17.09</v>
       </c>
       <c r="S840" s="1" t="s">
         <v>519</v>
@@ -65099,26 +65099,26 @@
       <c r="F842" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G842" s="7">
-        <v>0</v>
-      </c>
-      <c r="H842" s="6">
-        <v>0</v>
-      </c>
-      <c r="I842" s="6">
-        <v>0</v>
-      </c>
-      <c r="J842" s="6">
-        <v>0</v>
-      </c>
-      <c r="K842" s="6">
-        <v>0</v>
-      </c>
-      <c r="L842" s="6">
-        <v>0</v>
+      <c r="G842" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H842" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I842" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J842" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K842" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L842" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M842" s="6">
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="N842" s="6">
         <v>0</v>
@@ -65133,7 +65133,7 @@
         <v>0</v>
       </c>
       <c r="R842" s="4">
-        <v>0</v>
+        <v>17.87</v>
       </c>
       <c r="S842" s="1" t="s">
         <v>519</v>
@@ -65170,26 +65170,26 @@
       <c r="F843" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G843" s="7">
-        <v>0</v>
-      </c>
-      <c r="H843" s="6">
-        <v>0</v>
-      </c>
-      <c r="I843" s="6">
-        <v>0</v>
-      </c>
-      <c r="J843" s="6">
-        <v>0</v>
-      </c>
-      <c r="K843" s="6">
-        <v>0</v>
-      </c>
-      <c r="L843" s="6">
-        <v>0</v>
+      <c r="G843" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H843" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I843" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J843" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K843" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L843" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M843" s="6">
-        <v>0</v>
+        <v>18.29</v>
       </c>
       <c r="N843" s="6">
         <v>0</v>
@@ -65204,7 +65204,7 @@
         <v>0</v>
       </c>
       <c r="R843" s="4">
-        <v>0</v>
+        <v>18.29</v>
       </c>
       <c r="S843" s="1" t="s">
         <v>519</v>
@@ -65260,7 +65260,7 @@
         <v>0</v>
       </c>
       <c r="M844" s="6">
-        <v>0</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="N844" s="6">
         <v>0</v>
@@ -65275,7 +65275,7 @@
         <v>0</v>
       </c>
       <c r="R844" s="4">
-        <v>0</v>
+        <v>17.809999999999999</v>
       </c>
       <c r="S844" s="1" t="s">
         <v>519</v>
@@ -67087,23 +67087,23 @@
       <c r="F870" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G870" s="7">
-        <v>0</v>
+      <c r="G870" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H870" s="6">
-        <v>0</v>
-      </c>
-      <c r="I870" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I870" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J870" s="6">
-        <v>0</v>
-      </c>
-      <c r="K870" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K870" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L870" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M870" s="6">
         <v>0</v>
@@ -67121,7 +67121,7 @@
         <v>0</v>
       </c>
       <c r="R870" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S870" s="1" t="s">
         <v>519</v>
@@ -67158,23 +67158,23 @@
       <c r="F871" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G871" s="7">
-        <v>0</v>
+      <c r="G871" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H871" s="6">
-        <v>0</v>
-      </c>
-      <c r="I871" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I871" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J871" s="6">
-        <v>0</v>
-      </c>
-      <c r="K871" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K871" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L871" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M871" s="6">
         <v>0</v>
@@ -67192,7 +67192,7 @@
         <v>0</v>
       </c>
       <c r="R871" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S871" s="1" t="s">
         <v>519</v>
@@ -67300,23 +67300,23 @@
       <c r="F873" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G873" s="7">
-        <v>0</v>
+      <c r="G873" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H873" s="6">
         <v>0</v>
       </c>
-      <c r="I873" s="6">
-        <v>0</v>
+      <c r="I873" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J873" s="6">
         <v>0</v>
       </c>
-      <c r="K873" s="6">
-        <v>0</v>
+      <c r="K873" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L873" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M873" s="6">
         <v>0</v>
@@ -67334,7 +67334,7 @@
         <v>0</v>
       </c>
       <c r="R873" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S873" s="1" t="s">
         <v>519</v>
@@ -67371,23 +67371,23 @@
       <c r="F874" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G874" s="7">
-        <v>0</v>
+      <c r="G874" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H874" s="6">
-        <v>0</v>
-      </c>
-      <c r="I874" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I874" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J874" s="6">
-        <v>0</v>
-      </c>
-      <c r="K874" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K874" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L874" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M874" s="6">
         <v>0</v>
@@ -67405,7 +67405,7 @@
         <v>0</v>
       </c>
       <c r="R874" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S874" s="1" t="s">
         <v>519</v>
@@ -69288,23 +69288,23 @@
       <c r="F901" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G901" s="7">
-        <v>0</v>
-      </c>
-      <c r="H901" s="6">
-        <v>0</v>
-      </c>
-      <c r="I901" s="6">
-        <v>0</v>
-      </c>
-      <c r="J901" s="6">
-        <v>0</v>
-      </c>
-      <c r="K901" s="6">
-        <v>0</v>
-      </c>
-      <c r="L901" s="6">
-        <v>0</v>
+      <c r="G901" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H901" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I901" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J901" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K901" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L901" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M901" s="6">
         <v>19.350000000000001</v>
@@ -69359,26 +69359,26 @@
       <c r="F902" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G902" s="7">
-        <v>0</v>
-      </c>
-      <c r="H902" s="6">
-        <v>0</v>
-      </c>
-      <c r="I902" s="6">
-        <v>0</v>
-      </c>
-      <c r="J902" s="6">
-        <v>0</v>
-      </c>
-      <c r="K902" s="6">
-        <v>0</v>
-      </c>
-      <c r="L902" s="6">
-        <v>0</v>
+      <c r="G902" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H902" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I902" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J902" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K902" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L902" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M902" s="6">
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="N902" s="6">
         <v>0</v>
@@ -69393,7 +69393,7 @@
         <v>0</v>
       </c>
       <c r="R902" s="4">
-        <v>0</v>
+        <v>19.09</v>
       </c>
       <c r="S902" s="1" t="s">
         <v>519</v>
@@ -69501,26 +69501,26 @@
       <c r="F904" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G904" s="7">
-        <v>0</v>
-      </c>
-      <c r="H904" s="6">
-        <v>0</v>
-      </c>
-      <c r="I904" s="6">
-        <v>0</v>
-      </c>
-      <c r="J904" s="6">
-        <v>0</v>
-      </c>
-      <c r="K904" s="6">
-        <v>0</v>
-      </c>
-      <c r="L904" s="6">
-        <v>0</v>
+      <c r="G904" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H904" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I904" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J904" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K904" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L904" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M904" s="6">
-        <v>0</v>
+        <v>18.11</v>
       </c>
       <c r="N904" s="6">
         <v>0</v>
@@ -69535,7 +69535,7 @@
         <v>0</v>
       </c>
       <c r="R904" s="4">
-        <v>0</v>
+        <v>18.11</v>
       </c>
       <c r="S904" s="1" t="s">
         <v>519</v>
@@ -69572,26 +69572,26 @@
       <c r="F905" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G905" s="7">
-        <v>0</v>
-      </c>
-      <c r="H905" s="6">
-        <v>0</v>
-      </c>
-      <c r="I905" s="6">
-        <v>0</v>
-      </c>
-      <c r="J905" s="6">
-        <v>0</v>
-      </c>
-      <c r="K905" s="6">
-        <v>0</v>
-      </c>
-      <c r="L905" s="6">
-        <v>0</v>
+      <c r="G905" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H905" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I905" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J905" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K905" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L905" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M905" s="6">
-        <v>0</v>
+        <v>17.52</v>
       </c>
       <c r="N905" s="6">
         <v>0</v>
@@ -69606,7 +69606,7 @@
         <v>0</v>
       </c>
       <c r="R905" s="4">
-        <v>0</v>
+        <v>17.52</v>
       </c>
       <c r="S905" s="1" t="s">
         <v>519</v>
@@ -69662,7 +69662,7 @@
         <v>0</v>
       </c>
       <c r="M906" s="6">
-        <v>0</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="N906" s="6">
         <v>0</v>
@@ -69677,7 +69677,7 @@
         <v>0</v>
       </c>
       <c r="R906" s="4">
-        <v>0</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="S906" s="1" t="s">
         <v>519</v>
@@ -71489,23 +71489,23 @@
       <c r="F932" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G932" s="7">
-        <v>0</v>
-      </c>
-      <c r="H932" s="6">
-        <v>0</v>
-      </c>
-      <c r="I932" s="6">
-        <v>0</v>
-      </c>
-      <c r="J932" s="6">
-        <v>0</v>
-      </c>
-      <c r="K932" s="6">
-        <v>0</v>
-      </c>
-      <c r="L932" s="6">
-        <v>0</v>
+      <c r="G932" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H932" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I932" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J932" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K932" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L932" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M932" s="6">
         <v>18.75</v>
@@ -71560,26 +71560,26 @@
       <c r="F933" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G933" s="7">
-        <v>0</v>
-      </c>
-      <c r="H933" s="6">
-        <v>0</v>
-      </c>
-      <c r="I933" s="6">
-        <v>0</v>
-      </c>
-      <c r="J933" s="6">
-        <v>0</v>
-      </c>
-      <c r="K933" s="6">
-        <v>0</v>
-      </c>
-      <c r="L933" s="6">
-        <v>0</v>
+      <c r="G933" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H933" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I933" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J933" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K933" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L933" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M933" s="6">
-        <v>0</v>
+        <v>16.73</v>
       </c>
       <c r="N933" s="6">
         <v>0</v>
@@ -71594,7 +71594,7 @@
         <v>0</v>
       </c>
       <c r="R933" s="4">
-        <v>0</v>
+        <v>16.73</v>
       </c>
       <c r="S933" s="1" t="s">
         <v>519</v>
@@ -71702,26 +71702,26 @@
       <c r="F935" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G935" s="7">
-        <v>0</v>
-      </c>
-      <c r="H935" s="6">
-        <v>0</v>
-      </c>
-      <c r="I935" s="6">
-        <v>0</v>
-      </c>
-      <c r="J935" s="6">
-        <v>0</v>
-      </c>
-      <c r="K935" s="6">
-        <v>0</v>
-      </c>
-      <c r="L935" s="6">
-        <v>0</v>
+      <c r="G935" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H935" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I935" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J935" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K935" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L935" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M935" s="6">
-        <v>0</v>
+        <v>18.86</v>
       </c>
       <c r="N935" s="6">
         <v>0</v>
@@ -71736,7 +71736,7 @@
         <v>0</v>
       </c>
       <c r="R935" s="4">
-        <v>0</v>
+        <v>18.86</v>
       </c>
       <c r="S935" s="1" t="s">
         <v>519</v>
@@ -71773,26 +71773,26 @@
       <c r="F936" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G936" s="7">
-        <v>0</v>
-      </c>
-      <c r="H936" s="6">
-        <v>0</v>
-      </c>
-      <c r="I936" s="6">
-        <v>0</v>
-      </c>
-      <c r="J936" s="6">
-        <v>0</v>
-      </c>
-      <c r="K936" s="6">
-        <v>0</v>
-      </c>
-      <c r="L936" s="6">
-        <v>0</v>
+      <c r="G936" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H936" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I936" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J936" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K936" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L936" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M936" s="6">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="N936" s="6">
         <v>0</v>
@@ -71807,7 +71807,7 @@
         <v>0</v>
       </c>
       <c r="R936" s="4">
-        <v>0</v>
+        <v>13.78</v>
       </c>
       <c r="S936" s="1" t="s">
         <v>519</v>
@@ -71863,7 +71863,7 @@
         <v>0</v>
       </c>
       <c r="M937" s="6">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="N937" s="6">
         <v>0</v>
@@ -71878,7 +71878,7 @@
         <v>0</v>
       </c>
       <c r="R937" s="4">
-        <v>0</v>
+        <v>15.7</v>
       </c>
       <c r="S937" s="1" t="s">
         <v>519</v>
@@ -73690,23 +73690,23 @@
       <c r="F963" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G963" s="7">
-        <v>0</v>
-      </c>
-      <c r="H963" s="6">
-        <v>0</v>
-      </c>
-      <c r="I963" s="6">
-        <v>0</v>
-      </c>
-      <c r="J963" s="6">
-        <v>0</v>
-      </c>
-      <c r="K963" s="6">
-        <v>0</v>
-      </c>
-      <c r="L963" s="6">
-        <v>0</v>
+      <c r="G963" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H963" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I963" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J963" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K963" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L963" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M963" s="6">
         <v>16.239999999999998</v>
@@ -73761,26 +73761,26 @@
       <c r="F964" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G964" s="7">
-        <v>0</v>
-      </c>
-      <c r="H964" s="6">
-        <v>0</v>
-      </c>
-      <c r="I964" s="6">
-        <v>0</v>
-      </c>
-      <c r="J964" s="6">
-        <v>0</v>
-      </c>
-      <c r="K964" s="6">
-        <v>0</v>
-      </c>
-      <c r="L964" s="6">
-        <v>0</v>
+      <c r="G964" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H964" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I964" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J964" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K964" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L964" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M964" s="6">
-        <v>0</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="N964" s="6">
         <v>0</v>
@@ -73795,7 +73795,7 @@
         <v>0</v>
       </c>
       <c r="R964" s="4">
-        <v>0</v>
+        <v>18.559999999999999</v>
       </c>
       <c r="S964" s="1" t="s">
         <v>519</v>
@@ -73903,26 +73903,26 @@
       <c r="F966" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G966" s="7">
-        <v>0</v>
-      </c>
-      <c r="H966" s="6">
-        <v>0</v>
-      </c>
-      <c r="I966" s="6">
-        <v>0</v>
-      </c>
-      <c r="J966" s="6">
-        <v>0</v>
-      </c>
-      <c r="K966" s="6">
-        <v>0</v>
-      </c>
-      <c r="L966" s="6">
-        <v>0</v>
+      <c r="G966" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H966" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I966" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J966" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K966" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L966" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M966" s="6">
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="N966" s="6">
         <v>0</v>
@@ -73937,7 +73937,7 @@
         <v>0</v>
       </c>
       <c r="R966" s="4">
-        <v>0</v>
+        <v>10.87</v>
       </c>
       <c r="S966" s="1" t="s">
         <v>519</v>
@@ -73974,26 +73974,26 @@
       <c r="F967" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G967" s="7">
-        <v>0</v>
-      </c>
-      <c r="H967" s="6">
-        <v>0</v>
-      </c>
-      <c r="I967" s="6">
-        <v>0</v>
-      </c>
-      <c r="J967" s="6">
-        <v>0</v>
-      </c>
-      <c r="K967" s="6">
-        <v>0</v>
-      </c>
-      <c r="L967" s="6">
-        <v>0</v>
+      <c r="G967" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H967" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I967" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J967" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K967" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L967" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M967" s="6">
-        <v>0</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="N967" s="6">
         <v>0</v>
@@ -74008,7 +74008,7 @@
         <v>0</v>
       </c>
       <c r="R967" s="4">
-        <v>0</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="S967" s="1" t="s">
         <v>519</v>
@@ -74064,7 +74064,7 @@
         <v>0</v>
       </c>
       <c r="M968" s="6">
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="N968" s="6">
         <v>0</v>
@@ -74079,7 +74079,7 @@
         <v>0</v>
       </c>
       <c r="R968" s="4">
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="S968" s="1" t="s">
         <v>519</v>
@@ -75891,23 +75891,23 @@
       <c r="F994" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G994" s="7">
-        <v>0</v>
-      </c>
-      <c r="H994" s="6">
-        <v>0</v>
-      </c>
-      <c r="I994" s="6">
-        <v>0</v>
-      </c>
-      <c r="J994" s="6">
-        <v>0</v>
-      </c>
-      <c r="K994" s="6">
-        <v>0</v>
-      </c>
-      <c r="L994" s="6">
-        <v>0</v>
+      <c r="G994" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H994" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I994" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J994" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K994" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L994" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M994" s="6">
         <v>24.71</v>
@@ -75962,26 +75962,26 @@
       <c r="F995" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G995" s="7">
-        <v>0</v>
-      </c>
-      <c r="H995" s="6">
-        <v>0</v>
-      </c>
-      <c r="I995" s="6">
-        <v>0</v>
-      </c>
-      <c r="J995" s="6">
-        <v>0</v>
-      </c>
-      <c r="K995" s="6">
-        <v>0</v>
-      </c>
-      <c r="L995" s="6">
-        <v>0</v>
+      <c r="G995" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H995" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I995" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J995" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K995" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L995" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M995" s="6">
-        <v>0</v>
+        <v>22.18</v>
       </c>
       <c r="N995" s="6">
         <v>0</v>
@@ -75996,7 +75996,7 @@
         <v>0</v>
       </c>
       <c r="R995" s="4">
-        <v>0</v>
+        <v>22.18</v>
       </c>
       <c r="S995" s="1" t="s">
         <v>519</v>
@@ -76104,26 +76104,26 @@
       <c r="F997" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G997" s="7">
-        <v>0</v>
-      </c>
-      <c r="H997" s="6">
-        <v>0</v>
-      </c>
-      <c r="I997" s="6">
-        <v>0</v>
-      </c>
-      <c r="J997" s="6">
-        <v>0</v>
-      </c>
-      <c r="K997" s="6">
-        <v>0</v>
-      </c>
-      <c r="L997" s="6">
-        <v>0</v>
+      <c r="G997" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H997" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I997" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J997" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K997" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L997" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M997" s="6">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="N997" s="6">
         <v>0</v>
@@ -76138,7 +76138,7 @@
         <v>0</v>
       </c>
       <c r="R997" s="4">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="S997" s="1" t="s">
         <v>519</v>
@@ -76175,26 +76175,26 @@
       <c r="F998" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G998" s="7">
-        <v>0</v>
-      </c>
-      <c r="H998" s="6">
-        <v>0</v>
-      </c>
-      <c r="I998" s="6">
-        <v>0</v>
-      </c>
-      <c r="J998" s="6">
-        <v>0</v>
-      </c>
-      <c r="K998" s="6">
-        <v>0</v>
-      </c>
-      <c r="L998" s="6">
-        <v>0</v>
+      <c r="G998" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H998" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I998" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J998" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K998" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L998" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M998" s="6">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="N998" s="6">
         <v>0</v>
@@ -76209,7 +76209,7 @@
         <v>0</v>
       </c>
       <c r="R998" s="4">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="S998" s="1" t="s">
         <v>519</v>
@@ -76265,7 +76265,7 @@
         <v>0</v>
       </c>
       <c r="M999" s="6">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="N999" s="6">
         <v>0</v>
@@ -76280,7 +76280,7 @@
         <v>0</v>
       </c>
       <c r="R999" s="4">
-        <v>0</v>
+        <v>22.72</v>
       </c>
       <c r="S999" s="1" t="s">
         <v>519</v>
@@ -78092,23 +78092,23 @@
       <c r="F1025" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1025" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1025" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1025" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1025" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1025" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1025" s="6">
-        <v>0</v>
+      <c r="G1025" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1025" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1025" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1025" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1025" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1025" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1025" s="6">
         <v>0</v>
@@ -78163,23 +78163,23 @@
       <c r="F1026" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1026" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1026" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1026" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1026" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1026" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1026" s="6">
-        <v>0</v>
+      <c r="G1026" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1026" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1026" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1026" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1026" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1026" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1026" s="6">
         <v>0</v>
@@ -78305,23 +78305,23 @@
       <c r="F1028" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1028" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1028" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1028" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1028" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1028" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1028" s="6">
-        <v>0</v>
+      <c r="G1028" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1028" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1028" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1028" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1028" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1028" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1028" s="6">
         <v>0</v>
@@ -78376,23 +78376,23 @@
       <c r="F1029" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1029" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1029" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1029" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1029" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1029" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1029" s="6">
-        <v>0</v>
+      <c r="G1029" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1029" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1029" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1029" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1029" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1029" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1029" s="6">
         <v>0</v>
@@ -80293,23 +80293,23 @@
       <c r="F1056" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1056" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1056" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1056" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1056" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1056" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1056" s="6">
-        <v>0</v>
+      <c r="G1056" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1056" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1056" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1056" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1056" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1056" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1056" s="6">
         <v>16.739999999999998</v>
@@ -80364,26 +80364,26 @@
       <c r="F1057" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1057" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1057" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1057" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1057" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1057" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1057" s="6">
-        <v>0</v>
+      <c r="G1057" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1057" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1057" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1057" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1057" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1057" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1057" s="6">
-        <v>0</v>
+        <v>10.18</v>
       </c>
       <c r="N1057" s="6">
         <v>0</v>
@@ -80398,7 +80398,7 @@
         <v>0</v>
       </c>
       <c r="R1057" s="4">
-        <v>0</v>
+        <v>10.18</v>
       </c>
       <c r="S1057" s="1" t="s">
         <v>519</v>
@@ -80506,26 +80506,26 @@
       <c r="F1059" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1059" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1059" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1059" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1059" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1059" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1059" s="6">
-        <v>0</v>
+      <c r="G1059" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1059" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1059" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1059" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1059" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1059" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1059" s="6">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="N1059" s="6">
         <v>0</v>
@@ -80540,7 +80540,7 @@
         <v>0</v>
       </c>
       <c r="R1059" s="4">
-        <v>0</v>
+        <v>23.11</v>
       </c>
       <c r="S1059" s="1" t="s">
         <v>519</v>
@@ -80577,26 +80577,26 @@
       <c r="F1060" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1060" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1060" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1060" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1060" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1060" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1060" s="6">
-        <v>0</v>
+      <c r="G1060" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1060" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1060" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1060" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1060" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1060" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1060" s="6">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N1060" s="6">
         <v>0</v>
@@ -80611,7 +80611,7 @@
         <v>0</v>
       </c>
       <c r="R1060" s="4">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="S1060" s="1" t="s">
         <v>519</v>
@@ -80667,7 +80667,7 @@
         <v>0</v>
       </c>
       <c r="M1061" s="6">
-        <v>0</v>
+        <v>17.47</v>
       </c>
       <c r="N1061" s="6">
         <v>0</v>
@@ -80682,7 +80682,7 @@
         <v>0</v>
       </c>
       <c r="R1061" s="4">
-        <v>0</v>
+        <v>17.47</v>
       </c>
       <c r="S1061" s="1" t="s">
         <v>519</v>
@@ -82494,23 +82494,23 @@
       <c r="F1087" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1087" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1087" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1087" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1087" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1087" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1087" s="6">
-        <v>0</v>
+      <c r="G1087" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1087" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1087" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1087" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1087" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1087" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1087" s="6">
         <v>16.940000000000001</v>
@@ -82565,26 +82565,26 @@
       <c r="F1088" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1088" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1088" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1088" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1088" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1088" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1088" s="6">
-        <v>0</v>
+      <c r="G1088" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1088" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1088" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1088" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1088" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1088" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1088" s="6">
-        <v>0</v>
+        <v>17.89</v>
       </c>
       <c r="N1088" s="6">
         <v>0</v>
@@ -82599,7 +82599,7 @@
         <v>0</v>
       </c>
       <c r="R1088" s="4">
-        <v>0</v>
+        <v>17.89</v>
       </c>
       <c r="S1088" s="1" t="s">
         <v>519</v>
@@ -82707,26 +82707,26 @@
       <c r="F1090" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1090" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1090" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1090" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1090" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1090" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1090" s="6">
-        <v>0</v>
+      <c r="G1090" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1090" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1090" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1090" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1090" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1090" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1090" s="6">
-        <v>0</v>
+        <v>15.64</v>
       </c>
       <c r="N1090" s="6">
         <v>0</v>
@@ -82741,7 +82741,7 @@
         <v>0</v>
       </c>
       <c r="R1090" s="4">
-        <v>0</v>
+        <v>15.64</v>
       </c>
       <c r="S1090" s="1" t="s">
         <v>519</v>
@@ -82778,26 +82778,26 @@
       <c r="F1091" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1091" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1091" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1091" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1091" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1091" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1091" s="6">
-        <v>0</v>
+      <c r="G1091" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1091" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1091" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1091" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1091" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1091" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1091" s="6">
-        <v>0</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="N1091" s="6">
         <v>0</v>
@@ -82812,7 +82812,7 @@
         <v>0</v>
       </c>
       <c r="R1091" s="4">
-        <v>0</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="S1091" s="1" t="s">
         <v>519</v>
@@ -82868,7 +82868,7 @@
         <v>0</v>
       </c>
       <c r="M1092" s="6">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="N1092" s="6">
         <v>0</v>
@@ -82883,7 +82883,7 @@
         <v>0</v>
       </c>
       <c r="R1092" s="4">
-        <v>0</v>
+        <v>18.03</v>
       </c>
       <c r="S1092" s="1" t="s">
         <v>519</v>
@@ -84695,23 +84695,23 @@
       <c r="F1118" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1118" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1118" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1118" s="6">
-        <v>0</v>
+      <c r="G1118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1118" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1118" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1118" s="6">
         <v>18.7</v>
@@ -84766,26 +84766,26 @@
       <c r="F1119" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1119" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1119" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1119" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1119" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1119" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1119" s="6">
-        <v>0</v>
+      <c r="G1119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1119" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1119" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1119" s="6">
-        <v>0</v>
+        <v>21.83</v>
       </c>
       <c r="N1119" s="6">
         <v>0</v>
@@ -84800,7 +84800,7 @@
         <v>0</v>
       </c>
       <c r="R1119" s="4">
-        <v>0</v>
+        <v>21.83</v>
       </c>
       <c r="S1119" s="1" t="s">
         <v>519</v>
@@ -84908,26 +84908,26 @@
       <c r="F1121" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1121" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1121" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1121" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1121" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1121" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1121" s="6">
-        <v>0</v>
+      <c r="G1121" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1121" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1121" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1121" s="6">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="N1121" s="6">
         <v>0</v>
@@ -84942,7 +84942,7 @@
         <v>0</v>
       </c>
       <c r="R1121" s="4">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="S1121" s="1" t="s">
         <v>519</v>
@@ -84979,26 +84979,26 @@
       <c r="F1122" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1122" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1122" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1122" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1122" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1122" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1122" s="6">
-        <v>0</v>
+      <c r="G1122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1122" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1122" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1122" s="6">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="N1122" s="6">
         <v>0</v>
@@ -85013,7 +85013,7 @@
         <v>0</v>
       </c>
       <c r="R1122" s="4">
-        <v>0</v>
+        <v>16.55</v>
       </c>
       <c r="S1122" s="1" t="s">
         <v>519</v>
@@ -85069,7 +85069,7 @@
         <v>0</v>
       </c>
       <c r="M1123" s="6">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="N1123" s="6">
         <v>0</v>
@@ -85084,7 +85084,7 @@
         <v>0</v>
       </c>
       <c r="R1123" s="4">
-        <v>0</v>
+        <v>21.2</v>
       </c>
       <c r="S1123" s="1" t="s">
         <v>519</v>
@@ -86832,7 +86832,7 @@
         <v>2</v>
       </c>
       <c r="I1148" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1148" s="6" t="s">
         <v>33</v>
@@ -86859,7 +86859,7 @@
         <v>33</v>
       </c>
       <c r="R1148" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1148" s="1" t="s">
         <v>756</v>
@@ -86896,17 +86896,17 @@
       <c r="F1149" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1149" s="7">
-        <v>0</v>
+      <c r="G1149" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1149" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1149" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1149" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1149" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1149" s="6">
         <v>0</v>
@@ -86921,16 +86921,16 @@
         <v>0</v>
       </c>
       <c r="O1149" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1149" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1149" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1149" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1149" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1149" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1149" s="1" t="s">
         <v>756</v>
@@ -86967,17 +86967,17 @@
       <c r="F1150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1150" s="7">
-        <v>0</v>
+      <c r="G1150" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1150" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1150" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1150" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1150" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1150" s="6">
         <v>0</v>
@@ -86992,16 +86992,16 @@
         <v>0</v>
       </c>
       <c r="O1150" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1150" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1150" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1150" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1150" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1150" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1150" s="1" t="s">
         <v>756</v>
@@ -87109,17 +87109,17 @@
       <c r="F1152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1152" s="7">
-        <v>0</v>
+      <c r="G1152" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1152" s="6">
         <v>0</v>
       </c>
       <c r="I1152" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1152" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1152" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1152" s="6">
         <v>0</v>
@@ -87134,16 +87134,16 @@
         <v>0</v>
       </c>
       <c r="O1152" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1152" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1152" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1152" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1152" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1152" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1152" s="1" t="s">
         <v>756</v>
@@ -87180,17 +87180,17 @@
       <c r="F1153" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1153" s="7">
-        <v>0</v>
+      <c r="G1153" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1153" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1153" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1153" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1153" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1153" s="6">
         <v>0</v>
@@ -87205,16 +87205,16 @@
         <v>0</v>
       </c>
       <c r="O1153" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1153" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1153" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1153" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1153" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1153" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1153" s="1" t="s">
         <v>756</v>
@@ -89057,10 +89057,10 @@
         <v>33</v>
       </c>
       <c r="Q1179" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1179" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1179" s="1" t="s">
         <v>756</v>
@@ -89097,17 +89097,17 @@
       <c r="F1180" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1180" s="7">
-        <v>0</v>
+      <c r="G1180" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1180" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1180" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1180" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1180" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1180" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1180" s="6">
         <v>0</v>
@@ -89122,16 +89122,16 @@
         <v>0</v>
       </c>
       <c r="O1180" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1180" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1180" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1180" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1180" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1180" s="1" t="s">
         <v>756</v>
@@ -89168,17 +89168,17 @@
       <c r="F1181" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1181" s="7">
-        <v>0</v>
+      <c r="G1181" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1181" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1181" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1181" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1181" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1181" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1181" s="6">
         <v>0</v>
@@ -89193,16 +89193,16 @@
         <v>0</v>
       </c>
       <c r="O1181" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1181" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1181" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1181" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1181" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1181" s="1" t="s">
         <v>756</v>
@@ -89310,17 +89310,17 @@
       <c r="F1183" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1183" s="7">
-        <v>0</v>
+      <c r="G1183" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1183" s="6">
         <v>0</v>
       </c>
-      <c r="I1183" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1183" s="6">
-        <v>0</v>
+      <c r="I1183" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1183" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1183" s="6">
         <v>0</v>
@@ -89335,16 +89335,16 @@
         <v>0</v>
       </c>
       <c r="O1183" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1183" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1183" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1183" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1183" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1183" s="1" t="s">
         <v>756</v>
@@ -89381,17 +89381,17 @@
       <c r="F1184" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1184" s="7">
-        <v>0</v>
+      <c r="G1184" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1184" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1184" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1184" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1184" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1184" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1184" s="6">
         <v>0</v>
@@ -89406,16 +89406,16 @@
         <v>0</v>
       </c>
       <c r="O1184" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1184" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1184" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1184" s="6">
         <v>0</v>
       </c>
       <c r="R1184" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1184" s="1" t="s">
         <v>756</v>
@@ -93385,13 +93385,13 @@
         <v>0</v>
       </c>
       <c r="P1240" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q1240" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R1240" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1240" s="1" t="s">
         <v>756</v>
@@ -93456,13 +93456,13 @@
         <v>2</v>
       </c>
       <c r="P1241" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q1241" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R1241" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1241" s="1" t="s">
         <v>756</v>
@@ -93499,17 +93499,17 @@
       <c r="F1242" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1242" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1242" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1242" s="6">
-        <v>0</v>
+      <c r="G1242" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1242" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1242" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1242" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1242" s="6">
         <v>0</v>
@@ -93524,16 +93524,16 @@
         <v>0</v>
       </c>
       <c r="O1242" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1242" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1242" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1242" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1242" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1242" s="1" t="s">
         <v>756</v>
@@ -93570,17 +93570,17 @@
       <c r="F1243" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1243" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1243" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1243" s="6">
-        <v>0</v>
+      <c r="G1243" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1243" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1243" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1243" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1243" s="6">
         <v>0</v>
@@ -93595,16 +93595,16 @@
         <v>0</v>
       </c>
       <c r="O1243" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1243" s="6">
         <v>0</v>
       </c>
-      <c r="Q1243" s="6">
-        <v>0</v>
+      <c r="Q1243" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1243" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1243" s="1" t="s">
         <v>756</v>
@@ -93712,17 +93712,17 @@
       <c r="F1245" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1245" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1245" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1245" s="6">
-        <v>0</v>
+      <c r="G1245" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1245" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1245" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1245" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1245" s="6">
         <v>0</v>
@@ -93737,16 +93737,16 @@
         <v>0</v>
       </c>
       <c r="O1245" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1245" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1245" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1245" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1245" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1245" s="1" t="s">
         <v>756</v>
@@ -93783,17 +93783,17 @@
       <c r="F1246" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1246" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1246" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1246" s="6">
-        <v>0</v>
+      <c r="G1246" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1246" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1246" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1246" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1246" s="6">
         <v>0</v>
@@ -93808,16 +93808,16 @@
         <v>0</v>
       </c>
       <c r="O1246" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1246" s="6">
         <v>0</v>
       </c>
-      <c r="Q1246" s="6">
-        <v>0</v>
+      <c r="Q1246" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1246" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1246" s="1" t="s">
         <v>756</v>
@@ -95586,13 +95586,13 @@
         <v>0</v>
       </c>
       <c r="P1271" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q1271" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R1271" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S1271" s="1" t="s">
         <v>756</v>
@@ -95657,13 +95657,13 @@
         <v>2</v>
       </c>
       <c r="P1272" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q1272" s="6" t="s">
         <v>33</v>
       </c>
       <c r="R1272" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1272" s="1" t="s">
         <v>756</v>
@@ -95700,17 +95700,17 @@
       <c r="F1273" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1273" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1273" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1273" s="6">
-        <v>0</v>
+      <c r="G1273" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1273" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1273" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1273" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1273" s="6">
         <v>0</v>
@@ -95725,16 +95725,16 @@
         <v>0</v>
       </c>
       <c r="O1273" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1273" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1273" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1273" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1273" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1273" s="1" t="s">
         <v>756</v>
@@ -95771,17 +95771,17 @@
       <c r="F1274" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1274" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1274" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1274" s="6">
-        <v>0</v>
+      <c r="G1274" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1274" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1274" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1274" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1274" s="6">
         <v>0</v>
@@ -95796,16 +95796,16 @@
         <v>0</v>
       </c>
       <c r="O1274" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1274" s="6">
         <v>0</v>
       </c>
-      <c r="Q1274" s="6">
-        <v>0</v>
+      <c r="Q1274" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1274" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1274" s="1" t="s">
         <v>756</v>
@@ -95913,17 +95913,17 @@
       <c r="F1276" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1276" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1276" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1276" s="6">
-        <v>0</v>
+      <c r="G1276" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1276" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1276" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1276" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1276" s="6">
         <v>0</v>
@@ -95938,16 +95938,16 @@
         <v>0</v>
       </c>
       <c r="O1276" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1276" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1276" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1276" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1276" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1276" s="1" t="s">
         <v>756</v>
@@ -95984,17 +95984,17 @@
       <c r="F1277" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1277" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1277" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1277" s="6">
-        <v>0</v>
+      <c r="G1277" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1277" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1277" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1277" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1277" s="6">
         <v>0</v>
@@ -96009,16 +96009,16 @@
         <v>0</v>
       </c>
       <c r="O1277" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1277" s="6">
         <v>0</v>
       </c>
-      <c r="Q1277" s="6">
-        <v>0</v>
+      <c r="Q1277" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1277" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1277" s="1" t="s">
         <v>756</v>
@@ -97861,10 +97861,10 @@
         <v>33</v>
       </c>
       <c r="Q1303" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1303" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1303" s="1" t="s">
         <v>756</v>
@@ -97901,17 +97901,17 @@
       <c r="F1304" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1304" s="7">
-        <v>0</v>
+      <c r="G1304" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1304" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1304" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1304" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1304" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1304" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1304" s="6">
         <v>0</v>
@@ -97926,16 +97926,16 @@
         <v>0</v>
       </c>
       <c r="O1304" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1304" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1304" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1304" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1304" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1304" s="1" t="s">
         <v>756</v>
@@ -97972,17 +97972,17 @@
       <c r="F1305" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1305" s="7">
-        <v>0</v>
+      <c r="G1305" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1305" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1305" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1305" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1305" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1305" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1305" s="6">
         <v>0</v>
@@ -97997,16 +97997,16 @@
         <v>0</v>
       </c>
       <c r="O1305" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1305" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1305" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1305" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1305" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1305" s="1" t="s">
         <v>756</v>
@@ -98114,17 +98114,17 @@
       <c r="F1307" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1307" s="7">
-        <v>0</v>
+      <c r="G1307" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1307" s="6">
         <v>0</v>
       </c>
-      <c r="I1307" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1307" s="6">
-        <v>0</v>
+      <c r="I1307" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1307" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1307" s="6">
         <v>0</v>
@@ -98139,16 +98139,16 @@
         <v>0</v>
       </c>
       <c r="O1307" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1307" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1307" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1307" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1307" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1307" s="1" t="s">
         <v>756</v>
@@ -98185,17 +98185,17 @@
       <c r="F1308" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1308" s="7">
-        <v>0</v>
+      <c r="G1308" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1308" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1308" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1308" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1308" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1308" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1308" s="6">
         <v>0</v>
@@ -98210,16 +98210,16 @@
         <v>0</v>
       </c>
       <c r="O1308" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1308" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1308" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1308" s="6">
         <v>0</v>
       </c>
       <c r="R1308" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1308" s="1" t="s">
         <v>756</v>
@@ -100038,7 +100038,7 @@
         <v>2</v>
       </c>
       <c r="I1334" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J1334" s="6" t="s">
         <v>33</v>
@@ -100065,7 +100065,7 @@
         <v>33</v>
       </c>
       <c r="R1334" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1334" s="1" t="s">
         <v>756</v>
@@ -100102,17 +100102,17 @@
       <c r="F1335" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1335" s="7">
-        <v>0</v>
+      <c r="G1335" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1335" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1335" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1335" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1335" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1335" s="6">
         <v>0</v>
@@ -100127,16 +100127,16 @@
         <v>0</v>
       </c>
       <c r="O1335" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1335" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1335" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1335" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1335" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1335" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1335" s="1" t="s">
         <v>756</v>
@@ -100173,17 +100173,17 @@
       <c r="F1336" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1336" s="7">
-        <v>0</v>
+      <c r="G1336" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1336" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1336" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1336" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1336" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1336" s="6">
         <v>0</v>
@@ -100198,16 +100198,16 @@
         <v>0</v>
       </c>
       <c r="O1336" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1336" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1336" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1336" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1336" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1336" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1336" s="1" t="s">
         <v>756</v>
@@ -100315,17 +100315,17 @@
       <c r="F1338" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1338" s="7">
-        <v>0</v>
+      <c r="G1338" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1338" s="6">
         <v>0</v>
       </c>
       <c r="I1338" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1338" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1338" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1338" s="6">
         <v>0</v>
@@ -100340,16 +100340,16 @@
         <v>0</v>
       </c>
       <c r="O1338" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1338" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1338" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1338" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1338" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1338" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1338" s="1" t="s">
         <v>756</v>
@@ -100386,17 +100386,17 @@
       <c r="F1339" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1339" s="7">
-        <v>0</v>
+      <c r="G1339" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1339" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1339" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1339" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1339" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1339" s="6">
         <v>0</v>
@@ -100411,16 +100411,16 @@
         <v>0</v>
       </c>
       <c r="O1339" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1339" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1339" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1339" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1339" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1339" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1339" s="1" t="s">
         <v>756</v>

--- a/04. Farol.xlsx
+++ b/04. Farol.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jefferson.araujo\Downloads\bot_telegram_webhook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BEC6A8-0E79-4AF3-B3CB-BD5BCD676DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC35D7-37C8-4D28-A9DC-D1168F760EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0594B627-261B-49DD-877B-E559C01B3B93}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12897" uniqueCount="1418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13305" uniqueCount="1418">
   <si>
     <t>C</t>
   </si>
@@ -4681,7 +4681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0DB9DD-757A-4456-AE79-B218C28D70D1}">
   <dimension ref="A1:AH1343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A651" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A657" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A662" sqref="A662:R1343"/>
     </sheetView>
   </sheetViews>
@@ -54098,10 +54098,10 @@
         <v>8</v>
       </c>
       <c r="H687" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I687" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J687" s="6" t="s">
         <v>33</v>
@@ -54128,7 +54128,7 @@
         <v>0</v>
       </c>
       <c r="R687" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S687" s="1" t="s">
         <v>519</v>
@@ -54236,23 +54236,23 @@
       <c r="F689" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G689" s="7">
-        <v>0</v>
+      <c r="G689" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H689" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I689" s="6">
-        <v>0</v>
-      </c>
-      <c r="J689" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J689" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K689" s="6">
-        <v>0</v>
-      </c>
-      <c r="L689" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L689" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M689" s="6">
         <v>0</v>
@@ -54270,7 +54270,7 @@
         <v>0</v>
       </c>
       <c r="R689" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S689" s="1" t="s">
         <v>519</v>
@@ -54307,23 +54307,23 @@
       <c r="F690" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G690" s="7">
-        <v>0</v>
+      <c r="G690" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H690" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I690" s="6">
-        <v>0</v>
-      </c>
-      <c r="J690" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J690" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K690" s="6">
-        <v>0</v>
-      </c>
-      <c r="L690" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L690" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M690" s="6">
         <v>0</v>
@@ -54341,7 +54341,7 @@
         <v>0</v>
       </c>
       <c r="R690" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S690" s="1" t="s">
         <v>519</v>
@@ -54378,8 +54378,8 @@
       <c r="F691" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G691" s="7">
-        <v>0</v>
+      <c r="G691" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H691" s="6">
         <v>0</v>
@@ -54387,14 +54387,14 @@
       <c r="I691" s="6">
         <v>0</v>
       </c>
-      <c r="J691" s="6">
-        <v>0</v>
+      <c r="J691" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K691" s="6">
-        <v>0</v>
-      </c>
-      <c r="L691" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L691" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M691" s="6">
         <v>0</v>
@@ -54412,7 +54412,7 @@
         <v>0</v>
       </c>
       <c r="R691" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S691" s="1" t="s">
         <v>519</v>
@@ -54449,23 +54449,23 @@
       <c r="F692" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G692" s="7">
-        <v>0</v>
+      <c r="G692" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H692" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I692" s="6">
-        <v>0</v>
-      </c>
-      <c r="J692" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J692" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K692" s="6">
-        <v>0</v>
-      </c>
-      <c r="L692" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L692" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M692" s="6">
         <v>0</v>
@@ -54483,7 +54483,7 @@
         <v>0</v>
       </c>
       <c r="R692" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S692" s="1" t="s">
         <v>519</v>
@@ -56299,10 +56299,10 @@
         <v>8</v>
       </c>
       <c r="H718" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I718" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="J718" s="6" t="s">
         <v>33</v>
@@ -56329,7 +56329,7 @@
         <v>0</v>
       </c>
       <c r="R718" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S718" s="1" t="s">
         <v>519</v>
@@ -56437,23 +56437,23 @@
       <c r="F720" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G720" s="7">
-        <v>0</v>
+      <c r="G720" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H720" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I720" s="6">
-        <v>0</v>
-      </c>
-      <c r="J720" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J720" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K720" s="6">
-        <v>0</v>
-      </c>
-      <c r="L720" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L720" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M720" s="6">
         <v>0</v>
@@ -56471,7 +56471,7 @@
         <v>0</v>
       </c>
       <c r="R720" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S720" s="1" t="s">
         <v>519</v>
@@ -56508,23 +56508,23 @@
       <c r="F721" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G721" s="7">
-        <v>0</v>
+      <c r="G721" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H721" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I721" s="6">
-        <v>0</v>
-      </c>
-      <c r="J721" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J721" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K721" s="6">
-        <v>0</v>
-      </c>
-      <c r="L721" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L721" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M721" s="6">
         <v>0</v>
@@ -56542,7 +56542,7 @@
         <v>0</v>
       </c>
       <c r="R721" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S721" s="1" t="s">
         <v>519</v>
@@ -56579,8 +56579,8 @@
       <c r="F722" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G722" s="7">
-        <v>0</v>
+      <c r="G722" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H722" s="6">
         <v>0</v>
@@ -56588,14 +56588,14 @@
       <c r="I722" s="6">
         <v>0</v>
       </c>
-      <c r="J722" s="6">
-        <v>0</v>
+      <c r="J722" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K722" s="6">
-        <v>0</v>
-      </c>
-      <c r="L722" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L722" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M722" s="6">
         <v>0</v>
@@ -56613,7 +56613,7 @@
         <v>0</v>
       </c>
       <c r="R722" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S722" s="1" t="s">
         <v>519</v>
@@ -56650,23 +56650,23 @@
       <c r="F723" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G723" s="7">
-        <v>0</v>
+      <c r="G723" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H723" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I723" s="6">
-        <v>0</v>
-      </c>
-      <c r="J723" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="J723" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K723" s="6">
-        <v>0</v>
-      </c>
-      <c r="L723" s="6">
-        <v>0</v>
+        <v>4.8</v>
+      </c>
+      <c r="L723" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M723" s="6">
         <v>0</v>
@@ -56684,7 +56684,7 @@
         <v>0</v>
       </c>
       <c r="R723" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S723" s="1" t="s">
         <v>519</v>
@@ -58500,13 +58500,13 @@
         <v>8</v>
       </c>
       <c r="H749" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I749" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J749" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K749" s="6" t="s">
         <v>33</v>
@@ -58530,7 +58530,7 @@
         <v>0</v>
       </c>
       <c r="R749" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S749" s="1" t="s">
         <v>519</v>
@@ -58638,23 +58638,23 @@
       <c r="F751" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G751" s="7">
-        <v>0</v>
+      <c r="G751" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H751" s="6">
-        <v>0</v>
-      </c>
-      <c r="I751" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I751" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J751" s="6">
-        <v>0</v>
-      </c>
-      <c r="K751" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K751" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L751" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M751" s="6">
         <v>0</v>
@@ -58672,7 +58672,7 @@
         <v>0</v>
       </c>
       <c r="R751" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S751" s="1" t="s">
         <v>519</v>
@@ -58709,23 +58709,23 @@
       <c r="F752" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G752" s="7">
-        <v>0</v>
+      <c r="G752" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H752" s="6">
-        <v>0</v>
-      </c>
-      <c r="I752" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I752" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J752" s="6">
-        <v>0</v>
-      </c>
-      <c r="K752" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K752" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L752" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M752" s="6">
         <v>0</v>
@@ -58743,7 +58743,7 @@
         <v>0</v>
       </c>
       <c r="R752" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S752" s="1" t="s">
         <v>519</v>
@@ -58780,23 +58780,23 @@
       <c r="F753" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G753" s="7">
-        <v>0</v>
+      <c r="G753" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H753" s="6">
         <v>0</v>
       </c>
-      <c r="I753" s="6">
-        <v>0</v>
+      <c r="I753" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J753" s="6">
         <v>0</v>
       </c>
-      <c r="K753" s="6">
-        <v>0</v>
+      <c r="K753" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L753" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M753" s="6">
         <v>0</v>
@@ -58814,7 +58814,7 @@
         <v>0</v>
       </c>
       <c r="R753" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S753" s="1" t="s">
         <v>519</v>
@@ -58851,23 +58851,23 @@
       <c r="F754" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G754" s="7">
-        <v>0</v>
+      <c r="G754" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H754" s="6">
-        <v>0</v>
-      </c>
-      <c r="I754" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I754" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J754" s="6">
-        <v>0</v>
-      </c>
-      <c r="K754" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K754" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L754" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M754" s="6">
         <v>0</v>
@@ -58885,7 +58885,7 @@
         <v>0</v>
       </c>
       <c r="R754" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S754" s="1" t="s">
         <v>519</v>
@@ -60839,23 +60839,23 @@
       <c r="F782" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G782" s="7">
-        <v>0</v>
-      </c>
-      <c r="H782" s="6">
-        <v>0</v>
-      </c>
-      <c r="I782" s="6">
-        <v>0</v>
-      </c>
-      <c r="J782" s="6">
-        <v>0</v>
-      </c>
-      <c r="K782" s="6">
-        <v>0</v>
-      </c>
-      <c r="L782" s="6">
-        <v>0</v>
+      <c r="G782" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H782" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I782" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J782" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K782" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L782" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M782" s="6">
         <v>18.61</v>
@@ -60910,26 +60910,26 @@
       <c r="F783" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G783" s="7">
-        <v>0</v>
-      </c>
-      <c r="H783" s="6">
-        <v>0</v>
-      </c>
-      <c r="I783" s="6">
-        <v>0</v>
-      </c>
-      <c r="J783" s="6">
-        <v>0</v>
-      </c>
-      <c r="K783" s="6">
-        <v>0</v>
-      </c>
-      <c r="L783" s="6">
-        <v>0</v>
+      <c r="G783" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K783" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L783" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M783" s="6">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="N783" s="6">
         <v>0</v>
@@ -60944,7 +60944,7 @@
         <v>0</v>
       </c>
       <c r="R783" s="4">
-        <v>0</v>
+        <v>11.52</v>
       </c>
       <c r="S783" s="1" t="s">
         <v>519</v>
@@ -60981,26 +60981,26 @@
       <c r="F784" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G784" s="7">
-        <v>0</v>
-      </c>
-      <c r="H784" s="6">
-        <v>0</v>
-      </c>
-      <c r="I784" s="6">
-        <v>0</v>
-      </c>
-      <c r="J784" s="6">
-        <v>0</v>
-      </c>
-      <c r="K784" s="6">
-        <v>0</v>
-      </c>
-      <c r="L784" s="6">
-        <v>0</v>
+      <c r="G784" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H784" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I784" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J784" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K784" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L784" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M784" s="6">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="N784" s="6">
         <v>0</v>
@@ -61015,7 +61015,7 @@
         <v>0</v>
       </c>
       <c r="R784" s="4">
-        <v>0</v>
+        <v>15.22</v>
       </c>
       <c r="S784" s="1" t="s">
         <v>519</v>
@@ -61052,26 +61052,26 @@
       <c r="F785" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G785" s="7">
-        <v>0</v>
-      </c>
-      <c r="H785" s="6">
-        <v>0</v>
-      </c>
-      <c r="I785" s="6">
-        <v>0</v>
-      </c>
-      <c r="J785" s="6">
-        <v>0</v>
-      </c>
-      <c r="K785" s="6">
-        <v>0</v>
-      </c>
-      <c r="L785" s="6">
-        <v>0</v>
+      <c r="G785" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H785" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I785" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J785" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K785" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L785" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M785" s="6">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="N785" s="6">
         <v>0</v>
@@ -61086,7 +61086,7 @@
         <v>0</v>
       </c>
       <c r="R785" s="4">
-        <v>0</v>
+        <v>16.2</v>
       </c>
       <c r="S785" s="1" t="s">
         <v>519</v>
@@ -63040,23 +63040,23 @@
       <c r="F813" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G813" s="7">
-        <v>0</v>
-      </c>
-      <c r="H813" s="6">
-        <v>0</v>
-      </c>
-      <c r="I813" s="6">
-        <v>0</v>
-      </c>
-      <c r="J813" s="6">
-        <v>0</v>
-      </c>
-      <c r="K813" s="6">
-        <v>0</v>
-      </c>
-      <c r="L813" s="6">
-        <v>0</v>
+      <c r="G813" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H813" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I813" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J813" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K813" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L813" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M813" s="6">
         <v>19.02</v>
@@ -63111,26 +63111,26 @@
       <c r="F814" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G814" s="7">
-        <v>0</v>
-      </c>
-      <c r="H814" s="6">
-        <v>0</v>
-      </c>
-      <c r="I814" s="6">
-        <v>0</v>
-      </c>
-      <c r="J814" s="6">
-        <v>0</v>
-      </c>
-      <c r="K814" s="6">
-        <v>0</v>
-      </c>
-      <c r="L814" s="6">
-        <v>0</v>
+      <c r="G814" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H814" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I814" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J814" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K814" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L814" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M814" s="6">
-        <v>0</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="N814" s="6">
         <v>0</v>
@@ -63145,7 +63145,7 @@
         <v>0</v>
       </c>
       <c r="R814" s="4">
-        <v>0</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="S814" s="1" t="s">
         <v>519</v>
@@ -63182,26 +63182,26 @@
       <c r="F815" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G815" s="7">
-        <v>0</v>
-      </c>
-      <c r="H815" s="6">
-        <v>0</v>
-      </c>
-      <c r="I815" s="6">
-        <v>0</v>
-      </c>
-      <c r="J815" s="6">
-        <v>0</v>
-      </c>
-      <c r="K815" s="6">
-        <v>0</v>
-      </c>
-      <c r="L815" s="6">
-        <v>0</v>
+      <c r="G815" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H815" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I815" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J815" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K815" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L815" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M815" s="6">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="N815" s="6">
         <v>0</v>
@@ -63216,7 +63216,7 @@
         <v>0</v>
       </c>
       <c r="R815" s="4">
-        <v>0</v>
+        <v>16.95</v>
       </c>
       <c r="S815" s="1" t="s">
         <v>519</v>
@@ -63253,26 +63253,26 @@
       <c r="F816" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G816" s="7">
-        <v>0</v>
-      </c>
-      <c r="H816" s="6">
-        <v>0</v>
-      </c>
-      <c r="I816" s="6">
-        <v>0</v>
-      </c>
-      <c r="J816" s="6">
-        <v>0</v>
-      </c>
-      <c r="K816" s="6">
-        <v>0</v>
-      </c>
-      <c r="L816" s="6">
-        <v>0</v>
+      <c r="G816" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H816" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I816" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J816" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K816" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L816" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M816" s="6">
-        <v>0</v>
+        <v>15.23</v>
       </c>
       <c r="N816" s="6">
         <v>0</v>
@@ -63287,7 +63287,7 @@
         <v>0</v>
       </c>
       <c r="R816" s="4">
-        <v>0</v>
+        <v>15.23</v>
       </c>
       <c r="S816" s="1" t="s">
         <v>519</v>
@@ -65241,23 +65241,23 @@
       <c r="F844" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G844" s="7">
-        <v>0</v>
-      </c>
-      <c r="H844" s="6">
-        <v>0</v>
-      </c>
-      <c r="I844" s="6">
-        <v>0</v>
-      </c>
-      <c r="J844" s="6">
-        <v>0</v>
-      </c>
-      <c r="K844" s="6">
-        <v>0</v>
-      </c>
-      <c r="L844" s="6">
-        <v>0</v>
+      <c r="G844" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H844" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I844" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J844" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K844" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L844" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M844" s="6">
         <v>17.809999999999999</v>
@@ -65312,26 +65312,26 @@
       <c r="F845" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G845" s="7">
-        <v>0</v>
-      </c>
-      <c r="H845" s="6">
-        <v>0</v>
-      </c>
-      <c r="I845" s="6">
-        <v>0</v>
-      </c>
-      <c r="J845" s="6">
-        <v>0</v>
-      </c>
-      <c r="K845" s="6">
-        <v>0</v>
-      </c>
-      <c r="L845" s="6">
-        <v>0</v>
+      <c r="G845" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H845" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I845" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J845" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K845" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L845" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M845" s="6">
-        <v>0</v>
+        <v>23.14</v>
       </c>
       <c r="N845" s="6">
         <v>0</v>
@@ -65346,7 +65346,7 @@
         <v>0</v>
       </c>
       <c r="R845" s="4">
-        <v>0</v>
+        <v>23.14</v>
       </c>
       <c r="S845" s="1" t="s">
         <v>519</v>
@@ -65383,26 +65383,26 @@
       <c r="F846" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G846" s="7">
-        <v>0</v>
-      </c>
-      <c r="H846" s="6">
-        <v>0</v>
-      </c>
-      <c r="I846" s="6">
-        <v>0</v>
-      </c>
-      <c r="J846" s="6">
-        <v>0</v>
-      </c>
-      <c r="K846" s="6">
-        <v>0</v>
-      </c>
-      <c r="L846" s="6">
-        <v>0</v>
+      <c r="G846" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H846" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I846" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J846" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K846" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L846" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M846" s="6">
-        <v>0</v>
+        <v>20.76</v>
       </c>
       <c r="N846" s="6">
         <v>0</v>
@@ -65417,7 +65417,7 @@
         <v>0</v>
       </c>
       <c r="R846" s="4">
-        <v>0</v>
+        <v>20.76</v>
       </c>
       <c r="S846" s="1" t="s">
         <v>519</v>
@@ -65454,26 +65454,26 @@
       <c r="F847" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G847" s="7">
-        <v>0</v>
-      </c>
-      <c r="H847" s="6">
-        <v>0</v>
-      </c>
-      <c r="I847" s="6">
-        <v>0</v>
-      </c>
-      <c r="J847" s="6">
-        <v>0</v>
-      </c>
-      <c r="K847" s="6">
-        <v>0</v>
-      </c>
-      <c r="L847" s="6">
-        <v>0</v>
+      <c r="G847" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H847" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I847" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J847" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K847" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L847" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M847" s="6">
-        <v>0</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="N847" s="6">
         <v>0</v>
@@ -65488,7 +65488,7 @@
         <v>0</v>
       </c>
       <c r="R847" s="4">
-        <v>0</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="S847" s="1" t="s">
         <v>519</v>
@@ -67304,13 +67304,13 @@
         <v>8</v>
       </c>
       <c r="H873" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I873" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J873" s="6">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K873" s="6" t="s">
         <v>33</v>
@@ -67334,7 +67334,7 @@
         <v>0</v>
       </c>
       <c r="R873" s="4">
-        <v>4.8</v>
+        <v>9.6</v>
       </c>
       <c r="S873" s="1" t="s">
         <v>519</v>
@@ -67442,23 +67442,23 @@
       <c r="F875" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G875" s="7">
-        <v>0</v>
+      <c r="G875" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H875" s="6">
-        <v>0</v>
-      </c>
-      <c r="I875" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I875" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J875" s="6">
-        <v>0</v>
-      </c>
-      <c r="K875" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K875" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L875" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M875" s="6">
         <v>0</v>
@@ -67476,7 +67476,7 @@
         <v>0</v>
       </c>
       <c r="R875" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S875" s="1" t="s">
         <v>519</v>
@@ -67513,23 +67513,23 @@
       <c r="F876" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G876" s="7">
-        <v>0</v>
+      <c r="G876" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H876" s="6">
-        <v>0</v>
-      </c>
-      <c r="I876" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I876" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J876" s="6">
-        <v>0</v>
-      </c>
-      <c r="K876" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K876" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L876" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M876" s="6">
         <v>0</v>
@@ -67547,7 +67547,7 @@
         <v>0</v>
       </c>
       <c r="R876" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S876" s="1" t="s">
         <v>519</v>
@@ -67584,23 +67584,23 @@
       <c r="F877" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G877" s="7">
-        <v>0</v>
+      <c r="G877" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H877" s="6">
         <v>0</v>
       </c>
-      <c r="I877" s="6">
-        <v>0</v>
+      <c r="I877" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J877" s="6">
         <v>0</v>
       </c>
-      <c r="K877" s="6">
-        <v>0</v>
+      <c r="K877" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L877" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M877" s="6">
         <v>0</v>
@@ -67618,7 +67618,7 @@
         <v>0</v>
       </c>
       <c r="R877" s="4">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="S877" s="1" t="s">
         <v>519</v>
@@ -67655,23 +67655,23 @@
       <c r="F878" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G878" s="7">
-        <v>0</v>
+      <c r="G878" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H878" s="6">
-        <v>0</v>
-      </c>
-      <c r="I878" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="I878" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J878" s="6">
-        <v>0</v>
-      </c>
-      <c r="K878" s="6">
-        <v>0</v>
+        <v>2.4</v>
+      </c>
+      <c r="K878" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="L878" s="6">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="M878" s="6">
         <v>0</v>
@@ -67689,7 +67689,7 @@
         <v>0</v>
       </c>
       <c r="R878" s="4">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="S878" s="1" t="s">
         <v>519</v>
@@ -69643,23 +69643,23 @@
       <c r="F906" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G906" s="7">
-        <v>0</v>
-      </c>
-      <c r="H906" s="6">
-        <v>0</v>
-      </c>
-      <c r="I906" s="6">
-        <v>0</v>
-      </c>
-      <c r="J906" s="6">
-        <v>0</v>
-      </c>
-      <c r="K906" s="6">
-        <v>0</v>
-      </c>
-      <c r="L906" s="6">
-        <v>0</v>
+      <c r="G906" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H906" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I906" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J906" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K906" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L906" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M906" s="6">
         <v>17.649999999999999</v>
@@ -69714,26 +69714,26 @@
       <c r="F907" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G907" s="7">
-        <v>0</v>
-      </c>
-      <c r="H907" s="6">
-        <v>0</v>
-      </c>
-      <c r="I907" s="6">
-        <v>0</v>
-      </c>
-      <c r="J907" s="6">
-        <v>0</v>
-      </c>
-      <c r="K907" s="6">
-        <v>0</v>
-      </c>
-      <c r="L907" s="6">
-        <v>0</v>
+      <c r="G907" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H907" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I907" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J907" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K907" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L907" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M907" s="6">
-        <v>0</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="N907" s="6">
         <v>0</v>
@@ -69748,7 +69748,7 @@
         <v>0</v>
       </c>
       <c r="R907" s="4">
-        <v>0</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="S907" s="1" t="s">
         <v>519</v>
@@ -69785,26 +69785,26 @@
       <c r="F908" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G908" s="7">
-        <v>0</v>
-      </c>
-      <c r="H908" s="6">
-        <v>0</v>
-      </c>
-      <c r="I908" s="6">
-        <v>0</v>
-      </c>
-      <c r="J908" s="6">
-        <v>0</v>
-      </c>
-      <c r="K908" s="6">
-        <v>0</v>
-      </c>
-      <c r="L908" s="6">
-        <v>0</v>
+      <c r="G908" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H908" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I908" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J908" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K908" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L908" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M908" s="6">
-        <v>0</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="N908" s="6">
         <v>0</v>
@@ -69819,7 +69819,7 @@
         <v>0</v>
       </c>
       <c r="R908" s="4">
-        <v>0</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="S908" s="1" t="s">
         <v>519</v>
@@ -69856,26 +69856,26 @@
       <c r="F909" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G909" s="7">
-        <v>0</v>
-      </c>
-      <c r="H909" s="6">
-        <v>0</v>
-      </c>
-      <c r="I909" s="6">
-        <v>0</v>
-      </c>
-      <c r="J909" s="6">
-        <v>0</v>
-      </c>
-      <c r="K909" s="6">
-        <v>0</v>
-      </c>
-      <c r="L909" s="6">
-        <v>0</v>
+      <c r="G909" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H909" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I909" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J909" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K909" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L909" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M909" s="6">
-        <v>0</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="N909" s="6">
         <v>0</v>
@@ -69890,7 +69890,7 @@
         <v>0</v>
       </c>
       <c r="R909" s="4">
-        <v>0</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="S909" s="1" t="s">
         <v>519</v>
@@ -71844,23 +71844,23 @@
       <c r="F937" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G937" s="7">
-        <v>0</v>
-      </c>
-      <c r="H937" s="6">
-        <v>0</v>
-      </c>
-      <c r="I937" s="6">
-        <v>0</v>
-      </c>
-      <c r="J937" s="6">
-        <v>0</v>
-      </c>
-      <c r="K937" s="6">
-        <v>0</v>
-      </c>
-      <c r="L937" s="6">
-        <v>0</v>
+      <c r="G937" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H937" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I937" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J937" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K937" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L937" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M937" s="6">
         <v>15.7</v>
@@ -71915,26 +71915,26 @@
       <c r="F938" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G938" s="7">
-        <v>0</v>
-      </c>
-      <c r="H938" s="6">
-        <v>0</v>
-      </c>
-      <c r="I938" s="6">
-        <v>0</v>
-      </c>
-      <c r="J938" s="6">
-        <v>0</v>
-      </c>
-      <c r="K938" s="6">
-        <v>0</v>
-      </c>
-      <c r="L938" s="6">
-        <v>0</v>
+      <c r="G938" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H938" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I938" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J938" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K938" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L938" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M938" s="6">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="N938" s="6">
         <v>0</v>
@@ -71949,7 +71949,7 @@
         <v>0</v>
       </c>
       <c r="R938" s="4">
-        <v>0</v>
+        <v>16.02</v>
       </c>
       <c r="S938" s="1" t="s">
         <v>519</v>
@@ -71986,26 +71986,26 @@
       <c r="F939" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G939" s="7">
-        <v>0</v>
-      </c>
-      <c r="H939" s="6">
-        <v>0</v>
-      </c>
-      <c r="I939" s="6">
-        <v>0</v>
-      </c>
-      <c r="J939" s="6">
-        <v>0</v>
-      </c>
-      <c r="K939" s="6">
-        <v>0</v>
-      </c>
-      <c r="L939" s="6">
-        <v>0</v>
+      <c r="G939" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H939" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I939" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J939" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K939" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L939" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M939" s="6">
-        <v>0</v>
+        <v>17.61</v>
       </c>
       <c r="N939" s="6">
         <v>0</v>
@@ -72020,7 +72020,7 @@
         <v>0</v>
       </c>
       <c r="R939" s="4">
-        <v>0</v>
+        <v>17.61</v>
       </c>
       <c r="S939" s="1" t="s">
         <v>519</v>
@@ -72057,26 +72057,26 @@
       <c r="F940" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G940" s="7">
-        <v>0</v>
-      </c>
-      <c r="H940" s="6">
-        <v>0</v>
-      </c>
-      <c r="I940" s="6">
-        <v>0</v>
-      </c>
-      <c r="J940" s="6">
-        <v>0</v>
-      </c>
-      <c r="K940" s="6">
-        <v>0</v>
-      </c>
-      <c r="L940" s="6">
-        <v>0</v>
+      <c r="G940" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H940" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I940" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J940" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K940" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L940" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M940" s="6">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="N940" s="6">
         <v>0</v>
@@ -72091,7 +72091,7 @@
         <v>0</v>
       </c>
       <c r="R940" s="4">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="S940" s="1" t="s">
         <v>519</v>
@@ -74045,23 +74045,23 @@
       <c r="F968" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G968" s="7">
-        <v>0</v>
-      </c>
-      <c r="H968" s="6">
-        <v>0</v>
-      </c>
-      <c r="I968" s="6">
-        <v>0</v>
-      </c>
-      <c r="J968" s="6">
-        <v>0</v>
-      </c>
-      <c r="K968" s="6">
-        <v>0</v>
-      </c>
-      <c r="L968" s="6">
-        <v>0</v>
+      <c r="G968" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H968" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I968" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J968" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K968" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L968" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M968" s="6">
         <v>20.14</v>
@@ -74116,26 +74116,26 @@
       <c r="F969" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G969" s="7">
-        <v>0</v>
-      </c>
-      <c r="H969" s="6">
-        <v>0</v>
-      </c>
-      <c r="I969" s="6">
-        <v>0</v>
-      </c>
-      <c r="J969" s="6">
-        <v>0</v>
-      </c>
-      <c r="K969" s="6">
-        <v>0</v>
-      </c>
-      <c r="L969" s="6">
-        <v>0</v>
+      <c r="G969" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H969" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I969" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J969" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K969" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L969" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M969" s="6">
-        <v>0</v>
+        <v>19.72</v>
       </c>
       <c r="N969" s="6">
         <v>0</v>
@@ -74150,7 +74150,7 @@
         <v>0</v>
       </c>
       <c r="R969" s="4">
-        <v>0</v>
+        <v>19.72</v>
       </c>
       <c r="S969" s="1" t="s">
         <v>519</v>
@@ -74187,26 +74187,26 @@
       <c r="F970" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G970" s="7">
-        <v>0</v>
-      </c>
-      <c r="H970" s="6">
-        <v>0</v>
-      </c>
-      <c r="I970" s="6">
-        <v>0</v>
-      </c>
-      <c r="J970" s="6">
-        <v>0</v>
-      </c>
-      <c r="K970" s="6">
-        <v>0</v>
-      </c>
-      <c r="L970" s="6">
-        <v>0</v>
+      <c r="G970" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H970" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I970" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J970" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K970" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L970" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M970" s="6">
-        <v>0</v>
+        <v>20.63</v>
       </c>
       <c r="N970" s="6">
         <v>0</v>
@@ -74221,7 +74221,7 @@
         <v>0</v>
       </c>
       <c r="R970" s="4">
-        <v>0</v>
+        <v>20.63</v>
       </c>
       <c r="S970" s="1" t="s">
         <v>519</v>
@@ -74258,26 +74258,26 @@
       <c r="F971" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G971" s="7">
-        <v>0</v>
-      </c>
-      <c r="H971" s="6">
-        <v>0</v>
-      </c>
-      <c r="I971" s="6">
-        <v>0</v>
-      </c>
-      <c r="J971" s="6">
-        <v>0</v>
-      </c>
-      <c r="K971" s="6">
-        <v>0</v>
-      </c>
-      <c r="L971" s="6">
-        <v>0</v>
+      <c r="G971" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H971" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I971" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J971" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K971" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L971" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M971" s="6">
-        <v>0</v>
+        <v>18.07</v>
       </c>
       <c r="N971" s="6">
         <v>0</v>
@@ -74292,7 +74292,7 @@
         <v>0</v>
       </c>
       <c r="R971" s="4">
-        <v>0</v>
+        <v>18.07</v>
       </c>
       <c r="S971" s="1" t="s">
         <v>519</v>
@@ -76246,23 +76246,23 @@
       <c r="F999" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G999" s="7">
-        <v>0</v>
-      </c>
-      <c r="H999" s="6">
-        <v>0</v>
-      </c>
-      <c r="I999" s="6">
-        <v>0</v>
-      </c>
-      <c r="J999" s="6">
-        <v>0</v>
-      </c>
-      <c r="K999" s="6">
-        <v>0</v>
-      </c>
-      <c r="L999" s="6">
-        <v>0</v>
+      <c r="G999" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H999" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I999" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J999" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K999" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L999" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M999" s="6">
         <v>22.72</v>
@@ -76317,26 +76317,26 @@
       <c r="F1000" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1000" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1000" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1000" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1000" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1000" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1000" s="6">
-        <v>0</v>
+      <c r="G1000" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1000" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1000" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1000" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1000" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1000" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1000" s="6">
-        <v>0</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="N1000" s="6">
         <v>0</v>
@@ -76351,7 +76351,7 @@
         <v>0</v>
       </c>
       <c r="R1000" s="4">
-        <v>0</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="S1000" s="1" t="s">
         <v>519</v>
@@ -76388,26 +76388,26 @@
       <c r="F1001" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1001" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1001" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1001" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1001" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1001" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1001" s="6">
-        <v>0</v>
+      <c r="G1001" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1001" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1001" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1001" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1001" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1001" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1001" s="6">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="N1001" s="6">
         <v>0</v>
@@ -76422,7 +76422,7 @@
         <v>0</v>
       </c>
       <c r="R1001" s="4">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="S1001" s="1" t="s">
         <v>519</v>
@@ -76459,26 +76459,26 @@
       <c r="F1002" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1002" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1002" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1002" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1002" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1002" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1002" s="6">
-        <v>0</v>
+      <c r="G1002" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1002" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1002" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1002" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1002" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1002" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1002" s="6">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="N1002" s="6">
         <v>0</v>
@@ -76493,7 +76493,7 @@
         <v>0</v>
       </c>
       <c r="R1002" s="4">
-        <v>0</v>
+        <v>20.39</v>
       </c>
       <c r="S1002" s="1" t="s">
         <v>519</v>
@@ -78447,23 +78447,23 @@
       <c r="F1030" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1030" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1030" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1030" s="6">
-        <v>0</v>
+      <c r="G1030" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1030" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1030" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1030" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1030" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1030" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1030" s="6">
         <v>0</v>
@@ -78518,23 +78518,23 @@
       <c r="F1031" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1031" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1031" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1031" s="6">
-        <v>0</v>
+      <c r="G1031" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1031" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1031" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1031" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1031" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1031" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1031" s="6">
         <v>0</v>
@@ -78589,23 +78589,23 @@
       <c r="F1032" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1032" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1032" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1032" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1032" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1032" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1032" s="6">
-        <v>0</v>
+      <c r="G1032" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1032" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1032" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1032" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1032" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1032" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1032" s="6">
         <v>0</v>
@@ -78660,23 +78660,23 @@
       <c r="F1033" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1033" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1033" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1033" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1033" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1033" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1033" s="6">
-        <v>0</v>
+      <c r="G1033" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1033" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1033" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1033" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1033" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1033" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1033" s="6">
         <v>0</v>
@@ -80648,23 +80648,23 @@
       <c r="F1061" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1061" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1061" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1061" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1061" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1061" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1061" s="6">
-        <v>0</v>
+      <c r="G1061" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1061" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1061" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1061" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1061" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1061" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1061" s="6">
         <v>17.47</v>
@@ -80719,26 +80719,26 @@
       <c r="F1062" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1062" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1062" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1062" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1062" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1062" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1062" s="6">
-        <v>0</v>
+      <c r="G1062" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1062" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1062" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1062" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1062" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1062" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1062" s="6">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="N1062" s="6">
         <v>0</v>
@@ -80753,7 +80753,7 @@
         <v>0</v>
       </c>
       <c r="R1062" s="4">
-        <v>0</v>
+        <v>13.38</v>
       </c>
       <c r="S1062" s="1" t="s">
         <v>519</v>
@@ -80790,26 +80790,26 @@
       <c r="F1063" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1063" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1063" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1063" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1063" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1063" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1063" s="6">
-        <v>0</v>
+      <c r="G1063" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1063" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1063" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1063" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1063" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1063" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1063" s="6">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="N1063" s="6">
         <v>0</v>
@@ -80824,7 +80824,7 @@
         <v>0</v>
       </c>
       <c r="R1063" s="4">
-        <v>0</v>
+        <v>12.84</v>
       </c>
       <c r="S1063" s="1" t="s">
         <v>519</v>
@@ -80861,26 +80861,26 @@
       <c r="F1064" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1064" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1064" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1064" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1064" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1064" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1064" s="6">
-        <v>0</v>
+      <c r="G1064" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1064" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1064" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1064" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1064" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1064" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1064" s="6">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="N1064" s="6">
         <v>0</v>
@@ -80895,7 +80895,7 @@
         <v>0</v>
       </c>
       <c r="R1064" s="4">
-        <v>0</v>
+        <v>21.19</v>
       </c>
       <c r="S1064" s="1" t="s">
         <v>519</v>
@@ -82849,23 +82849,23 @@
       <c r="F1092" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1092" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1092" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1092" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1092" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1092" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1092" s="6">
-        <v>0</v>
+      <c r="G1092" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1092" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1092" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1092" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1092" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1092" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1092" s="6">
         <v>18.03</v>
@@ -82920,26 +82920,26 @@
       <c r="F1093" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1093" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1093" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1093" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1093" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1093" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1093" s="6">
-        <v>0</v>
+      <c r="G1093" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1093" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1093" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1093" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1093" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1093" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1093" s="6">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="N1093" s="6">
         <v>0</v>
@@ -82954,7 +82954,7 @@
         <v>0</v>
       </c>
       <c r="R1093" s="4">
-        <v>0</v>
+        <v>15.13</v>
       </c>
       <c r="S1093" s="1" t="s">
         <v>519</v>
@@ -82991,26 +82991,26 @@
       <c r="F1094" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1094" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1094" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1094" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1094" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1094" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1094" s="6">
-        <v>0</v>
+      <c r="G1094" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1094" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1094" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1094" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1094" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1094" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1094" s="6">
-        <v>0</v>
+        <v>15.92</v>
       </c>
       <c r="N1094" s="6">
         <v>0</v>
@@ -83025,7 +83025,7 @@
         <v>0</v>
       </c>
       <c r="R1094" s="4">
-        <v>0</v>
+        <v>15.92</v>
       </c>
       <c r="S1094" s="1" t="s">
         <v>519</v>
@@ -83062,26 +83062,26 @@
       <c r="F1095" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1095" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1095" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1095" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1095" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1095" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1095" s="6">
-        <v>0</v>
+      <c r="G1095" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1095" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1095" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1095" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1095" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1095" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1095" s="6">
-        <v>0</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="N1095" s="6">
         <v>0</v>
@@ -83096,7 +83096,7 @@
         <v>0</v>
       </c>
       <c r="R1095" s="4">
-        <v>0</v>
+        <v>19.489999999999998</v>
       </c>
       <c r="S1095" s="1" t="s">
         <v>519</v>
@@ -85050,23 +85050,23 @@
       <c r="F1123" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1123" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1123" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1123" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1123" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1123" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1123" s="6">
-        <v>0</v>
+      <c r="G1123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1123" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1123" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1123" s="6">
         <v>21.2</v>
@@ -85121,26 +85121,26 @@
       <c r="F1124" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1124" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1124" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1124" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1124" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1124" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1124" s="6">
-        <v>0</v>
+      <c r="G1124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1124" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1124" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1124" s="6">
-        <v>0</v>
+        <v>17.13</v>
       </c>
       <c r="N1124" s="6">
         <v>0</v>
@@ -85155,7 +85155,7 @@
         <v>0</v>
       </c>
       <c r="R1124" s="4">
-        <v>0</v>
+        <v>17.13</v>
       </c>
       <c r="S1124" s="1" t="s">
         <v>519</v>
@@ -85192,26 +85192,26 @@
       <c r="F1125" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1125" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1125" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1125" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1125" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1125" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1125" s="6">
-        <v>0</v>
+      <c r="G1125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1125" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1125" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1125" s="6">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="N1125" s="6">
         <v>0</v>
@@ -85226,7 +85226,7 @@
         <v>0</v>
       </c>
       <c r="R1125" s="4">
-        <v>0</v>
+        <v>16.46</v>
       </c>
       <c r="S1125" s="1" t="s">
         <v>519</v>
@@ -85263,26 +85263,26 @@
       <c r="F1126" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1126" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1126" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1126" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1126" s="6">
-        <v>0</v>
-      </c>
-      <c r="K1126" s="6">
-        <v>0</v>
-      </c>
-      <c r="L1126" s="6">
-        <v>0</v>
+      <c r="G1126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1126" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1126" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M1126" s="6">
-        <v>0</v>
+        <v>19.62</v>
       </c>
       <c r="N1126" s="6">
         <v>0</v>
@@ -85297,7 +85297,7 @@
         <v>0</v>
       </c>
       <c r="R1126" s="4">
-        <v>0</v>
+        <v>19.62</v>
       </c>
       <c r="S1126" s="1" t="s">
         <v>519</v>
@@ -86708,7 +86708,7 @@
         <v>0</v>
       </c>
       <c r="O1146" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1146" s="6" t="s">
         <v>33</v>
@@ -86717,7 +86717,7 @@
         <v>33</v>
       </c>
       <c r="R1146" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1146" s="1" t="s">
         <v>756</v>
@@ -86850,7 +86850,7 @@
         <v>0</v>
       </c>
       <c r="O1148" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1148" s="6" t="s">
         <v>33</v>
@@ -86859,7 +86859,7 @@
         <v>33</v>
       </c>
       <c r="R1148" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1148" s="1" t="s">
         <v>756</v>
@@ -87113,7 +87113,7 @@
         <v>8</v>
       </c>
       <c r="H1152" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1152" s="6">
         <v>4</v>
@@ -87143,7 +87143,7 @@
         <v>33</v>
       </c>
       <c r="R1152" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1152" s="1" t="s">
         <v>756</v>
@@ -87251,17 +87251,17 @@
       <c r="F1154" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1154" s="7">
-        <v>0</v>
+      <c r="G1154" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1154" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1154" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1154" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1154" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1154" s="6">
         <v>0</v>
@@ -87276,16 +87276,16 @@
         <v>0</v>
       </c>
       <c r="O1154" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1154" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1154" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1154" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1154" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1154" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1154" s="1" t="s">
         <v>756</v>
@@ -87322,17 +87322,17 @@
       <c r="F1155" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1155" s="7">
-        <v>0</v>
+      <c r="G1155" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1155" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1155" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1155" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1155" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1155" s="6">
         <v>0</v>
@@ -87347,16 +87347,16 @@
         <v>0</v>
       </c>
       <c r="O1155" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1155" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1155" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1155" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1155" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1155" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1155" s="1" t="s">
         <v>756</v>
@@ -87393,17 +87393,17 @@
       <c r="F1156" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1156" s="7">
-        <v>0</v>
+      <c r="G1156" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1156" s="6">
         <v>0</v>
       </c>
       <c r="I1156" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1156" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1156" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1156" s="6">
         <v>0</v>
@@ -87418,16 +87418,16 @@
         <v>0</v>
       </c>
       <c r="O1156" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1156" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1156" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1156" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1156" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1156" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1156" s="1" t="s">
         <v>756</v>
@@ -87464,17 +87464,17 @@
       <c r="F1157" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1157" s="7">
-        <v>0</v>
+      <c r="G1157" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1157" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1157" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1157" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1157" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1157" s="6">
         <v>0</v>
@@ -87489,16 +87489,16 @@
         <v>0</v>
       </c>
       <c r="O1157" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1157" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1157" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1157" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1157" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1157" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1157" s="1" t="s">
         <v>756</v>
@@ -88909,7 +88909,7 @@
         <v>0</v>
       </c>
       <c r="O1177" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1177" s="6" t="s">
         <v>33</v>
@@ -88918,7 +88918,7 @@
         <v>4</v>
       </c>
       <c r="R1177" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1177" s="1" t="s">
         <v>756</v>
@@ -89051,7 +89051,7 @@
         <v>0</v>
       </c>
       <c r="O1179" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1179" s="6" t="s">
         <v>33</v>
@@ -89060,7 +89060,7 @@
         <v>4</v>
       </c>
       <c r="R1179" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1179" s="1" t="s">
         <v>756</v>
@@ -89314,7 +89314,7 @@
         <v>8</v>
       </c>
       <c r="H1183" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1183" s="6" t="s">
         <v>33</v>
@@ -89344,7 +89344,7 @@
         <v>4</v>
       </c>
       <c r="R1183" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1183" s="1" t="s">
         <v>756</v>
@@ -89412,10 +89412,10 @@
         <v>33</v>
       </c>
       <c r="Q1184" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1184" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1184" s="1" t="s">
         <v>756</v>
@@ -89452,17 +89452,17 @@
       <c r="F1185" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1185" s="7">
-        <v>0</v>
+      <c r="G1185" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1185" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1185" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1185" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1185" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1185" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1185" s="6">
         <v>0</v>
@@ -89477,16 +89477,16 @@
         <v>0</v>
       </c>
       <c r="O1185" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1185" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1185" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1185" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1185" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1185" s="1" t="s">
         <v>756</v>
@@ -89523,17 +89523,17 @@
       <c r="F1186" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1186" s="7">
-        <v>0</v>
+      <c r="G1186" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1186" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1186" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1186" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1186" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1186" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1186" s="6">
         <v>0</v>
@@ -89548,16 +89548,16 @@
         <v>0</v>
       </c>
       <c r="O1186" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1186" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1186" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1186" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1186" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1186" s="1" t="s">
         <v>756</v>
@@ -89594,17 +89594,17 @@
       <c r="F1187" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1187" s="7">
-        <v>0</v>
+      <c r="G1187" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1187" s="6">
         <v>0</v>
       </c>
-      <c r="I1187" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1187" s="6">
-        <v>0</v>
+      <c r="I1187" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1187" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1187" s="6">
         <v>0</v>
@@ -89619,16 +89619,16 @@
         <v>0</v>
       </c>
       <c r="O1187" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1187" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1187" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1187" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1187" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1187" s="1" t="s">
         <v>756</v>
@@ -89665,17 +89665,17 @@
       <c r="F1188" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1188" s="7">
-        <v>0</v>
+      <c r="G1188" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1188" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1188" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1188" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1188" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1188" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1188" s="6">
         <v>0</v>
@@ -89690,16 +89690,16 @@
         <v>0</v>
       </c>
       <c r="O1188" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1188" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1188" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1188" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1188" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1188" s="1" t="s">
         <v>756</v>
@@ -93311,7 +93311,7 @@
         <v>0</v>
       </c>
       <c r="O1239" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1239" s="6">
         <v>4</v>
@@ -93320,7 +93320,7 @@
         <v>33</v>
       </c>
       <c r="R1239" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1239" s="1" t="s">
         <v>756</v>
@@ -93453,7 +93453,7 @@
         <v>0</v>
       </c>
       <c r="O1241" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1241" s="6">
         <v>4</v>
@@ -93462,7 +93462,7 @@
         <v>33</v>
       </c>
       <c r="R1241" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1241" s="1" t="s">
         <v>756</v>
@@ -93854,17 +93854,17 @@
       <c r="F1247" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1247" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1247" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1247" s="6">
-        <v>0</v>
+      <c r="G1247" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1247" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1247" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1247" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1247" s="6">
         <v>0</v>
@@ -93879,16 +93879,16 @@
         <v>0</v>
       </c>
       <c r="O1247" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1247" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1247" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1247" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1247" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1247" s="1" t="s">
         <v>756</v>
@@ -93925,17 +93925,17 @@
       <c r="F1248" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1248" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1248" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1248" s="6">
-        <v>0</v>
+      <c r="G1248" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1248" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1248" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1248" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1248" s="6">
         <v>0</v>
@@ -93950,16 +93950,16 @@
         <v>0</v>
       </c>
       <c r="O1248" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1248" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1248" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1248" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1248" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1248" s="1" t="s">
         <v>756</v>
@@ -93996,17 +93996,17 @@
       <c r="F1249" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1249" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1249" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1249" s="6">
-        <v>0</v>
+      <c r="G1249" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1249" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1249" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1249" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1249" s="6">
         <v>0</v>
@@ -94021,16 +94021,16 @@
         <v>0</v>
       </c>
       <c r="O1249" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1249" s="6">
         <v>0</v>
       </c>
-      <c r="Q1249" s="6">
-        <v>0</v>
+      <c r="Q1249" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1249" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1249" s="1" t="s">
         <v>756</v>
@@ -94067,17 +94067,17 @@
       <c r="F1250" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1250" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1250" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1250" s="6">
-        <v>0</v>
+      <c r="G1250" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1250" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1250" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1250" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1250" s="6">
         <v>0</v>
@@ -94092,16 +94092,16 @@
         <v>0</v>
       </c>
       <c r="O1250" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1250" s="6">
         <v>0</v>
       </c>
-      <c r="Q1250" s="6">
-        <v>0</v>
+      <c r="Q1250" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1250" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1250" s="1" t="s">
         <v>756</v>
@@ -95512,7 +95512,7 @@
         <v>0</v>
       </c>
       <c r="O1270" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1270" s="6">
         <v>4</v>
@@ -95521,7 +95521,7 @@
         <v>33</v>
       </c>
       <c r="R1270" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1270" s="1" t="s">
         <v>756</v>
@@ -95654,7 +95654,7 @@
         <v>0</v>
       </c>
       <c r="O1272" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1272" s="6">
         <v>4</v>
@@ -95663,7 +95663,7 @@
         <v>33</v>
       </c>
       <c r="R1272" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1272" s="1" t="s">
         <v>756</v>
@@ -96055,17 +96055,17 @@
       <c r="F1278" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1278" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1278" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1278" s="6">
-        <v>0</v>
+      <c r="G1278" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1278" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1278" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1278" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1278" s="6">
         <v>0</v>
@@ -96080,16 +96080,16 @@
         <v>0</v>
       </c>
       <c r="O1278" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1278" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1278" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1278" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1278" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1278" s="1" t="s">
         <v>756</v>
@@ -96126,17 +96126,17 @@
       <c r="F1279" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1279" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1279" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1279" s="6">
-        <v>0</v>
+      <c r="G1279" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1279" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1279" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1279" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1279" s="6">
         <v>0</v>
@@ -96151,16 +96151,16 @@
         <v>0</v>
       </c>
       <c r="O1279" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1279" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1279" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="Q1279" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1279" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1279" s="1" t="s">
         <v>756</v>
@@ -96197,17 +96197,17 @@
       <c r="F1280" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1280" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1280" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1280" s="6">
-        <v>0</v>
+      <c r="G1280" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1280" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1280" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1280" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1280" s="6">
         <v>0</v>
@@ -96222,16 +96222,16 @@
         <v>0</v>
       </c>
       <c r="O1280" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1280" s="6">
         <v>0</v>
       </c>
-      <c r="Q1280" s="6">
-        <v>0</v>
+      <c r="Q1280" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1280" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1280" s="1" t="s">
         <v>756</v>
@@ -96268,17 +96268,17 @@
       <c r="F1281" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G1281" s="7">
-        <v>0</v>
-      </c>
-      <c r="H1281" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1281" s="6">
-        <v>0</v>
+      <c r="G1281" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1281" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1281" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="J1281" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K1281" s="6">
         <v>0</v>
@@ -96293,16 +96293,16 @@
         <v>0</v>
       </c>
       <c r="O1281" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1281" s="6">
         <v>0</v>
       </c>
-      <c r="Q1281" s="6">
-        <v>0</v>
+      <c r="Q1281" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1281" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S1281" s="1" t="s">
         <v>756</v>
@@ -97713,7 +97713,7 @@
         <v>0</v>
       </c>
       <c r="O1301" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1301" s="6" t="s">
         <v>33</v>
@@ -97722,7 +97722,7 @@
         <v>4</v>
       </c>
       <c r="R1301" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1301" s="1" t="s">
         <v>756</v>
@@ -97855,7 +97855,7 @@
         <v>0</v>
       </c>
       <c r="O1303" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1303" s="6" t="s">
         <v>33</v>
@@ -97864,7 +97864,7 @@
         <v>4</v>
       </c>
       <c r="R1303" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1303" s="1" t="s">
         <v>756</v>
@@ -98118,7 +98118,7 @@
         <v>8</v>
       </c>
       <c r="H1307" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1307" s="6" t="s">
         <v>33</v>
@@ -98148,7 +98148,7 @@
         <v>4</v>
       </c>
       <c r="R1307" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1307" s="1" t="s">
         <v>756</v>
@@ -98216,10 +98216,10 @@
         <v>33</v>
       </c>
       <c r="Q1308" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1308" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S1308" s="1" t="s">
         <v>756</v>
@@ -98256,17 +98256,17 @@
       <c r="F1309" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1309" s="7">
-        <v>0</v>
+      <c r="G1309" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1309" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1309" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1309" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1309" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1309" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1309" s="6">
         <v>0</v>
@@ -98281,16 +98281,16 @@
         <v>0</v>
       </c>
       <c r="O1309" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1309" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1309" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1309" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1309" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1309" s="1" t="s">
         <v>756</v>
@@ -98327,17 +98327,17 @@
       <c r="F1310" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1310" s="7">
-        <v>0</v>
+      <c r="G1310" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1310" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1310" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1310" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1310" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1310" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1310" s="6">
         <v>0</v>
@@ -98352,16 +98352,16 @@
         <v>0</v>
       </c>
       <c r="O1310" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1310" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1310" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1310" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1310" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1310" s="1" t="s">
         <v>756</v>
@@ -98398,17 +98398,17 @@
       <c r="F1311" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1311" s="7">
-        <v>0</v>
+      <c r="G1311" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1311" s="6">
         <v>0</v>
       </c>
-      <c r="I1311" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1311" s="6">
-        <v>0</v>
+      <c r="I1311" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1311" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1311" s="6">
         <v>0</v>
@@ -98423,16 +98423,16 @@
         <v>0</v>
       </c>
       <c r="O1311" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1311" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1311" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1311" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1311" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1311" s="1" t="s">
         <v>756</v>
@@ -98469,17 +98469,17 @@
       <c r="F1312" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1312" s="7">
-        <v>0</v>
+      <c r="G1312" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1312" s="6">
-        <v>0</v>
-      </c>
-      <c r="I1312" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1312" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I1312" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1312" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1312" s="6">
         <v>0</v>
@@ -98494,16 +98494,16 @@
         <v>0</v>
       </c>
       <c r="O1312" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1312" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1312" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="Q1312" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R1312" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1312" s="1" t="s">
         <v>756</v>
@@ -99914,7 +99914,7 @@
         <v>0</v>
       </c>
       <c r="O1332" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1332" s="6" t="s">
         <v>33</v>
@@ -99923,7 +99923,7 @@
         <v>33</v>
       </c>
       <c r="R1332" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1332" s="1" t="s">
         <v>756</v>
@@ -100056,7 +100056,7 @@
         <v>0</v>
       </c>
       <c r="O1334" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P1334" s="6" t="s">
         <v>33</v>
@@ -100065,7 +100065,7 @@
         <v>33</v>
       </c>
       <c r="R1334" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1334" s="1" t="s">
         <v>756</v>
@@ -100319,7 +100319,7 @@
         <v>8</v>
       </c>
       <c r="H1338" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1338" s="6">
         <v>4</v>
@@ -100349,7 +100349,7 @@
         <v>33</v>
       </c>
       <c r="R1338" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S1338" s="1" t="s">
         <v>756</v>
@@ -100457,17 +100457,17 @@
       <c r="F1340" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1340" s="7">
-        <v>0</v>
+      <c r="G1340" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1340" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1340" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1340" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1340" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1340" s="6">
         <v>0</v>
@@ -100482,16 +100482,16 @@
         <v>0</v>
       </c>
       <c r="O1340" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1340" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1340" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1340" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1340" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1340" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1340" s="1" t="s">
         <v>756</v>
@@ -100528,17 +100528,17 @@
       <c r="F1341" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1341" s="7">
-        <v>0</v>
+      <c r="G1341" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1341" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1341" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1341" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1341" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1341" s="6">
         <v>0</v>
@@ -100553,16 +100553,16 @@
         <v>0</v>
       </c>
       <c r="O1341" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1341" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1341" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1341" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1341" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1341" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1341" s="1" t="s">
         <v>756</v>
@@ -100599,17 +100599,17 @@
       <c r="F1342" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1342" s="7">
-        <v>0</v>
+      <c r="G1342" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1342" s="6">
         <v>0</v>
       </c>
       <c r="I1342" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1342" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1342" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1342" s="6">
         <v>0</v>
@@ -100624,16 +100624,16 @@
         <v>0</v>
       </c>
       <c r="O1342" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1342" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1342" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1342" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1342" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1342" s="4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S1342" s="1" t="s">
         <v>756</v>
@@ -100670,17 +100670,17 @@
       <c r="F1343" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1343" s="7">
-        <v>0</v>
+      <c r="G1343" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="H1343" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1343" s="6">
-        <v>0</v>
-      </c>
-      <c r="J1343" s="6">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J1343" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="K1343" s="6">
         <v>0</v>
@@ -100695,16 +100695,16 @@
         <v>0</v>
       </c>
       <c r="O1343" s="6">
-        <v>0</v>
-      </c>
-      <c r="P1343" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q1343" s="6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="P1343" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1343" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="R1343" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="S1343" s="1" t="s">
         <v>756</v>
